--- a/KETCHUP_main/example/data/k-ecoli74_data.xlsx
+++ b/KETCHUP_main/example/data/k-ecoli74_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\pyomo\dae\K-FIT-master\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjack\DOCUME~1\MobaXterm\slash\RemoteFiles\4721848_2_6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0DEA8B-D53C-44BA-BFFF-B29A08E662BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B338FDFE-E2F2-4393-AC0F-DDB874C21921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3210" yWindow="1860" windowWidth="20325" windowHeight="12825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2835" yWindow="360" windowWidth="19755" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -714,7 +714,7 @@
   <dimension ref="A1:F865"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F865"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,8 +750,7 @@
         <v>69.840477731386855</v>
       </c>
       <c r="D2">
-        <f>MAX(0.001,ABS(C2/100))</f>
-        <v>0.69840477731386852</v>
+        <v>6.9840477731386859</v>
       </c>
       <c r="E2" t="s">
         <v>2</v>
@@ -771,8 +770,7 @@
         <v>749.17078683540944</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="0">MAX(0.001,ABS(C3/100))</f>
-        <v>7.4917078683540943</v>
+        <v>74.91707868354095</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
@@ -792,8 +790,7 @@
         <v>669.62511026128345</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>6.6962511026128348</v>
+        <v>66.96251102612834</v>
       </c>
       <c r="E4" t="s">
         <v>2</v>
@@ -813,8 +810,7 @@
         <v>79.545676574126702</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>0.795456765741267</v>
+        <v>7.95456765741267</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -834,8 +830,7 @@
         <v>79.545676574127995</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>0.79545676574127999</v>
+        <v>7.9545676574127997</v>
       </c>
       <c r="E6" t="s">
         <v>2</v>
@@ -855,8 +850,7 @@
         <v>163.85003582248606</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>1.6385003582248607</v>
+        <v>16.385003582248608</v>
       </c>
       <c r="E7" t="s">
         <v>2</v>
@@ -876,8 +870,7 @@
         <v>150.68964850748327</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>1.5068964850748328</v>
+        <v>15.068964850748326</v>
       </c>
       <c r="E8" t="s">
         <v>2</v>
@@ -897,8 +890,7 @@
         <v>122.41599018398624</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>1.2241599018398623</v>
+        <v>12.241599018398624</v>
       </c>
       <c r="E9" t="s">
         <v>2</v>
@@ -918,8 +910,7 @@
         <v>25.415809344122213</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.25415809344122214</v>
+        <v>2.5415809344122211</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -939,8 +930,7 @@
         <v>24.196449860691928</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>0.24196449860691926</v>
+        <v>2.4196449860691929</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -960,8 +950,7 @@
         <v>10.270305583752966</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>0.10270305583752966</v>
+        <v>1.0270305583752966</v>
       </c>
       <c r="E12" t="s">
         <v>2</v>
@@ -981,8 +970,7 @@
         <v>13.926144276946467</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>0.13926144276946467</v>
+        <v>1.3926144276946466</v>
       </c>
       <c r="E13" t="s">
         <v>2</v>
@@ -1002,8 +990,7 @@
         <v>6.516082644895306</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>6.516082644895306E-2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>2</v>
@@ -1023,8 +1010,7 @@
         <v>6.5160826448903162</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>6.5160826448903156E-2</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>2</v>
@@ -1044,8 +1030,7 @@
         <v>3.7542229388567119</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>3.7542229388567119E-2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="s">
         <v>2</v>
@@ -1065,8 +1050,7 @@
         <v>1.2193594834310579</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>1.2193594834310579E-2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>2</v>
@@ -1086,8 +1070,7 @@
         <v>1.2193594834310579</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>1.2193594834310579E-2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="s">
         <v>2</v>
@@ -1107,8 +1090,7 @@
         <v>104.98682741187069</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>1.0498682741187069</v>
+        <v>10.49868274118707</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -1128,8 +1110,7 @@
         <v>17.031161242753804</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>0.17031161242753803</v>
+        <v>1.7031161242753803</v>
       </c>
       <c r="E20" t="s">
         <v>2</v>
@@ -1149,8 +1130,7 @@
         <v>17.031161243599872</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>0.17031161243599871</v>
+        <v>1.7031161243599873</v>
       </c>
       <c r="E21" t="s">
         <v>2</v>
@@ -1170,8 +1150,7 @@
         <v>16.300848132187642</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>0.16300848132187643</v>
+        <v>1.6300848132187642</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
@@ -1191,8 +1170,7 @@
         <v>7.0124035300513414</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>7.0124035300513421E-2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -1212,8 +1190,7 @@
         <v>3.820744330853286</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>3.820744330853286E-2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
         <v>2</v>
@@ -1233,8 +1210,7 @@
         <v>7.7427166406011727</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>7.742716640601173E-2</v>
+        <v>1</v>
       </c>
       <c r="E25" t="s">
         <v>2</v>
@@ -1254,8 +1230,7 @@
         <v>10.719476093219086</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>0.10719476093219087</v>
+        <v>1.0719476093219087</v>
       </c>
       <c r="E26" t="s">
         <v>2</v>
@@ -1275,8 +1250,7 @@
         <v>11.449789006188009</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.11449789006188009</v>
+        <v>1.1449789006188009</v>
       </c>
       <c r="E27" t="s">
         <v>2</v>
@@ -1296,8 +1270,7 @@
         <v>0.73031311054983439</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>7.3031311054983436E-3</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
         <v>2</v>
@@ -1317,8 +1290,7 @@
         <v>0.73031311054983439</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>7.3031311054983436E-3</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>2</v>
@@ -1338,8 +1310,7 @@
         <v>9.8847879720232761E-8</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
         <v>2</v>
@@ -1359,8 +1330,7 @@
         <v>9.8775040425715433E-8</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E31" t="s">
         <v>2</v>
@@ -1380,8 +1350,7 @@
         <v>22.344017266689413</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.22344017266689412</v>
+        <v>2.2344017266689411</v>
       </c>
       <c r="E32" t="s">
         <v>2</v>
@@ -1401,8 +1370,7 @@
         <v>9.8824793581773625E-8</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="s">
         <v>2</v>
@@ -1422,8 +1390,7 @@
         <v>66.651156834161881</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.66651156834161884</v>
+        <v>6.6651156834161878</v>
       </c>
       <c r="E34" t="s">
         <v>2</v>
@@ -1443,8 +1410,7 @@
         <v>49.932586429257064</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.49932586429257064</v>
+        <v>4.9932586429257064</v>
       </c>
       <c r="E35" t="s">
         <v>2</v>
@@ -1464,8 +1430,7 @@
         <v>5.8341301571361566</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>5.8341301571361567E-2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>2</v>
@@ -1485,8 +1450,7 @@
         <v>1.4804204764356437</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>1.4804204764356437E-2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
         <v>2</v>
@@ -1506,8 +1470,7 @@
         <v>2.2763454637666327</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>2.2763454637666328E-2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
         <v>2</v>
@@ -1527,8 +1490,7 @@
         <v>13.945070476133708</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.13945070476133709</v>
+        <v>1.3945070476133707</v>
       </c>
       <c r="E39" t="s">
         <v>2</v>
@@ -1548,8 +1510,7 @@
         <v>1.9898124683274725</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>1.9898124683274725E-2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="s">
         <v>2</v>
@@ -1569,8 +1530,7 @@
         <v>3.9477879371617099</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>3.9477879371617099E-2</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>2</v>
@@ -1590,8 +1550,7 @@
         <v>8.4405521415977383</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>8.4405521415977389E-2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="s">
         <v>2</v>
@@ -1611,8 +1570,7 @@
         <v>4.4688864548161016</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>4.4688864548161018E-2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="s">
         <v>2</v>
@@ -1632,8 +1590,7 @@
         <v>0.80809621118835795</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>8.0809621118835794E-3</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
         <v>2</v>
@@ -1653,8 +1610,7 @@
         <v>4.6469809480862052E-4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>2</v>
@@ -1674,8 +1630,7 @@
         <v>1.5918499746619783</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1.5918499746619783E-2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>2</v>
@@ -1695,8 +1650,7 @@
         <v>2.3002232133865594</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>2.3002232133865593E-2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>2</v>
@@ -1716,8 +1670,7 @@
         <v>2.3002232133865594</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>2.3002232133865593E-2</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>2</v>
@@ -1737,8 +1690,7 @@
         <v>3.7970268876636317</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>3.7970268876636321E-2</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>2</v>
@@ -1758,8 +1710,7 @@
         <v>0.89143598581070782</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>8.9143598581070786E-3</v>
+        <v>1</v>
       </c>
       <c r="E50" t="s">
         <v>2</v>
@@ -1779,8 +1730,7 @@
         <v>2.5469599594591648</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>2.5469599594591649E-2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="s">
         <v>2</v>
@@ -1800,8 +1750,7 @@
         <v>3.120025950337475</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>3.1200259503374749E-2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="s">
         <v>2</v>
@@ -1821,8 +1770,7 @@
         <v>1.735116472381558</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>1.7351164723815579E-2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>2</v>
@@ -1842,8 +1790,7 @@
         <v>1.2416429802363469</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>1.2416429802363469E-2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="s">
         <v>2</v>
@@ -1863,8 +1810,7 @@
         <v>1.082457982770149</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>1.082457982770149E-2</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>2</v>
@@ -1884,8 +1830,7 @@
         <v>0.43775874303204398</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>4.3775874303204395E-3</v>
+        <v>1</v>
       </c>
       <c r="E56" t="s">
         <v>2</v>
@@ -1905,8 +1850,7 @@
         <v>0.70041398885127037</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>7.0041398885127039E-3</v>
+        <v>1</v>
       </c>
       <c r="E57" t="s">
         <v>2</v>
@@ -1926,8 +1870,7 @@
         <v>0.89143598581070782</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>8.9143598581070786E-3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="s">
         <v>2</v>
@@ -1947,8 +1890,7 @@
         <v>0.70041398885127037</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>7.0041398885127039E-3</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>2</v>
@@ -1968,8 +1910,7 @@
         <v>131.22010053968194</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>1.3122010053968194</v>
+        <v>13.122010053968193</v>
       </c>
       <c r="E60" t="s">
         <v>2</v>
@@ -1989,8 +1930,7 @@
         <v>3.8713583203005864</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>3.8713583203005865E-2</v>
+        <v>1</v>
       </c>
       <c r="E61" t="s">
         <v>2</v>
@@ -2010,8 +1950,7 @@
         <v>50.511981831226848</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>0.50511981831226849</v>
+        <v>5.0511981831226844</v>
       </c>
       <c r="E62" t="s">
         <v>2</v>
@@ -2031,8 +1970,7 @@
         <v>1.2985521208358248E-3</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
         <v>2</v>
@@ -2052,8 +1990,7 @@
         <v>100</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
         <v>2</v>
@@ -2073,8 +2010,7 @@
         <v>70.519352272590439</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>0.70519352272590441</v>
+        <v>7.0519352272590439</v>
       </c>
       <c r="E65" t="s">
         <v>2</v>
@@ -2094,8 +2030,7 @@
         <v>144.2684739639088</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>1.4426847396390881</v>
+        <v>14.42684739639088</v>
       </c>
       <c r="E66" t="s">
         <v>2</v>
@@ -2115,8 +2050,7 @@
         <v>135.09145885998237</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="1">MAX(0.001,ABS(C67/100))</f>
-        <v>1.3509145885998237</v>
+        <v>13.509145885998237</v>
       </c>
       <c r="E67" t="s">
         <v>2</v>
@@ -2136,8 +2070,7 @@
         <v>54.321880385340023</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>0.54321880385340027</v>
+        <v>5.4321880385340027</v>
       </c>
       <c r="E68" t="s">
         <v>2</v>
@@ -2157,8 +2090,7 @@
         <v>1.5918499746619783</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>1.5918499746619783E-2</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>2</v>
@@ -2178,8 +2110,7 @@
         <v>-100</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
         <v>2</v>
@@ -2199,8 +2130,7 @@
         <v>-135.09145885998237</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>1.3509145885998237</v>
+        <v>13.509145885998237</v>
       </c>
       <c r="E71" t="s">
         <v>2</v>
@@ -2220,8 +2150,7 @@
         <v>-1.5918499746619783</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>1.5918499746619783E-2</v>
+        <v>1</v>
       </c>
       <c r="E72" t="s">
         <v>2</v>
@@ -2241,8 +2170,7 @@
         <v>-54.321880385340023</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>0.54321880385340027</v>
+        <v>5.4321880385340027</v>
       </c>
       <c r="E73" t="s">
         <v>2</v>
@@ -2262,8 +2190,7 @@
         <v>144.2684739639088</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>1.4426847396390881</v>
+        <v>14.42684739639088</v>
       </c>
       <c r="E74" t="s">
         <v>2</v>
@@ -2283,8 +2210,7 @@
         <v>70.519352272590439</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>0.70519352272590441</v>
+        <v>7.0519352272590439</v>
       </c>
       <c r="E75" t="s">
         <v>2</v>
@@ -2304,8 +2230,7 @@
         <v>4.7437129244926943</v>
       </c>
       <c r="D76">
-        <f t="shared" si="1"/>
-        <v>4.7437129244926941E-2</v>
+        <v>1</v>
       </c>
       <c r="E76" t="s">
         <v>2</v>
@@ -2325,8 +2250,7 @@
         <v>0.56510674100500213</v>
       </c>
       <c r="D77">
-        <f t="shared" si="1"/>
-        <v>5.6510674100500209E-3</v>
+        <v>1</v>
       </c>
       <c r="E77" t="s">
         <v>2</v>
@@ -2346,8 +2270,7 @@
         <v>264.99526528197947</v>
       </c>
       <c r="D78">
-        <f t="shared" si="1"/>
-        <v>2.6499526528197945</v>
+        <v>26.499526528197947</v>
       </c>
       <c r="E78" t="s">
         <v>2</v>
@@ -2367,8 +2290,7 @@
         <v>0.65265848961141104</v>
       </c>
       <c r="D79">
-        <f t="shared" si="1"/>
-        <v>6.5265848961141102E-3</v>
+        <v>1</v>
       </c>
       <c r="E79" t="s">
         <v>2</v>
@@ -2388,8 +2310,7 @@
         <v>4.7198351748727649</v>
       </c>
       <c r="D80">
-        <f t="shared" si="1"/>
-        <v>4.7198351748727649E-2</v>
+        <v>1</v>
       </c>
       <c r="E80" t="s">
         <v>2</v>
@@ -2409,8 +2330,7 @@
         <v>-11.692138063892228</v>
       </c>
       <c r="D81">
-        <f t="shared" si="1"/>
-        <v>0.11692138063892228</v>
+        <v>1.1692138063892228</v>
       </c>
       <c r="E81" t="s">
         <v>2</v>
@@ -2430,8 +2350,7 @@
         <v>0.40592174353880434</v>
       </c>
       <c r="D82">
-        <f t="shared" si="1"/>
-        <v>4.0592174353880437E-3</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>2</v>
@@ -2451,8 +2370,7 @@
         <v>0.66061773948472091</v>
       </c>
       <c r="D83">
-        <f t="shared" si="1"/>
-        <v>6.6061773948472092E-3</v>
+        <v>1</v>
       </c>
       <c r="E83" t="s">
         <v>2</v>
@@ -2472,8 +2390,7 @@
         <v>31.446996249447377</v>
       </c>
       <c r="D84">
-        <f t="shared" si="1"/>
-        <v>0.31446996249447379</v>
+        <v>3.1446996249447379</v>
       </c>
       <c r="E84" t="s">
         <v>2</v>
@@ -2493,8 +2410,7 @@
         <v>6.2718889001681939</v>
       </c>
       <c r="D85">
-        <f t="shared" si="1"/>
-        <v>6.2718889001681932E-2</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
         <v>2</v>
@@ -2514,8 +2430,7 @@
         <v>13.586439533739982</v>
       </c>
       <c r="D86">
-        <f t="shared" si="1"/>
-        <v>0.13586439533739983</v>
+        <v>1.3586439533739982</v>
       </c>
       <c r="E86" t="s">
         <v>2</v>
@@ -2535,8 +2450,7 @@
         <v>2.8175744551517008</v>
       </c>
       <c r="D87">
-        <f t="shared" si="1"/>
-        <v>2.8175744551517008E-2</v>
+        <v>1</v>
       </c>
       <c r="E87" t="s">
         <v>2</v>
@@ -2556,8 +2470,7 @@
         <v>0.69245473897796039</v>
       </c>
       <c r="D88">
-        <f t="shared" si="1"/>
-        <v>6.9245473897796041E-3</v>
+        <v>1</v>
       </c>
       <c r="E88" t="s">
         <v>2</v>
@@ -2577,8 +2490,7 @@
         <v>2.4196119614862064</v>
       </c>
       <c r="D89">
-        <f t="shared" si="1"/>
-        <v>2.4196119614862063E-2</v>
+        <v>1</v>
       </c>
       <c r="E89" t="s">
         <v>2</v>
@@ -2598,8 +2510,7 @@
         <v>2.4196119614862064</v>
       </c>
       <c r="D90">
-        <f t="shared" si="1"/>
-        <v>2.4196119614862063E-2</v>
+        <v>1</v>
       </c>
       <c r="E90" t="s">
         <v>2</v>
@@ -2619,8 +2530,7 @@
         <v>1.4804204764356395</v>
       </c>
       <c r="D91">
-        <f t="shared" si="1"/>
-        <v>1.4804204764356394E-2</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
@@ -2640,8 +2550,7 @@
         <v>1.9898124683274725</v>
       </c>
       <c r="D92">
-        <f t="shared" si="1"/>
-        <v>1.9898124683274725E-2</v>
+        <v>1</v>
       </c>
       <c r="E92" t="s">
         <v>2</v>
@@ -2661,8 +2570,7 @@
         <v>2.2763454637666283</v>
       </c>
       <c r="D93">
-        <f t="shared" si="1"/>
-        <v>2.2763454637666283E-2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>2</v>
@@ -2682,8 +2590,7 @@
         <v>1.9898124683274725</v>
       </c>
       <c r="D94">
-        <f t="shared" si="1"/>
-        <v>1.9898124683274725E-2</v>
+        <v>1</v>
       </c>
       <c r="E94" t="s">
         <v>2</v>
@@ -2703,8 +2610,7 @@
         <v>3.9477879371617055</v>
       </c>
       <c r="D95">
-        <f t="shared" si="1"/>
-        <v>3.9477879371617057E-2</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>2</v>
@@ -2724,8 +2630,7 @@
         <v>1.942056969087613</v>
       </c>
       <c r="D96">
-        <f t="shared" si="1"/>
-        <v>1.9420569690876129E-2</v>
+        <v>1</v>
       </c>
       <c r="E96" t="s">
         <v>2</v>
@@ -2745,8 +2650,7 @@
         <v>3.6612549417225497</v>
       </c>
       <c r="D97">
-        <f t="shared" si="1"/>
-        <v>3.6612549417225498E-2</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>2</v>
@@ -2766,8 +2670,7 @@
         <v>3.6851326913424791</v>
       </c>
       <c r="D98">
-        <f t="shared" si="1"/>
-        <v>3.6851326913424791E-2</v>
+        <v>1</v>
       </c>
       <c r="E98" t="s">
         <v>2</v>
@@ -2787,8 +2690,7 @@
         <v>2.0614457171872616</v>
       </c>
       <c r="D99">
-        <f t="shared" si="1"/>
-        <v>2.0614457171872616E-2</v>
+        <v>1</v>
       </c>
       <c r="E99" t="s">
         <v>2</v>
@@ -2808,8 +2710,7 @@
         <v>0.70041398885127026</v>
       </c>
       <c r="D100">
-        <f t="shared" si="1"/>
-        <v>7.004139888512703E-3</v>
+        <v>1</v>
       </c>
       <c r="E100" t="s">
         <v>2</v>
@@ -2829,8 +2730,7 @@
         <v>2.3002232133865581</v>
       </c>
       <c r="D101">
-        <f t="shared" si="1"/>
-        <v>2.3002232133865583E-2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="s">
         <v>2</v>
@@ -2850,8 +2750,7 @@
         <v>0.89143598581070771</v>
       </c>
       <c r="D102">
-        <f t="shared" si="1"/>
-        <v>8.9143598581070769E-3</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>2</v>
@@ -2871,8 +2770,7 @@
         <v>2.5469599594591648</v>
       </c>
       <c r="D103">
-        <f t="shared" si="1"/>
-        <v>2.5469599594591649E-2</v>
+        <v>1</v>
       </c>
       <c r="E103" t="s">
         <v>2</v>
@@ -2892,8 +2790,7 @@
         <v>3.1200259503374772</v>
       </c>
       <c r="D104">
-        <f t="shared" si="1"/>
-        <v>3.1200259503374773E-2</v>
+        <v>1</v>
       </c>
       <c r="E104" t="s">
         <v>2</v>
@@ -2913,8 +2810,7 @@
         <v>1.735116472381556</v>
       </c>
       <c r="D105">
-        <f t="shared" si="1"/>
-        <v>1.7351164723815558E-2</v>
+        <v>1</v>
       </c>
       <c r="E105" t="s">
         <v>2</v>
@@ -2934,8 +2830,7 @@
         <v>1.2416429802363429</v>
       </c>
       <c r="D106">
-        <f t="shared" si="1"/>
-        <v>1.2416429802363429E-2</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>2</v>
@@ -2955,8 +2850,7 @@
         <v>1.082457982770145</v>
       </c>
       <c r="D107">
-        <f t="shared" si="1"/>
-        <v>1.082457982770145E-2</v>
+        <v>1</v>
       </c>
       <c r="E107" t="s">
         <v>2</v>
@@ -2976,8 +2870,7 @@
         <v>0.43775874303204393</v>
       </c>
       <c r="D108">
-        <f t="shared" si="1"/>
-        <v>4.3775874303204395E-3</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>2</v>
@@ -2997,8 +2890,7 @@
         <v>0.70041398885127026</v>
       </c>
       <c r="D109">
-        <f t="shared" si="1"/>
-        <v>7.004139888512703E-3</v>
+        <v>1</v>
       </c>
       <c r="E109" t="s">
         <v>2</v>
@@ -3018,8 +2910,7 @@
         <v>0</v>
       </c>
       <c r="D110">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E110" t="s">
         <v>2</v>
@@ -3039,8 +2930,7 @@
         <v>78.468699976890207</v>
       </c>
       <c r="D111">
-        <f t="shared" si="1"/>
-        <v>0.7846869997689021</v>
+        <v>7.846869997689021</v>
       </c>
       <c r="E111" t="s">
         <v>2</v>
@@ -3060,8 +2950,7 @@
         <v>68.232846590472107</v>
       </c>
       <c r="D112">
-        <f t="shared" si="1"/>
-        <v>0.68232846590472107</v>
+        <v>6.8232846590472107</v>
       </c>
       <c r="E112" t="s">
         <v>2</v>
@@ -3081,8 +2970,7 @@
         <v>10.2358533864181</v>
       </c>
       <c r="D113">
-        <f t="shared" si="1"/>
-        <v>0.10235853386418099</v>
+        <v>1.0235853386418099</v>
       </c>
       <c r="E113" t="s">
         <v>2</v>
@@ -3102,8 +2990,7 @@
         <v>10.2358533864181</v>
       </c>
       <c r="D114">
-        <f t="shared" si="1"/>
-        <v>0.10235853386418099</v>
+        <v>1.0235853386418099</v>
       </c>
       <c r="E114" t="s">
         <v>2</v>
@@ -3123,8 +3010,7 @@
         <v>36.432424841322202</v>
       </c>
       <c r="D115">
-        <f t="shared" si="1"/>
-        <v>0.36432424841322203</v>
+        <v>3.6432424841322204</v>
       </c>
       <c r="E115" t="s">
         <v>2</v>
@@ -3144,8 +3030,7 @@
         <v>35.4922555221737</v>
       </c>
       <c r="D116">
-        <f t="shared" si="1"/>
-        <v>0.35492255522173699</v>
+        <v>3.5492255522173699</v>
       </c>
       <c r="E116" t="s">
         <v>2</v>
@@ -3165,8 +3050,7 @@
         <v>34.948900519475998</v>
       </c>
       <c r="D117">
-        <f t="shared" si="1"/>
-        <v>0.34948900519476001</v>
+        <v>3.4948900519475998</v>
       </c>
       <c r="E117" t="s">
         <v>2</v>
@@ -3186,8 +3070,7 @@
         <v>30.5223736735763</v>
       </c>
       <c r="D118">
-        <f t="shared" si="1"/>
-        <v>0.30522373673576303</v>
+        <v>3.05223736735763</v>
       </c>
       <c r="E118" t="s">
         <v>2</v>
@@ -3207,8 +3090,7 @@
         <v>19.619455980094099</v>
       </c>
       <c r="D119">
-        <f t="shared" si="1"/>
-        <v>0.196194559800941</v>
+        <v>1.9619455980094098</v>
       </c>
       <c r="E119" t="s">
         <v>2</v>
@@ -3228,8 +3110,7 @@
         <v>10.266611520470301</v>
       </c>
       <c r="D120">
-        <f t="shared" si="1"/>
-        <v>0.10266611520470301</v>
+        <v>1.0266611520470301</v>
       </c>
       <c r="E120" t="s">
         <v>2</v>
@@ -3249,8 +3130,7 @@
         <v>9.3528444596237996</v>
       </c>
       <c r="D121">
-        <f t="shared" si="1"/>
-        <v>9.3528444596237992E-2</v>
+        <v>1</v>
       </c>
       <c r="E121" t="s">
         <v>2</v>
@@ -3270,8 +3150,7 @@
         <v>5.1396467747293899</v>
       </c>
       <c r="D122">
-        <f t="shared" si="1"/>
-        <v>5.1396467747293902E-2</v>
+        <v>1</v>
       </c>
       <c r="E122" t="s">
         <v>2</v>
@@ -3291,8 +3170,7 @@
         <v>5.1396467747293197</v>
       </c>
       <c r="D123">
-        <f t="shared" si="1"/>
-        <v>5.1396467747293201E-2</v>
+        <v>1</v>
       </c>
       <c r="E123" t="s">
         <v>2</v>
@@ -3312,8 +3190,7 @@
         <v>5.1269647457409597</v>
       </c>
       <c r="D124">
-        <f t="shared" si="1"/>
-        <v>5.1269647457409598E-2</v>
+        <v>1</v>
       </c>
       <c r="E124" t="s">
         <v>2</v>
@@ -3333,8 +3210,7 @@
         <v>10.9029176934822</v>
       </c>
       <c r="D125">
-        <f t="shared" si="1"/>
-        <v>0.109029176934822</v>
+        <v>1.0902917693482199</v>
       </c>
       <c r="E125" t="s">
         <v>2</v>
@@ -3354,8 +3230,7 @@
         <v>10.9029176934822</v>
       </c>
       <c r="D126">
-        <f t="shared" si="1"/>
-        <v>0.109029176934822</v>
+        <v>1.0902917693482199</v>
       </c>
       <c r="E126" t="s">
         <v>2</v>
@@ -3375,8 +3250,7 @@
         <v>44.933716306779601</v>
       </c>
       <c r="D127">
-        <f t="shared" si="1"/>
-        <v>0.44933716306779603</v>
+        <v>4.4933716306779603</v>
       </c>
       <c r="E127" t="s">
         <v>2</v>
@@ -3396,8 +3270,7 @@
         <v>1.9117852335255601</v>
       </c>
       <c r="D128">
-        <f t="shared" si="1"/>
-        <v>1.9117852335255602E-2</v>
+        <v>1</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -3417,8 +3290,7 @@
         <v>1.9117852335255601</v>
       </c>
       <c r="D129">
-        <f t="shared" si="1"/>
-        <v>1.9117852335255602E-2</v>
+        <v>1</v>
       </c>
       <c r="E129" t="s">
         <v>2</v>
@@ -3438,8 +3310,7 @@
         <v>1.2202770050412</v>
       </c>
       <c r="D130">
-        <f t="shared" si="1"/>
-        <v>1.2202770050411999E-2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="s">
         <v>2</v>
@@ -3459,8 +3330,7 @@
         <v>0.14721798213100101</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="2">MAX(0.001,ABS(C131/100))</f>
-        <v>1.4721798213100101E-3</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
         <v>2</v>
@@ -3480,8 +3350,7 @@
         <v>0.14719837200212699</v>
       </c>
       <c r="D132">
-        <f t="shared" si="2"/>
-        <v>1.4719837200212699E-3</v>
+        <v>1</v>
       </c>
       <c r="E132" t="s">
         <v>2</v>
@@ -3501,8 +3370,7 @@
         <v>0.83872621061535602</v>
       </c>
       <c r="D133">
-        <f t="shared" si="2"/>
-        <v>8.3872621061535594E-3</v>
+        <v>1</v>
       </c>
       <c r="E133" t="s">
         <v>2</v>
@@ -3522,8 +3390,7 @@
         <v>0.83874706821623601</v>
       </c>
       <c r="D134">
-        <f t="shared" si="2"/>
-        <v>8.3874706821623606E-3</v>
+        <v>1</v>
       </c>
       <c r="E134" t="s">
         <v>2</v>
@@ -3543,8 +3410,7 @@
         <v>2.0119140436924301</v>
       </c>
       <c r="D135">
-        <f t="shared" si="2"/>
-        <v>2.0119140436924299E-2</v>
+        <v>1</v>
       </c>
       <c r="E135" t="s">
         <v>2</v>
@@ -3564,8 +3430,7 @@
         <v>0.691508228484364</v>
       </c>
       <c r="D136">
-        <f t="shared" si="2"/>
-        <v>6.9150822848436403E-3</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
         <v>2</v>
@@ -3585,8 +3450,7 @@
         <v>0.691508228484363</v>
       </c>
       <c r="D137">
-        <f t="shared" si="2"/>
-        <v>6.9150822848436299E-3</v>
+        <v>1</v>
       </c>
       <c r="E137" t="s">
         <v>2</v>
@@ -3606,8 +3470,7 @@
         <v>-3.0535001652163798</v>
       </c>
       <c r="D138">
-        <f t="shared" si="2"/>
-        <v>3.0535001652163798E-2</v>
+        <v>1</v>
       </c>
       <c r="E138" t="s">
         <v>2</v>
@@ -3627,8 +3490,7 @@
         <v>2.5718414182245399</v>
       </c>
       <c r="D139">
-        <f t="shared" si="2"/>
-        <v>2.5718414182245398E-2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="s">
         <v>2</v>
@@ -3648,8 +3510,7 @@
         <v>1.3156991384246099</v>
       </c>
       <c r="D140">
-        <f t="shared" si="2"/>
-        <v>1.31569913842461E-2</v>
+        <v>1</v>
       </c>
       <c r="E140" t="s">
         <v>2</v>
@@ -3669,8 +3530,7 @@
         <v>0.88423165818072402</v>
       </c>
       <c r="D141">
-        <f t="shared" si="2"/>
-        <v>8.8423165818072406E-3</v>
+        <v>1</v>
       </c>
       <c r="E141" t="s">
         <v>2</v>
@@ -3690,8 +3550,7 @@
         <v>35.977972596715503</v>
       </c>
       <c r="D142">
-        <f t="shared" si="2"/>
-        <v>0.35977972596715502</v>
+        <v>3.5977972596715504</v>
       </c>
       <c r="E142" t="s">
         <v>2</v>
@@ -3711,8 +3570,7 @@
         <v>1.40736800876587</v>
       </c>
       <c r="D143">
-        <f t="shared" si="2"/>
-        <v>1.40736800876587E-2</v>
+        <v>1</v>
       </c>
       <c r="E143" t="s">
         <v>2</v>
@@ -3732,8 +3590,7 @@
         <v>0.67004629155620898</v>
       </c>
       <c r="D144">
-        <f t="shared" si="2"/>
-        <v>6.7004629155620896E-3</v>
+        <v>1</v>
       </c>
       <c r="E144" t="s">
         <v>2</v>
@@ -3753,8 +3610,7 @@
         <v>0.363575773569495</v>
       </c>
       <c r="D145">
-        <f t="shared" si="2"/>
-        <v>3.6357577356949502E-3</v>
+        <v>1</v>
       </c>
       <c r="E145" t="s">
         <v>2</v>
@@ -3774,8 +3630,7 @@
         <v>1.9570871273696501E-5</v>
       </c>
       <c r="D146">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E146" t="s">
         <v>2</v>
@@ -3795,8 +3650,7 @@
         <v>9.1930706180520502E-2</v>
       </c>
       <c r="D147">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
         <v>2</v>
@@ -3816,8 +3670,7 @@
         <v>4.4669735494420902E-2</v>
       </c>
       <c r="D148">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E148" t="s">
         <v>2</v>
@@ -3837,8 +3690,7 @@
         <v>6.00859750003764E-2</v>
       </c>
       <c r="D149">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E149" t="s">
         <v>2</v>
@@ -3858,8 +3710,7 @@
         <v>7.0986346157114799E-2</v>
       </c>
       <c r="D150">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E150" t="s">
         <v>2</v>
@@ -3879,8 +3730,7 @@
         <v>5.3123185505834399E-2</v>
       </c>
       <c r="D151">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E151" t="s">
         <v>2</v>
@@ -3900,8 +3750,7 @@
         <v>-4.8386428149319802E-2</v>
       </c>
       <c r="D152">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E152" t="s">
         <v>2</v>
@@ -3921,8 +3770,7 @@
         <v>3.0699145824356299E-2</v>
       </c>
       <c r="D153">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E153" t="s">
         <v>2</v>
@@ -3942,8 +3790,7 @@
         <v>1.4119878473088701E-2</v>
       </c>
       <c r="D154">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E154" t="s">
         <v>2</v>
@@ -3963,8 +3810,7 @@
         <v>1.9609855022350401E-5</v>
       </c>
       <c r="D155">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>2</v>
@@ -3984,8 +3830,7 @@
         <v>1.9609855022350499E-5</v>
       </c>
       <c r="D156">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E156" t="s">
         <v>2</v>
@@ -4005,8 +3850,7 @@
         <v>3.9265977742658602E-2</v>
       </c>
       <c r="D157">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E157" t="s">
         <v>2</v>
@@ -4026,8 +3870,7 @@
         <v>2.7385076452980798E-10</v>
       </c>
       <c r="D158">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E158" t="s">
         <v>2</v>
@@ -4047,8 +3890,7 @@
         <v>7.7636434027485796E-2</v>
       </c>
       <c r="D159">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E159" t="s">
         <v>2</v>
@@ -4068,8 +3910,7 @@
         <v>2.3694021496274201E-2</v>
       </c>
       <c r="D160">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E160" t="s">
         <v>2</v>
@@ -4089,8 +3930,7 @@
         <v>5.0823753630429998E-5</v>
       </c>
       <c r="D161">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E161" t="s">
         <v>2</v>
@@ -4110,8 +3950,7 @@
         <v>7.1819555089657197E-3</v>
       </c>
       <c r="D162">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E162" t="s">
         <v>2</v>
@@ -4131,8 +3970,7 @@
         <v>5.4446408797014503E-3</v>
       </c>
       <c r="D163">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E163" t="s">
         <v>2</v>
@@ -4152,8 +3990,7 @@
         <v>5.5432599699386701E-5</v>
       </c>
       <c r="D164">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E164" t="s">
         <v>2</v>
@@ -4173,8 +4010,7 @@
         <v>1.2867295981269801E-6</v>
       </c>
       <c r="D165">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
         <v>2</v>
@@ -4194,8 +4030,7 @@
         <v>2.7385078232855499E-10</v>
       </c>
       <c r="D166">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E166" t="s">
         <v>2</v>
@@ -4215,8 +4050,7 @@
         <v>1.2867295980933899E-6</v>
       </c>
       <c r="D167">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
         <v>2</v>
@@ -4236,8 +4070,7 @@
         <v>57.8633389766051</v>
       </c>
       <c r="D168">
-        <f t="shared" si="2"/>
-        <v>0.57863338976605094</v>
+        <v>5.7863338976605103</v>
       </c>
       <c r="E168" t="s">
         <v>2</v>
@@ -4257,8 +4090,7 @@
         <v>0.41936310530767401</v>
       </c>
       <c r="D169">
-        <f t="shared" si="2"/>
-        <v>4.1936310530767398E-3</v>
+        <v>1</v>
       </c>
       <c r="E169" t="s">
         <v>2</v>
@@ -4278,8 +4110,7 @@
         <v>6.4296853798150799</v>
       </c>
       <c r="D170">
-        <f t="shared" si="2"/>
-        <v>6.4296853798150796E-2</v>
+        <v>1</v>
       </c>
       <c r="E170" t="s">
         <v>2</v>
@@ -4299,8 +4130,7 @@
         <v>1.6414164133795701E-3</v>
       </c>
       <c r="D171">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E171" t="s">
         <v>2</v>
@@ -4320,8 +4150,7 @@
         <v>39.895530743212497</v>
       </c>
       <c r="D172">
-        <f t="shared" si="2"/>
-        <v>0.39895530743212498</v>
+        <v>3.9895530743212495</v>
       </c>
       <c r="E172" t="s">
         <v>2</v>
@@ -4341,8 +4170,7 @@
         <v>35.992112046059901</v>
       </c>
       <c r="D173">
-        <f t="shared" si="2"/>
-        <v>0.35992112046059899</v>
+        <v>3.5992112046059903</v>
       </c>
       <c r="E173" t="s">
         <v>2</v>
@@ -4362,8 +4190,7 @@
         <v>65.0969119874066</v>
       </c>
       <c r="D174">
-        <f t="shared" si="2"/>
-        <v>0.65096911987406603</v>
+        <v>6.5096911987406596</v>
       </c>
       <c r="E174" t="s">
         <v>2</v>
@@ -4383,8 +4210,7 @@
         <v>58.282702081912703</v>
       </c>
       <c r="D175">
-        <f t="shared" si="2"/>
-        <v>0.58282702081912707</v>
+        <v>5.8282702081912703</v>
       </c>
       <c r="E175" t="s">
         <v>2</v>
@@ -4404,8 +4230,7 @@
         <v>2.1704196399383302</v>
       </c>
       <c r="D176">
-        <f t="shared" si="2"/>
-        <v>2.1704196399383303E-2</v>
+        <v>1</v>
       </c>
       <c r="E176" t="s">
         <v>2</v>
@@ -4425,8 +4250,7 @@
         <v>1.4119878473096001E-2</v>
       </c>
       <c r="D177">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E177" t="s">
         <v>2</v>
@@ -4446,8 +4270,7 @@
         <v>-39.895530743212497</v>
       </c>
       <c r="D178">
-        <f t="shared" si="2"/>
-        <v>0.39895530743212498</v>
+        <v>3.9895530743212495</v>
       </c>
       <c r="E178" t="s">
         <v>2</v>
@@ -4467,8 +4290,7 @@
         <v>-58.282702081912802</v>
       </c>
       <c r="D179">
-        <f t="shared" si="2"/>
-        <v>0.58282702081912807</v>
+        <v>5.8282702081912801</v>
       </c>
       <c r="E179" t="s">
         <v>2</v>
@@ -4488,8 +4310,7 @@
         <v>-1.4119878473096001E-2</v>
       </c>
       <c r="D180">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E180" t="s">
         <v>2</v>
@@ -4509,8 +4330,7 @@
         <v>-2.1704196399383302</v>
       </c>
       <c r="D181">
-        <f t="shared" si="2"/>
-        <v>2.1704196399383303E-2</v>
+        <v>1</v>
       </c>
       <c r="E181" t="s">
         <v>2</v>
@@ -4530,8 +4350,7 @@
         <v>65.096911987406699</v>
       </c>
       <c r="D182">
-        <f t="shared" si="2"/>
-        <v>0.65096911987406703</v>
+        <v>6.5096911987406703</v>
       </c>
       <c r="E182" t="s">
         <v>2</v>
@@ -4551,8 +4370,7 @@
         <v>35.992112046059901</v>
       </c>
       <c r="D183">
-        <f t="shared" si="2"/>
-        <v>0.35992112046059899</v>
+        <v>3.5992112046059903</v>
       </c>
       <c r="E183" t="s">
         <v>2</v>
@@ -4572,8 +4390,7 @@
         <v>9.3731570696361697</v>
       </c>
       <c r="D184">
-        <f t="shared" si="2"/>
-        <v>9.3731570696361691E-2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
         <v>2</v>
@@ -4593,8 +4410,7 @@
         <v>3.0758134052160099E-2</v>
       </c>
       <c r="D185">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E185" t="s">
         <v>2</v>
@@ -4614,8 +4430,7 @@
         <v>335.85710889633998</v>
       </c>
       <c r="D186">
-        <f t="shared" si="2"/>
-        <v>3.3585710889633997</v>
+        <v>33.585710889634001</v>
       </c>
       <c r="E186" t="s">
         <v>2</v>
@@ -4635,8 +4450,7 @@
         <v>6.9219803336859898E-2</v>
       </c>
       <c r="D187">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E187" t="s">
         <v>2</v>
@@ -4656,8 +4470,7 @@
         <v>0.86918297299144098</v>
       </c>
       <c r="D188">
-        <f t="shared" si="2"/>
-        <v>8.69182972991441E-3</v>
+        <v>1</v>
       </c>
       <c r="E188" t="s">
         <v>2</v>
@@ -4677,8 +4490,7 @@
         <v>-35.9768084414819</v>
       </c>
       <c r="D189">
-        <f t="shared" si="2"/>
-        <v>0.359768084414819</v>
+        <v>3.59768084414819</v>
       </c>
       <c r="E189" t="s">
         <v>2</v>
@@ -4698,8 +4510,7 @@
         <v>8.6523464477130593E-2</v>
       </c>
       <c r="D190">
-        <f t="shared" si="2"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E190" t="s">
         <v>2</v>
@@ -4719,8 +4530,7 @@
         <v>0.173681272403688</v>
       </c>
       <c r="D191">
-        <f t="shared" si="2"/>
-        <v>1.7368127240368801E-3</v>
+        <v>1</v>
       </c>
       <c r="E191" t="s">
         <v>2</v>
@@ -4740,8 +4550,7 @@
         <v>52.3546400353626</v>
       </c>
       <c r="D192">
-        <f t="shared" si="2"/>
-        <v>0.52354640035362598</v>
+        <v>5.2354640035362596</v>
       </c>
       <c r="E192" t="s">
         <v>2</v>
@@ -4761,8 +4570,7 @@
         <v>4.2131409655651799</v>
       </c>
       <c r="D193">
-        <f t="shared" si="2"/>
-        <v>4.2131409655651798E-2</v>
+        <v>1</v>
       </c>
       <c r="E193" t="s">
         <v>2</v>
@@ -4782,8 +4590,7 @@
         <v>6.3453159230379104</v>
       </c>
       <c r="D194">
-        <f t="shared" si="2"/>
-        <v>6.34531592303791E-2</v>
+        <v>1</v>
       </c>
       <c r="E194" t="s">
         <v>2</v>
@@ -4803,8 +4610,7 @@
         <v>0.43966558423024099</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="3">MAX(0.001,ABS(C195/100))</f>
-        <v>4.3966558423024103E-3</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
         <v>2</v>
@@ -4824,8 +4630,7 @@
         <v>2.7423846042911701E-3</v>
       </c>
       <c r="D196">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E196" t="s">
         <v>2</v>
@@ -4845,8 +4650,7 @@
         <v>3.6751292509503701E-2</v>
       </c>
       <c r="D197">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E197" t="s">
         <v>2</v>
@@ -4866,8 +4670,7 @@
         <v>0.669970001355635</v>
       </c>
       <c r="D198">
-        <f t="shared" si="3"/>
-        <v>6.6997000135563499E-3</v>
+        <v>1</v>
       </c>
       <c r="E198" t="s">
         <v>2</v>
@@ -4887,8 +4690,7 @@
         <v>0.363575773569494</v>
       </c>
       <c r="D199">
-        <f t="shared" si="3"/>
-        <v>3.6357577356949402E-3</v>
+        <v>1</v>
       </c>
       <c r="E199" t="s">
         <v>2</v>
@@ -4908,8 +4710,7 @@
         <v>7.9545252136969599E-3</v>
       </c>
       <c r="D200">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E200" t="s">
         <v>2</v>
@@ -4929,8 +4730,7 @@
         <v>1.9570871273697599E-5</v>
       </c>
       <c r="D201">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E201" t="s">
         <v>2</v>
@@ -4950,8 +4750,7 @@
         <v>4.4669735494419903E-2</v>
       </c>
       <c r="D202">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E202" t="s">
         <v>2</v>
@@ -4971,8 +4770,7 @@
         <v>6.0085975000376199E-2</v>
       </c>
       <c r="D203">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
         <v>2</v>
@@ -4992,8 +4790,7 @@
         <v>3.6878495784918898E-3</v>
       </c>
       <c r="D204">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E204" t="s">
         <v>2</v>
@@ -5013,8 +4810,7 @@
         <v>0.13220875947951199</v>
       </c>
       <c r="D205">
-        <f t="shared" si="3"/>
-        <v>1.3220875947951198E-3</v>
+        <v>1</v>
       </c>
       <c r="E205" t="s">
         <v>2</v>
@@ -5034,8 +4830,7 @@
         <v>4.7354703530638597E-3</v>
       </c>
       <c r="D206">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E206" t="s">
         <v>2</v>
@@ -5055,8 +4850,7 @@
         <v>8.5160081646725207E-3</v>
       </c>
       <c r="D207">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E207" t="s">
         <v>2</v>
@@ -5076,8 +4870,7 @@
         <v>1.4119878199238199E-2</v>
       </c>
       <c r="D208">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
         <v>2</v>
@@ -5097,8 +4890,7 @@
         <v>1.9609855022350499E-5</v>
       </c>
       <c r="D209">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E209" t="s">
         <v>2</v>
@@ -5118,8 +4910,7 @@
         <v>3.5494855527257599E-10</v>
       </c>
       <c r="D210">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E210" t="s">
         <v>2</v>
@@ -5139,8 +4930,7 @@
         <v>7.76364340274866E-2</v>
       </c>
       <c r="D211">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E211" t="s">
         <v>2</v>
@@ -5160,8 +4950,7 @@
         <v>2.3694021496274299E-2</v>
       </c>
       <c r="D212">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E212" t="s">
         <v>2</v>
@@ -5181,8 +4970,7 @@
         <v>5.0823753629680103E-5</v>
       </c>
       <c r="D213">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E213" t="s">
         <v>2</v>
@@ -5202,8 +4990,7 @@
         <v>7.1819555089661204E-3</v>
       </c>
       <c r="D214">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E214" t="s">
         <v>2</v>
@@ -5223,8 +5010,7 @@
         <v>5.4446408797014E-3</v>
       </c>
       <c r="D215">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E215" t="s">
         <v>2</v>
@@ -5244,8 +5030,7 @@
         <v>5.5432599699402198E-5</v>
       </c>
       <c r="D216">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E216" t="s">
         <v>2</v>
@@ -5265,8 +5050,7 @@
         <v>1.2867295981269699E-6</v>
       </c>
       <c r="D217">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E217" t="s">
         <v>2</v>
@@ -5286,8 +5070,7 @@
         <v>41.166577423758199</v>
       </c>
       <c r="D218">
-        <f t="shared" si="3"/>
-        <v>0.41166577423758199</v>
+        <v>4.1166577423758195</v>
       </c>
       <c r="E218" t="s">
         <v>2</v>
@@ -5307,8 +5090,7 @@
         <v>296.83704240711302</v>
       </c>
       <c r="D219">
-        <f t="shared" si="3"/>
-        <v>2.9683704240711304</v>
+        <v>29.6837042407113</v>
       </c>
       <c r="E219" t="s">
         <v>2</v>
@@ -5328,8 +5110,7 @@
         <v>255.85332349581401</v>
       </c>
       <c r="D220">
-        <f t="shared" si="3"/>
-        <v>2.5585332349581402</v>
+        <v>25.5853323495814</v>
       </c>
       <c r="E220" t="s">
         <v>2</v>
@@ -5349,8 +5130,7 @@
         <v>40.983718911298602</v>
       </c>
       <c r="D221">
-        <f t="shared" si="3"/>
-        <v>0.409837189112986</v>
+        <v>4.0983718911298599</v>
       </c>
       <c r="E221" t="s">
         <v>2</v>
@@ -5370,8 +5150,7 @@
         <v>40.983718911298602</v>
       </c>
       <c r="D222">
-        <f t="shared" si="3"/>
-        <v>0.409837189112986</v>
+        <v>4.0983718911298599</v>
       </c>
       <c r="E222" t="s">
         <v>2</v>
@@ -5391,8 +5170,7 @@
         <v>106.994454829359</v>
       </c>
       <c r="D223">
-        <f t="shared" si="3"/>
-        <v>1.0699445482935901</v>
+        <v>10.6994454829359</v>
       </c>
       <c r="E223" t="s">
         <v>2</v>
@@ -5412,8 +5190,7 @@
         <v>98.840472393341699</v>
       </c>
       <c r="D224">
-        <f t="shared" si="3"/>
-        <v>0.98840472393341694</v>
+        <v>9.8840472393341692</v>
       </c>
       <c r="E224" t="s">
         <v>2</v>
@@ -5433,8 +5210,7 @@
         <v>83.170024967136598</v>
       </c>
       <c r="D225">
-        <f t="shared" si="3"/>
-        <v>0.83170024967136602</v>
+        <v>8.3170024967136591</v>
       </c>
       <c r="E225" t="s">
         <v>2</v>
@@ -5454,8 +5230,7 @@
         <v>37.700514367632003</v>
       </c>
       <c r="D226">
-        <f t="shared" si="3"/>
-        <v>0.37700514367632004</v>
+        <v>3.7700514367632003</v>
       </c>
       <c r="E226" t="s">
         <v>2</v>
@@ -5475,8 +5250,7 @@
         <v>12.3394619566273</v>
       </c>
       <c r="D227">
-        <f t="shared" si="3"/>
-        <v>0.123394619566273</v>
+        <v>1.23394619566273</v>
       </c>
       <c r="E227" t="s">
         <v>2</v>
@@ -5496,8 +5270,7 @@
         <v>-5.2969171500080903E-2</v>
       </c>
       <c r="D228">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E228" t="s">
         <v>2</v>
@@ -5517,8 +5290,7 @@
         <v>12.3924311281274</v>
       </c>
       <c r="D229">
-        <f t="shared" si="3"/>
-        <v>0.123924311281274</v>
+        <v>1.2392431128127401</v>
       </c>
       <c r="E229" t="s">
         <v>2</v>
@@ -5538,8 +5310,7 @@
         <v>0</v>
       </c>
       <c r="D230">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E230" t="s">
         <v>2</v>
@@ -5559,8 +5330,7 @@
         <v>-5.5511151231257802E-17</v>
       </c>
       <c r="D231">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E231" t="s">
         <v>2</v>
@@ -5580,8 +5350,7 @@
         <v>-5.2969171500088799E-2</v>
       </c>
       <c r="D232">
-        <f t="shared" si="3"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
         <v>2</v>
@@ -5601,8 +5370,7 @@
         <v>25.361052411004799</v>
       </c>
       <c r="D233">
-        <f t="shared" si="3"/>
-        <v>0.25361052411004797</v>
+        <v>2.5361052411004801</v>
       </c>
       <c r="E233" t="s">
         <v>2</v>
@@ -5622,8 +5390,7 @@
         <v>25.361052411004799</v>
       </c>
       <c r="D234">
-        <f t="shared" si="3"/>
-        <v>0.25361052411004797</v>
+        <v>2.5361052411004801</v>
       </c>
       <c r="E234" t="s">
         <v>2</v>
@@ -5643,8 +5410,7 @@
         <v>91.409646351839399</v>
       </c>
       <c r="D235">
-        <f t="shared" si="3"/>
-        <v>0.91409646351839402</v>
+        <v>9.1409646351839395</v>
       </c>
       <c r="E235" t="s">
         <v>2</v>
@@ -5664,8 +5430,7 @@
         <v>13.4878967636275</v>
       </c>
       <c r="D236">
-        <f t="shared" si="3"/>
-        <v>0.13487896763627499</v>
+        <v>1.34878967636275</v>
       </c>
       <c r="E236" t="s">
         <v>2</v>
@@ -5685,8 +5450,7 @@
         <v>13.4878967636275</v>
       </c>
       <c r="D237">
-        <f t="shared" si="3"/>
-        <v>0.13487896763627499</v>
+        <v>1.34878967636275</v>
       </c>
       <c r="E237" t="s">
         <v>2</v>
@@ -5706,8 +5470,7 @@
         <v>11.0112364547913</v>
       </c>
       <c r="D238">
-        <f t="shared" si="3"/>
-        <v>0.110112364547913</v>
+        <v>1.10112364547913</v>
       </c>
       <c r="E238" t="s">
         <v>2</v>
@@ -5727,8 +5490,7 @@
         <v>0.228741876824124</v>
       </c>
       <c r="D239">
-        <f t="shared" si="3"/>
-        <v>2.28741876824124E-3</v>
+        <v>1</v>
       </c>
       <c r="E239" t="s">
         <v>2</v>
@@ -5748,8 +5510,7 @@
         <v>-0.51819238866972495</v>
       </c>
       <c r="D240">
-        <f t="shared" si="3"/>
-        <v>5.1819238866972492E-3</v>
+        <v>1</v>
       </c>
       <c r="E240" t="s">
         <v>2</v>
@@ -5769,8 +5530,7 @@
         <v>2.7054021856603798</v>
       </c>
       <c r="D241">
-        <f t="shared" si="3"/>
-        <v>2.7054021856603799E-2</v>
+        <v>1</v>
       </c>
       <c r="E241" t="s">
         <v>2</v>
@@ -5790,8 +5550,7 @@
         <v>6.6185188524746197</v>
       </c>
       <c r="D242">
-        <f t="shared" si="3"/>
-        <v>6.6185188524746197E-2</v>
+        <v>1</v>
       </c>
       <c r="E242" t="s">
         <v>2</v>
@@ -5811,8 +5570,7 @@
         <v>8.4860343650602807</v>
       </c>
       <c r="D243">
-        <f t="shared" si="3"/>
-        <v>8.4860343650602812E-2</v>
+        <v>1</v>
       </c>
       <c r="E243" t="s">
         <v>2</v>
@@ -5832,8 +5590,7 @@
         <v>2.4766603088362298</v>
       </c>
       <c r="D244">
-        <f t="shared" si="3"/>
-        <v>2.4766603088362298E-2</v>
+        <v>1</v>
       </c>
       <c r="E244" t="s">
         <v>2</v>
@@ -5853,8 +5610,7 @@
         <v>2.47666030883622</v>
       </c>
       <c r="D245">
-        <f t="shared" si="3"/>
-        <v>2.4766603088362201E-2</v>
+        <v>1</v>
       </c>
       <c r="E245" t="s">
         <v>2</v>
@@ -5874,8 +5630,7 @@
         <v>-1.94121304074736</v>
       </c>
       <c r="D246">
-        <f t="shared" si="3"/>
-        <v>1.94121304074736E-2</v>
+        <v>1</v>
       </c>
       <c r="E246" t="s">
         <v>2</v>
@@ -5895,8 +5650,7 @@
         <v>2.5503578369979398</v>
       </c>
       <c r="D247">
-        <f t="shared" si="3"/>
-        <v>2.5503578369979397E-2</v>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
         <v>2</v>
@@ -5916,8 +5670,7 @@
         <v>17.475019409727398</v>
       </c>
       <c r="D248">
-        <f t="shared" si="3"/>
-        <v>0.17475019409727399</v>
+        <v>1.7475019409727399</v>
       </c>
       <c r="E248" t="s">
         <v>2</v>
@@ -5937,8 +5690,7 @@
         <v>2.23236276648898</v>
       </c>
       <c r="D249">
-        <f t="shared" si="3"/>
-        <v>2.2323627664889802E-2</v>
+        <v>1</v>
       </c>
       <c r="E249" t="s">
         <v>2</v>
@@ -5958,8 +5710,7 @@
         <v>51.323997785140101</v>
       </c>
       <c r="D250">
-        <f t="shared" si="3"/>
-        <v>0.51323997785140096</v>
+        <v>5.1323997785140101</v>
       </c>
       <c r="E250" t="s">
         <v>2</v>
@@ -5979,8 +5730,7 @@
         <v>39.463266485671298</v>
       </c>
       <c r="D251">
-        <f t="shared" si="3"/>
-        <v>0.394632664856713</v>
+        <v>3.9463266485671298</v>
       </c>
       <c r="E251" t="s">
         <v>2</v>
@@ -6000,8 +5750,7 @@
         <v>8.2403402475124992</v>
       </c>
       <c r="D252">
-        <f t="shared" si="3"/>
-        <v>8.2403402475124995E-2</v>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
         <v>2</v>
@@ -6021,8 +5770,7 @@
         <v>1.79350063083734</v>
       </c>
       <c r="D253">
-        <f t="shared" si="3"/>
-        <v>1.79350063083734E-2</v>
+        <v>1</v>
       </c>
       <c r="E253" t="s">
         <v>2</v>
@@ -6042,8 +5790,7 @@
         <v>3.52850267692595</v>
       </c>
       <c r="D254">
-        <f t="shared" si="3"/>
-        <v>3.52850267692595E-2</v>
+        <v>1</v>
       </c>
       <c r="E254" t="s">
         <v>2</v>
@@ -6063,8 +5810,7 @@
         <v>8.6458520977465199</v>
       </c>
       <c r="D255">
-        <f t="shared" si="3"/>
-        <v>8.6458520977465203E-2</v>
+        <v>1</v>
       </c>
       <c r="E255" t="s">
         <v>2</v>
@@ -6084,8 +5830,7 @@
         <v>2.17930014135072</v>
       </c>
       <c r="D256">
-        <f t="shared" si="3"/>
-        <v>2.17930014135072E-2</v>
+        <v>1</v>
       </c>
       <c r="E256" t="s">
         <v>2</v>
@@ -6105,8 +5850,7 @@
         <v>3.41663251726365</v>
       </c>
       <c r="D257">
-        <f t="shared" si="3"/>
-        <v>3.41663251726365E-2</v>
+        <v>1</v>
       </c>
       <c r="E257" t="s">
         <v>2</v>
@@ -6126,8 +5870,7 @@
         <v>5.2590740273604597</v>
       </c>
       <c r="D258">
-        <f t="shared" si="3"/>
-        <v>5.2590740273604594E-2</v>
+        <v>1</v>
       </c>
       <c r="E258" t="s">
         <v>2</v>
@@ -6147,8 +5890,7 @@
         <v>3.04696767605741</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="4">MAX(0.001,ABS(C259/100))</f>
-        <v>3.0469676760574101E-2</v>
+        <v>1</v>
       </c>
       <c r="E259" t="s">
         <v>2</v>
@@ -6168,8 +5910,7 @@
         <v>-1.2468552868862499</v>
       </c>
       <c r="D260">
-        <f t="shared" si="4"/>
-        <v>1.2468552868862498E-2</v>
+        <v>1</v>
       </c>
       <c r="E260" t="s">
         <v>2</v>
@@ -6189,8 +5930,7 @@
         <v>-0.96901683322082299</v>
       </c>
       <c r="D261">
-        <f t="shared" si="4"/>
-        <v>9.6901683322082304E-3</v>
+        <v>1</v>
       </c>
       <c r="E261" t="s">
         <v>2</v>
@@ -6210,8 +5950,7 @@
         <v>1.51389761216339</v>
       </c>
       <c r="D262">
-        <f t="shared" si="4"/>
-        <v>1.5138976121633901E-2</v>
+        <v>1</v>
       </c>
       <c r="E262" t="s">
         <v>2</v>
@@ -6231,8 +5970,7 @@
         <v>0.56890279265016797</v>
       </c>
       <c r="D263">
-        <f t="shared" si="4"/>
-        <v>5.6890279265016793E-3</v>
+        <v>1</v>
       </c>
       <c r="E263" t="s">
         <v>2</v>
@@ -6252,8 +5990,7 @@
         <v>0.56890279265016896</v>
       </c>
       <c r="D264">
-        <f t="shared" si="4"/>
-        <v>5.6890279265016898E-3</v>
+        <v>1</v>
       </c>
       <c r="E264" t="s">
         <v>2</v>
@@ -6273,8 +6010,7 @@
         <v>1.29212544954344</v>
       </c>
       <c r="D265">
-        <f t="shared" si="4"/>
-        <v>1.29212544954344E-2</v>
+        <v>1</v>
       </c>
       <c r="E265" t="s">
         <v>2</v>
@@ -6294,8 +6030,7 @@
         <v>0.178031472843732</v>
       </c>
       <c r="D266">
-        <f t="shared" si="4"/>
-        <v>1.7803147284373199E-3</v>
+        <v>1</v>
       </c>
       <c r="E266" t="s">
         <v>2</v>
@@ -6315,8 +6050,7 @@
         <v>3.2411125525154199</v>
       </c>
       <c r="D267">
-        <f t="shared" si="4"/>
-        <v>3.2411125525154197E-2</v>
+        <v>1</v>
       </c>
       <c r="E267" t="s">
         <v>2</v>
@@ -6336,8 +6070,7 @@
         <v>3.2035275027524399</v>
       </c>
       <c r="D268">
-        <f t="shared" si="4"/>
-        <v>3.2035275027524401E-2</v>
+        <v>1</v>
       </c>
       <c r="E268" t="s">
         <v>2</v>
@@ -6357,8 +6090,7 @@
         <v>0.54337280939180499</v>
       </c>
       <c r="D269">
-        <f t="shared" si="4"/>
-        <v>5.4337280939180501E-3</v>
+        <v>1</v>
       </c>
       <c r="E269" t="s">
         <v>2</v>
@@ -6378,8 +6110,7 @@
         <v>2.7365096847280098E-3</v>
       </c>
       <c r="D270">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E270" t="s">
         <v>2</v>
@@ -6399,8 +6130,7 @@
         <v>2.73858544730889E-3</v>
       </c>
       <c r="D271">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E271" t="s">
         <v>2</v>
@@ -6420,8 +6150,7 @@
         <v>4.7494076368049802E-2</v>
       </c>
       <c r="D272">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E272" t="s">
         <v>2</v>
@@ -6441,8 +6170,7 @@
         <v>0.38461398988826301</v>
       </c>
       <c r="D273">
-        <f t="shared" si="4"/>
-        <v>3.8461398988826299E-3</v>
+        <v>1</v>
       </c>
       <c r="E273" t="s">
         <v>2</v>
@@ -6462,8 +6190,7 @@
         <v>0.17803147284370999</v>
       </c>
       <c r="D274">
-        <f t="shared" si="4"/>
-        <v>1.7803147284370998E-3</v>
+        <v>1</v>
       </c>
       <c r="E274" t="s">
         <v>2</v>
@@ -6483,8 +6210,7 @@
         <v>0.38461398988826201</v>
       </c>
       <c r="D275">
-        <f t="shared" si="4"/>
-        <v>3.84613989888262E-3</v>
+        <v>1</v>
       </c>
       <c r="E275" t="s">
         <v>2</v>
@@ -6504,8 +6230,7 @@
         <v>92.988408977400098</v>
       </c>
       <c r="D276">
-        <f t="shared" si="4"/>
-        <v>0.92988408977400094</v>
+        <v>9.2988408977400105</v>
       </c>
       <c r="E276" t="s">
         <v>2</v>
@@ -6525,8 +6250,7 @@
         <v>1.3527010928301499</v>
       </c>
       <c r="D277">
-        <f t="shared" si="4"/>
-        <v>1.3527010928301499E-2</v>
+        <v>1</v>
       </c>
       <c r="E277" t="s">
         <v>2</v>
@@ -6546,8 +6270,7 @@
         <v>43.004359482423197</v>
       </c>
       <c r="D278">
-        <f t="shared" si="4"/>
-        <v>0.43004359482423199</v>
+        <v>4.3004359482423196</v>
       </c>
       <c r="E278" t="s">
         <v>2</v>
@@ -6567,8 +6290,7 @@
         <v>1.8307633120302699E-3</v>
       </c>
       <c r="D279">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E279" t="s">
         <v>2</v>
@@ -6588,8 +6310,7 @@
         <v>88.108575202861402</v>
       </c>
       <c r="D280">
-        <f t="shared" si="4"/>
-        <v>0.88108575202861406</v>
+        <v>8.8108575202861399</v>
       </c>
       <c r="E280" t="s">
         <v>2</v>
@@ -6609,8 +6330,7 @@
         <v>56.366398074229501</v>
       </c>
       <c r="D281">
-        <f t="shared" si="4"/>
-        <v>0.56366398074229496</v>
+        <v>5.6366398074229505</v>
       </c>
       <c r="E281" t="s">
         <v>2</v>
@@ -6630,8 +6350,7 @@
         <v>106.393629160844</v>
       </c>
       <c r="D282">
-        <f t="shared" si="4"/>
-        <v>1.0639362916084401</v>
+        <v>10.6393629160844</v>
       </c>
       <c r="E282" t="s">
         <v>2</v>
@@ -6651,8 +6370,7 @@
         <v>94.341110070230201</v>
       </c>
       <c r="D283">
-        <f t="shared" si="4"/>
-        <v>0.94341110070230205</v>
+        <v>9.4341110070230201</v>
       </c>
       <c r="E283" t="s">
         <v>2</v>
@@ -6672,8 +6390,7 @@
         <v>50.408357879185203</v>
       </c>
       <c r="D284">
-        <f t="shared" si="4"/>
-        <v>0.50408357879185206</v>
+        <v>5.0408357879185202</v>
       </c>
       <c r="E284" t="s">
         <v>2</v>
@@ -6693,8 +6410,7 @@
         <v>1.51389761216339</v>
       </c>
       <c r="D285">
-        <f t="shared" si="4"/>
-        <v>1.5138976121633901E-2</v>
+        <v>1</v>
       </c>
       <c r="E285" t="s">
         <v>2</v>
@@ -6714,8 +6430,7 @@
         <v>-88.108575202861402</v>
       </c>
       <c r="D286">
-        <f t="shared" si="4"/>
-        <v>0.88108575202861406</v>
+        <v>8.8108575202861399</v>
       </c>
       <c r="E286" t="s">
         <v>2</v>
@@ -6735,8 +6450,7 @@
         <v>-94.3411100702303</v>
       </c>
       <c r="D287">
-        <f t="shared" si="4"/>
-        <v>0.94341110070230305</v>
+        <v>9.4341110070230307</v>
       </c>
       <c r="E287" t="s">
         <v>2</v>
@@ -6756,8 +6470,7 @@
         <v>-1.51389761216339</v>
       </c>
       <c r="D288">
-        <f t="shared" si="4"/>
-        <v>1.5138976121633901E-2</v>
+        <v>1</v>
       </c>
       <c r="E288" t="s">
         <v>2</v>
@@ -6777,8 +6490,7 @@
         <v>-50.408357879185203</v>
       </c>
       <c r="D289">
-        <f t="shared" si="4"/>
-        <v>0.50408357879185206</v>
+        <v>5.0408357879185202</v>
       </c>
       <c r="E289" t="s">
         <v>2</v>
@@ -6798,8 +6510,7 @@
         <v>106.393629160844</v>
       </c>
       <c r="D290">
-        <f t="shared" si="4"/>
-        <v>1.0639362916084401</v>
+        <v>10.6393629160844</v>
       </c>
       <c r="E290" t="s">
         <v>2</v>
@@ -6819,8 +6530,7 @@
         <v>56.366398074229501</v>
       </c>
       <c r="D291">
-        <f t="shared" si="4"/>
-        <v>0.56366398074229496</v>
+        <v>5.6366398074229505</v>
       </c>
       <c r="E291" t="s">
         <v>2</v>
@@ -6840,8 +6550,7 @@
         <v>9.2414834114711599</v>
       </c>
       <c r="D292">
-        <f t="shared" si="4"/>
-        <v>9.2414834114711603E-2</v>
+        <v>1</v>
       </c>
       <c r="E292" t="s">
         <v>2</v>
@@ -6861,8 +6570,7 @@
         <v>0.12988934095951599</v>
       </c>
       <c r="D293">
-        <f t="shared" si="4"/>
-        <v>1.2988934095951598E-3</v>
+        <v>1</v>
       </c>
       <c r="E293" t="s">
         <v>2</v>
@@ -6882,8 +6590,7 @@
         <v>375.15287246848197</v>
       </c>
       <c r="D294">
-        <f t="shared" si="4"/>
-        <v>3.7515287246848197</v>
+        <v>37.515287246848196</v>
       </c>
       <c r="E294" t="s">
         <v>2</v>
@@ -6903,8 +6610,7 @@
         <v>0.32856030911102901</v>
       </c>
       <c r="D295">
-        <f t="shared" si="4"/>
-        <v>3.2856030911102901E-3</v>
+        <v>1</v>
       </c>
       <c r="E295" t="s">
         <v>2</v>
@@ -6924,8 +6630,7 @@
         <v>2.8949084086567698</v>
       </c>
       <c r="D296">
-        <f t="shared" si="4"/>
-        <v>2.8949084086567697E-2</v>
+        <v>1</v>
       </c>
       <c r="E296" t="s">
         <v>2</v>
@@ -6945,8 +6650,7 @@
         <v>-12.4712776747568</v>
       </c>
       <c r="D297">
-        <f t="shared" si="4"/>
-        <v>0.124712776747568</v>
+        <v>1.24712776747568</v>
       </c>
       <c r="E297" t="s">
         <v>2</v>
@@ -6966,8 +6670,7 @@
         <v>0.32185243996652702</v>
       </c>
       <c r="D298">
-        <f t="shared" si="4"/>
-        <v>3.21852439966527E-3</v>
+        <v>1</v>
       </c>
       <c r="E298" t="s">
         <v>2</v>
@@ -6987,8 +6690,7 @@
         <v>0.53791314192297701</v>
       </c>
       <c r="D299">
-        <f t="shared" si="4"/>
-        <v>5.3791314192297704E-3</v>
+        <v>1</v>
       </c>
       <c r="E299" t="s">
         <v>2</v>
@@ -7008,8 +6710,7 @@
         <v>38.745510871454997</v>
       </c>
       <c r="D300">
-        <f t="shared" si="4"/>
-        <v>0.38745510871454997</v>
+        <v>3.8745510871454996</v>
       </c>
       <c r="E300" t="s">
         <v>2</v>
@@ -7029,8 +6730,7 @@
         <v>11.960323061871099</v>
       </c>
       <c r="D301">
-        <f t="shared" si="4"/>
-        <v>0.11960323061871099</v>
+        <v>1.1960323061871099</v>
       </c>
       <c r="E301" t="s">
         <v>2</v>
@@ -7050,8 +6750,7 @@
         <v>14.9061468691729</v>
       </c>
       <c r="D302">
-        <f t="shared" si="4"/>
-        <v>0.14906146869172901</v>
+        <v>1.49061468691729</v>
       </c>
       <c r="E302" t="s">
         <v>2</v>
@@ -7071,8 +6770,7 @@
         <v>1.59494214692471</v>
       </c>
       <c r="D303">
-        <f t="shared" si="4"/>
-        <v>1.5949421469247101E-2</v>
+        <v>1</v>
       </c>
       <c r="E303" t="s">
         <v>2</v>
@@ -7092,8 +6790,7 @@
         <v>0.116294153922606</v>
       </c>
       <c r="D304">
-        <f t="shared" si="4"/>
-        <v>1.1629415392260601E-3</v>
+        <v>1</v>
       </c>
       <c r="E304" t="s">
         <v>2</v>
@@ -7113,8 +6810,7 @@
         <v>1.0644676119510299</v>
       </c>
       <c r="D305">
-        <f t="shared" si="4"/>
-        <v>1.06446761195103E-2</v>
+        <v>1</v>
       </c>
       <c r="E305" t="s">
         <v>2</v>
@@ -7134,8 +6830,7 @@
         <v>4.2797295043301897</v>
       </c>
       <c r="D306">
-        <f t="shared" si="4"/>
-        <v>4.2797295043301896E-2</v>
+        <v>1</v>
       </c>
       <c r="E306" t="s">
         <v>2</v>
@@ -7155,8 +6850,7 @@
         <v>1.79350063083735</v>
       </c>
       <c r="D307">
-        <f t="shared" si="4"/>
-        <v>1.79350063083735E-2</v>
+        <v>1</v>
       </c>
       <c r="E307" t="s">
         <v>2</v>
@@ -7176,8 +6870,7 @@
         <v>0.51437557454425897</v>
       </c>
       <c r="D308">
-        <f t="shared" si="4"/>
-        <v>5.1437557454425895E-3</v>
+        <v>1</v>
       </c>
       <c r="E308" t="s">
         <v>2</v>
@@ -7197,8 +6890,7 @@
         <v>3.52850267692599</v>
       </c>
       <c r="D309">
-        <f t="shared" si="4"/>
-        <v>3.5285026769259903E-2</v>
+        <v>1</v>
       </c>
       <c r="E309" t="s">
         <v>2</v>
@@ -7218,8 +6910,7 @@
         <v>2.1793001413507</v>
       </c>
       <c r="D310">
-        <f t="shared" si="4"/>
-        <v>2.1793001413506999E-2</v>
+        <v>1</v>
       </c>
       <c r="E310" t="s">
         <v>2</v>
@@ -7239,8 +6930,7 @@
         <v>3.4166325172636398</v>
       </c>
       <c r="D311">
-        <f t="shared" si="4"/>
-        <v>3.4166325172636396E-2</v>
+        <v>1</v>
       </c>
       <c r="E311" t="s">
         <v>2</v>
@@ -7260,8 +6950,7 @@
         <v>0.65071466277160805</v>
       </c>
       <c r="D312">
-        <f t="shared" si="4"/>
-        <v>6.5071466277160806E-3</v>
+        <v>1</v>
       </c>
       <c r="E312" t="s">
         <v>2</v>
@@ -7281,8 +6970,7 @@
         <v>3.3248061297228602</v>
       </c>
       <c r="D313">
-        <f t="shared" si="4"/>
-        <v>3.3248061297228598E-2</v>
+        <v>1</v>
       </c>
       <c r="E313" t="s">
         <v>2</v>
@@ -7302,8 +6990,7 @@
         <v>1.2374669264392</v>
       </c>
       <c r="D314">
-        <f t="shared" si="4"/>
-        <v>1.2374669264391999E-2</v>
+        <v>1</v>
       </c>
       <c r="E314" t="s">
         <v>2</v>
@@ -7323,8 +7010,7 @@
         <v>1.71776947337242</v>
       </c>
       <c r="D315">
-        <f t="shared" si="4"/>
-        <v>1.71776947337242E-2</v>
+        <v>1</v>
       </c>
       <c r="E315" t="s">
         <v>2</v>
@@ -7344,8 +7030,7 @@
         <v>1.33586613931967</v>
       </c>
       <c r="D316">
-        <f t="shared" si="4"/>
-        <v>1.33586613931967E-2</v>
+        <v>1</v>
       </c>
       <c r="E316" t="s">
         <v>2</v>
@@ -7365,8 +7050,7 @@
         <v>0.56890279265016697</v>
       </c>
       <c r="D317">
-        <f t="shared" si="4"/>
-        <v>5.6890279265016698E-3</v>
+        <v>1</v>
       </c>
       <c r="E317" t="s">
         <v>2</v>
@@ -7386,8 +7070,7 @@
         <v>0.17803147284370499</v>
       </c>
       <c r="D318">
-        <f t="shared" si="4"/>
-        <v>1.7803147284370499E-3</v>
+        <v>1</v>
       </c>
       <c r="E318" t="s">
         <v>2</v>
@@ -7407,8 +7090,7 @@
         <v>3.2411125525154101</v>
       </c>
       <c r="D319">
-        <f t="shared" si="4"/>
-        <v>3.24111255251541E-2</v>
+        <v>1</v>
       </c>
       <c r="E319" t="s">
         <v>2</v>
@@ -7428,8 +7110,7 @@
         <v>3.2035275027524102</v>
       </c>
       <c r="D320">
-        <f t="shared" si="4"/>
-        <v>3.2035275027524103E-2</v>
+        <v>1</v>
       </c>
       <c r="E320" t="s">
         <v>2</v>
@@ -7449,8 +7130,7 @@
         <v>0.54337280939181998</v>
       </c>
       <c r="D321">
-        <f t="shared" si="4"/>
-        <v>5.4337280939182001E-3</v>
+        <v>1</v>
       </c>
       <c r="E321" t="s">
         <v>2</v>
@@ -7470,8 +7150,7 @@
         <v>2.7365096847281399E-3</v>
       </c>
       <c r="D322">
-        <f t="shared" si="4"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E322" t="s">
         <v>2</v>
@@ -7491,8 +7170,7 @@
         <v>2.7385854473087998E-3</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="5">MAX(0.001,ABS(C323/100))</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E323" t="s">
         <v>2</v>
@@ -7512,8 +7190,7 @@
         <v>4.7494076368052703E-2</v>
       </c>
       <c r="D324">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E324" t="s">
         <v>2</v>
@@ -7533,8 +7210,7 @@
         <v>0.38461398988621998</v>
       </c>
       <c r="D325">
-        <f t="shared" si="5"/>
-        <v>3.8461398988621997E-3</v>
+        <v>1</v>
       </c>
       <c r="E325" t="s">
         <v>2</v>
@@ -7554,8 +7230,7 @@
         <v>65.369680679649804</v>
       </c>
       <c r="D326">
-        <f t="shared" si="5"/>
-        <v>0.653696806796498</v>
+        <v>6.5369680679649802</v>
       </c>
       <c r="E326" t="s">
         <v>2</v>
@@ -7575,8 +7250,7 @@
         <v>785.66561061975699</v>
       </c>
       <c r="D327">
-        <f t="shared" si="5"/>
-        <v>7.8566561061975699</v>
+        <v>78.566561061975705</v>
       </c>
       <c r="E327" t="s">
         <v>2</v>
@@ -7596,8 +7270,7 @@
         <v>708.61191926856498</v>
       </c>
       <c r="D328">
-        <f t="shared" si="5"/>
-        <v>7.0861191926856497</v>
+        <v>70.861191926856492</v>
       </c>
       <c r="E328" t="s">
         <v>2</v>
@@ -7617,8 +7290,7 @@
         <v>77.053691351191503</v>
       </c>
       <c r="D329">
-        <f t="shared" si="5"/>
-        <v>0.770536913511915</v>
+        <v>7.7053691351191507</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -7638,8 +7310,7 @@
         <v>77.053691351191503</v>
       </c>
       <c r="D330">
-        <f t="shared" si="5"/>
-        <v>0.770536913511915</v>
+        <v>7.7053691351191507</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -7659,8 +7330,7 @@
         <v>159.057275196295</v>
       </c>
       <c r="D331">
-        <f t="shared" si="5"/>
-        <v>1.59057275196295</v>
+        <v>15.905727519629499</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -7680,8 +7350,7 @@
         <v>146.11829179743299</v>
       </c>
       <c r="D332">
-        <f t="shared" si="5"/>
-        <v>1.4611829179743299</v>
+        <v>14.6118291797433</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -7701,8 +7370,7 @@
         <v>123.39465716580401</v>
       </c>
       <c r="D333">
-        <f t="shared" si="5"/>
-        <v>1.23394657165804</v>
+        <v>12.339465716580401</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -7722,8 +7390,7 @@
         <v>28.6839445743624</v>
       </c>
       <c r="D334">
-        <f t="shared" si="5"/>
-        <v>0.28683944574362402</v>
+        <v>2.8683944574362399</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -7743,8 +7410,7 @@
         <v>28.6839445743623</v>
       </c>
       <c r="D335">
-        <f t="shared" si="5"/>
-        <v>0.28683944574362302</v>
+        <v>2.8683944574362301</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -7764,8 +7430,7 @@
         <v>12.427937298657399</v>
       </c>
       <c r="D336">
-        <f t="shared" si="5"/>
-        <v>0.12427937298657399</v>
+        <v>1.2427937298657399</v>
       </c>
       <c r="E336" t="s">
         <v>2</v>
@@ -7785,8 +7450,7 @@
         <v>16.256007275704999</v>
       </c>
       <c r="D337">
-        <f t="shared" si="5"/>
-        <v>0.16256007275704998</v>
+        <v>1.6256007275704998</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -7806,8 +7470,7 @@
         <v>7.32562053020719</v>
       </c>
       <c r="D338">
-        <f t="shared" si="5"/>
-        <v>7.32562053020719E-2</v>
+        <v>1</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -7827,8 +7490,7 @@
         <v>7.3256205302071304</v>
       </c>
       <c r="D339">
-        <f t="shared" si="5"/>
-        <v>7.3256205302071303E-2</v>
+        <v>1</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -7848,8 +7510,7 @@
         <v>5.1023167684502404</v>
       </c>
       <c r="D340">
-        <f t="shared" si="5"/>
-        <v>5.1023167684502407E-2</v>
+        <v>1</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -7869,8 +7530,7 @@
         <v>0</v>
       </c>
       <c r="D341">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -7890,8 +7550,7 @@
         <v>0</v>
       </c>
       <c r="D342">
-        <f t="shared" si="5"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E342" t="s">
         <v>2</v>
@@ -7911,8 +7570,7 @@
         <v>102.376010755547</v>
       </c>
       <c r="D343">
-        <f t="shared" si="5"/>
-        <v>1.0237601075554701</v>
+        <v>10.2376010755547</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -7932,8 +7590,7 @@
         <v>14.5797513212223</v>
       </c>
       <c r="D344">
-        <f t="shared" si="5"/>
-        <v>0.14579751321222301</v>
+        <v>1.4579751321222301</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -7953,8 +7610,7 @@
         <v>14.5797513212223</v>
       </c>
       <c r="D345">
-        <f t="shared" si="5"/>
-        <v>0.14579751321222301</v>
+        <v>1.4579751321222301</v>
       </c>
       <c r="E345" t="s">
         <v>2</v>
@@ -7974,8 +7630,7 @@
         <v>13.515528266967401</v>
       </c>
       <c r="D346">
-        <f t="shared" si="5"/>
-        <v>0.135155282669674</v>
+        <v>1.35155282669674</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -7995,8 +7650,7 @@
         <v>5.2223590371176396</v>
       </c>
       <c r="D347">
-        <f t="shared" si="5"/>
-        <v>5.2223590371176395E-2</v>
+        <v>1</v>
       </c>
       <c r="E347" t="s">
         <v>2</v>
@@ -8016,8 +7670,7 @@
         <v>2.7245938069311499</v>
       </c>
       <c r="D348">
-        <f t="shared" si="5"/>
-        <v>2.7245938069311498E-2</v>
+        <v>1</v>
       </c>
       <c r="E348" t="s">
         <v>2</v>
@@ -8037,8 +7690,7 @@
         <v>6.2865820913725203</v>
       </c>
       <c r="D349">
-        <f t="shared" si="5"/>
-        <v>6.2865820913725209E-2</v>
+        <v>1</v>
       </c>
       <c r="E349" t="s">
         <v>2</v>
@@ -8058,8 +7710,7 @@
         <v>9.2811896145786097</v>
       </c>
       <c r="D350">
-        <f t="shared" si="5"/>
-        <v>9.2811896145786096E-2</v>
+        <v>1</v>
       </c>
       <c r="E350" t="s">
         <v>2</v>
@@ -8079,8 +7730,7 @@
         <v>11.5245703181383</v>
       </c>
       <c r="D351">
-        <f t="shared" si="5"/>
-        <v>0.115245703181383</v>
+        <v>1.1524570318138301</v>
       </c>
       <c r="E351" t="s">
         <v>2</v>
@@ -8100,8 +7750,7 @@
         <v>1.0642230542549</v>
       </c>
       <c r="D352">
-        <f t="shared" si="5"/>
-        <v>1.0642230542549001E-2</v>
+        <v>1</v>
       </c>
       <c r="E352" t="s">
         <v>2</v>
@@ -8121,8 +7770,7 @@
         <v>1.0642230542549</v>
       </c>
       <c r="D353">
-        <f t="shared" si="5"/>
-        <v>1.0642230542549001E-2</v>
+        <v>1</v>
       </c>
       <c r="E353" t="s">
         <v>2</v>
@@ -8142,8 +7790,7 @@
         <v>-2.4947612947190798</v>
       </c>
       <c r="D354">
-        <f t="shared" si="5"/>
-        <v>2.4947612947190799E-2</v>
+        <v>1</v>
       </c>
       <c r="E354" t="s">
         <v>2</v>
@@ -8163,8 +7810,7 @@
         <v>1.3156036454142599</v>
       </c>
       <c r="D355">
-        <f t="shared" si="5"/>
-        <v>1.31560364541426E-2</v>
+        <v>1</v>
       </c>
       <c r="E355" t="s">
         <v>2</v>
@@ -8184,8 +7830,7 @@
         <v>17.496064554999698</v>
       </c>
       <c r="D356">
-        <f t="shared" si="5"/>
-        <v>0.17496064554999699</v>
+        <v>1.7496064554999697</v>
       </c>
       <c r="E356" t="s">
         <v>2</v>
@@ -8205,8 +7850,7 @@
         <v>-0.48412876361065599</v>
       </c>
       <c r="D357">
-        <f t="shared" si="5"/>
-        <v>4.8412876361065595E-3</v>
+        <v>1</v>
       </c>
       <c r="E357" t="s">
         <v>2</v>
@@ -8226,8 +7870,7 @@
         <v>67.628594372296405</v>
       </c>
       <c r="D358">
-        <f t="shared" si="5"/>
-        <v>0.67628594372296402</v>
+        <v>6.7628594372296407</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -8247,8 +7890,7 @@
         <v>48.172388244405496</v>
       </c>
       <c r="D359">
-        <f t="shared" si="5"/>
-        <v>0.48172388244405495</v>
+        <v>4.8172388244405493</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -8268,8 +7910,7 @@
         <v>6.0410440945238602</v>
       </c>
       <c r="D360">
-        <f t="shared" si="5"/>
-        <v>6.0410440945238598E-2</v>
+        <v>1</v>
       </c>
       <c r="E360" t="s">
         <v>2</v>
@@ -8289,8 +7930,7 @@
         <v>1.29074050328493</v>
       </c>
       <c r="D361">
-        <f t="shared" si="5"/>
-        <v>1.29074050328493E-2</v>
+        <v>1</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -8310,8 +7950,7 @@
         <v>2.0868125846985199</v>
       </c>
       <c r="D362">
-        <f t="shared" si="5"/>
-        <v>2.0868125846985199E-2</v>
+        <v>1</v>
       </c>
       <c r="E362" t="s">
         <v>2</v>
@@ -8331,8 +7970,7 @@
         <v>12.6740408885817</v>
       </c>
       <c r="D363">
-        <f t="shared" si="5"/>
-        <v>0.126740408885817</v>
+        <v>1.2674040888581701</v>
       </c>
       <c r="E363" t="s">
         <v>2</v>
@@ -8352,8 +7990,7 @@
         <v>2.1114261252517799</v>
       </c>
       <c r="D364">
-        <f t="shared" si="5"/>
-        <v>2.1114261252517797E-2</v>
+        <v>1</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -8373,8 +8010,7 @@
         <v>4.54869837379242</v>
       </c>
       <c r="D365">
-        <f t="shared" si="5"/>
-        <v>4.5486983737924203E-2</v>
+        <v>1</v>
       </c>
       <c r="E365" t="s">
         <v>2</v>
@@ -8394,8 +8030,7 @@
         <v>8.61892630767497</v>
       </c>
       <c r="D366">
-        <f t="shared" si="5"/>
-        <v>8.6189263076749706E-2</v>
+        <v>1</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -8415,8 +8050,7 @@
         <v>4.7750581706834696</v>
       </c>
       <c r="D367">
-        <f t="shared" si="5"/>
-        <v>4.7750581706834695E-2</v>
+        <v>1</v>
       </c>
       <c r="E367" t="s">
         <v>2</v>
@@ -8436,8 +8070,7 @@
         <v>0.17653396226759499</v>
       </c>
       <c r="D368">
-        <f t="shared" si="5"/>
-        <v>1.76533962267595E-3</v>
+        <v>1</v>
       </c>
       <c r="E368" t="s">
         <v>2</v>
@@ -8457,8 +8090,7 @@
         <v>-0.37800029985144701</v>
       </c>
       <c r="D369">
-        <f t="shared" si="5"/>
-        <v>3.7800029985144701E-3</v>
+        <v>1</v>
       </c>
       <c r="E369" t="s">
         <v>2</v>
@@ -8478,8 +8110,7 @@
         <v>1.2687289314848</v>
       </c>
       <c r="D370">
-        <f t="shared" si="5"/>
-        <v>1.2687289314848001E-2</v>
+        <v>1</v>
       </c>
       <c r="E370" t="s">
         <v>2</v>
@@ -8499,8 +8130,7 @@
         <v>1.9712514764267699</v>
       </c>
       <c r="D371">
-        <f t="shared" si="5"/>
-        <v>1.9712514764267698E-2</v>
+        <v>1</v>
       </c>
       <c r="E371" t="s">
         <v>2</v>
@@ -8520,8 +8150,7 @@
         <v>1.9712514764267901</v>
       </c>
       <c r="D372">
-        <f t="shared" si="5"/>
-        <v>1.9712514764267899E-2</v>
+        <v>1</v>
       </c>
       <c r="E372" t="s">
         <v>2</v>
@@ -8541,8 +8170,7 @@
         <v>3.1068487441577699</v>
       </c>
       <c r="D373">
-        <f t="shared" si="5"/>
-        <v>3.10684874415777E-2</v>
+        <v>1</v>
       </c>
       <c r="E373" t="s">
         <v>2</v>
@@ -8562,8 +8190,7 @@
         <v>0.52651375375981802</v>
       </c>
       <c r="D374">
-        <f t="shared" si="5"/>
-        <v>5.26513753759818E-3</v>
+        <v>1</v>
       </c>
       <c r="E374" t="s">
         <v>2</v>
@@ -8583,8 +8210,7 @@
         <v>3.1514957463169102</v>
       </c>
       <c r="D375">
-        <f t="shared" si="5"/>
-        <v>3.1514957463169103E-2</v>
+        <v>1</v>
       </c>
       <c r="E375" t="s">
         <v>2</v>
@@ -8604,8 +8230,7 @@
         <v>2.91723547357654</v>
       </c>
       <c r="D376">
-        <f t="shared" si="5"/>
-        <v>2.9172354735765401E-2</v>
+        <v>1</v>
       </c>
       <c r="E376" t="s">
         <v>2</v>
@@ -8625,8 +8250,7 @@
         <v>1.5279637542459199</v>
       </c>
       <c r="D377">
-        <f t="shared" si="5"/>
-        <v>1.52796375424592E-2</v>
+        <v>1</v>
       </c>
       <c r="E377" t="s">
         <v>2</v>
@@ -8646,8 +8270,7 @@
         <v>0.914151812130925</v>
       </c>
       <c r="D378">
-        <f t="shared" si="5"/>
-        <v>9.1415181213092504E-3</v>
+        <v>1</v>
       </c>
       <c r="E378" t="s">
         <v>2</v>
@@ -8667,8 +8290,7 @@
         <v>0.88031586933407002</v>
       </c>
       <c r="D379">
-        <f t="shared" si="5"/>
-        <v>8.803158693340701E-3</v>
+        <v>1</v>
       </c>
       <c r="E379" t="s">
         <v>2</v>
@@ -8688,8 +8310,7 @@
         <v>0.42883608029201498</v>
       </c>
       <c r="D380">
-        <f t="shared" si="5"/>
-        <v>4.2883608029201494E-3</v>
+        <v>1</v>
       </c>
       <c r="E380" t="s">
         <v>2</v>
@@ -8709,8 +8330,7 @@
         <v>0.90779493851016502</v>
       </c>
       <c r="D381">
-        <f t="shared" si="5"/>
-        <v>9.0779493851016503E-3</v>
+        <v>1</v>
       </c>
       <c r="E381" t="s">
         <v>2</v>
@@ -8730,8 +8350,7 @@
         <v>0.52651375375974396</v>
       </c>
       <c r="D382">
-        <f t="shared" si="5"/>
-        <v>5.2651375375974393E-3</v>
+        <v>1</v>
       </c>
       <c r="E382" t="s">
         <v>2</v>
@@ -8751,8 +8370,7 @@
         <v>0.90779493850742898</v>
       </c>
       <c r="D383">
-        <f t="shared" si="5"/>
-        <v>9.0779493850742903E-3</v>
+        <v>1</v>
       </c>
       <c r="E383" t="s">
         <v>2</v>
@@ -8772,8 +8390,7 @@
         <v>131.95181687518499</v>
       </c>
       <c r="D384">
-        <f t="shared" si="5"/>
-        <v>1.3195181687518498</v>
+        <v>13.195181687518499</v>
       </c>
       <c r="E384" t="s">
         <v>2</v>
@@ -8793,8 +8410,7 @@
         <v>3.1432910456862801</v>
       </c>
       <c r="D385">
-        <f t="shared" si="5"/>
-        <v>3.1432910456862799E-2</v>
+        <v>1</v>
       </c>
       <c r="E385" t="s">
         <v>2</v>
@@ -8814,8 +8430,7 @@
         <v>44.0090307862381</v>
       </c>
       <c r="D386">
-        <f t="shared" si="5"/>
-        <v>0.44009030786238101</v>
+        <v>4.4009030786238101</v>
       </c>
       <c r="E386" t="s">
         <v>2</v>
@@ -8835,8 +8450,7 @@
         <v>1.1279411240012599E-3</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="6">MAX(0.001,ABS(C387/100))</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E387" t="s">
         <v>2</v>
@@ -8856,8 +8470,7 @@
         <v>99.905904807839804</v>
       </c>
       <c r="D388">
-        <f t="shared" si="6"/>
-        <v>0.99905904807839807</v>
+        <v>9.9905904807839807</v>
       </c>
       <c r="E388" t="s">
         <v>2</v>
@@ -8877,8 +8490,7 @@
         <v>70.984135888479798</v>
       </c>
       <c r="D389">
-        <f t="shared" si="6"/>
-        <v>0.70984135888479793</v>
+        <v>7.09841358884798</v>
       </c>
       <c r="E389" t="s">
         <v>2</v>
@@ -8898,8 +8510,7 @@
         <v>143.436698729548</v>
       </c>
       <c r="D390">
-        <f t="shared" si="6"/>
-        <v>1.4343669872954801</v>
+        <v>14.3436698729548</v>
       </c>
       <c r="E390" t="s">
         <v>2</v>
@@ -8919,8 +8530,7 @@
         <v>135.09510792087201</v>
       </c>
       <c r="D391">
-        <f t="shared" si="6"/>
-        <v>1.35095107920872</v>
+        <v>13.509510792087202</v>
       </c>
       <c r="E391" t="s">
         <v>2</v>
@@ -8940,8 +8550,7 @@
         <v>54.093846993909096</v>
       </c>
       <c r="D392">
-        <f t="shared" si="6"/>
-        <v>0.540938469939091</v>
+        <v>5.4093846993909098</v>
       </c>
       <c r="E392" t="s">
         <v>2</v>
@@ -8961,8 +8570,7 @@
         <v>1.26872893148482</v>
       </c>
       <c r="D393">
-        <f t="shared" si="6"/>
-        <v>1.26872893148482E-2</v>
+        <v>1</v>
       </c>
       <c r="E393" t="s">
         <v>2</v>
@@ -8982,8 +8590,7 @@
         <v>-99.905904807839804</v>
       </c>
       <c r="D394">
-        <f t="shared" si="6"/>
-        <v>0.99905904807839807</v>
+        <v>9.9905904807839807</v>
       </c>
       <c r="E394" t="s">
         <v>2</v>
@@ -9003,8 +8610,7 @@
         <v>-135.09510792087201</v>
       </c>
       <c r="D395">
-        <f t="shared" si="6"/>
-        <v>1.35095107920872</v>
+        <v>13.509510792087202</v>
       </c>
       <c r="E395" t="s">
         <v>2</v>
@@ -9024,8 +8630,7 @@
         <v>-1.26872893148481</v>
       </c>
       <c r="D396">
-        <f t="shared" si="6"/>
-        <v>1.26872893148481E-2</v>
+        <v>1</v>
       </c>
       <c r="E396" t="s">
         <v>2</v>
@@ -9045,8 +8650,7 @@
         <v>-54.093846993909096</v>
       </c>
       <c r="D397">
-        <f t="shared" si="6"/>
-        <v>0.540938469939091</v>
+        <v>5.4093846993909098</v>
       </c>
       <c r="E397" t="s">
         <v>2</v>
@@ -9066,8 +8670,7 @@
         <v>143.436698729548</v>
       </c>
       <c r="D398">
-        <f t="shared" si="6"/>
-        <v>1.4343669872954801</v>
+        <v>14.3436698729548</v>
       </c>
       <c r="E398" t="s">
         <v>2</v>
@@ -9087,8 +8690,7 @@
         <v>70.984135888479798</v>
       </c>
       <c r="D399">
-        <f t="shared" si="6"/>
-        <v>0.70984135888479793</v>
+        <v>7.09841358884798</v>
       </c>
       <c r="E399" t="s">
         <v>2</v>
@@ -9108,8 +8710,7 @@
         <v>5.8522795538274597</v>
       </c>
       <c r="D400">
-        <f t="shared" si="6"/>
-        <v>5.8522795538274594E-2</v>
+        <v>1</v>
       </c>
       <c r="E400" t="s">
         <v>2</v>
@@ -9129,8 +8730,7 @@
         <v>0.74392662711593205</v>
       </c>
       <c r="D401">
-        <f t="shared" si="6"/>
-        <v>7.4392662711593206E-3</v>
+        <v>1</v>
       </c>
       <c r="E401" t="s">
         <v>2</v>
@@ -9150,8 +8750,7 @@
         <v>229.874371470433</v>
       </c>
       <c r="D402">
-        <f t="shared" si="6"/>
-        <v>2.2987437147043299</v>
+        <v>22.987437147043302</v>
       </c>
       <c r="E402" t="s">
         <v>2</v>
@@ -9171,8 +8770,7 @@
         <v>0.58126035483043004</v>
       </c>
       <c r="D403">
-        <f t="shared" si="6"/>
-        <v>5.8126035483043008E-3</v>
+        <v>1</v>
       </c>
       <c r="E403" t="s">
         <v>2</v>
@@ -9192,8 +8790,7 @@
         <v>4.3200570911865297</v>
       </c>
       <c r="D404">
-        <f t="shared" si="6"/>
-        <v>4.3200570911865299E-2</v>
+        <v>1</v>
       </c>
       <c r="E404" t="s">
         <v>2</v>
@@ -9213,8 +8810,7 @@
         <v>-14.9127581478396</v>
       </c>
       <c r="D405">
-        <f t="shared" si="6"/>
-        <v>0.149127581478396</v>
+        <v>1.49127581478396</v>
       </c>
       <c r="E405" t="s">
         <v>2</v>
@@ -9234,8 +8830,7 @@
         <v>0.29683378950538297</v>
       </c>
       <c r="D406">
-        <f t="shared" si="6"/>
-        <v>2.9683378950538298E-3</v>
+        <v>1</v>
       </c>
       <c r="E406" t="s">
         <v>2</v>
@@ -9255,8 +8850,7 @@
         <v>0.60946255075114997</v>
       </c>
       <c r="D407">
-        <f t="shared" si="6"/>
-        <v>6.0946255075115001E-3</v>
+        <v>1</v>
       </c>
       <c r="E407" t="s">
         <v>2</v>
@@ -9276,8 +8870,7 @@
         <v>34.360657599519698</v>
       </c>
       <c r="D408">
-        <f t="shared" si="6"/>
-        <v>0.34360657599519695</v>
+        <v>3.4360657599519699</v>
       </c>
       <c r="E408" t="s">
         <v>2</v>
@@ -9297,8 +8890,7 @@
         <v>7.59375572669836</v>
       </c>
       <c r="D409">
-        <f t="shared" si="6"/>
-        <v>7.5937557266983605E-2</v>
+        <v>1</v>
       </c>
       <c r="E409" t="s">
         <v>2</v>
@@ -9318,8 +8910,7 @@
         <v>12.452664718162399</v>
       </c>
       <c r="D410">
-        <f t="shared" si="6"/>
-        <v>0.124526647181624</v>
+        <v>1.2452664718162398</v>
       </c>
       <c r="E410" t="s">
         <v>2</v>
@@ -9339,8 +8930,7 @@
         <v>2.2509714269447501</v>
       </c>
       <c r="D411">
-        <f t="shared" si="6"/>
-        <v>2.2509714269447499E-2</v>
+        <v>1</v>
       </c>
       <c r="E411" t="s">
         <v>2</v>
@@ -9360,8 +8950,7 @@
         <v>0.31946821072947801</v>
       </c>
       <c r="D412">
-        <f t="shared" si="6"/>
-        <v>3.1946821072947802E-3</v>
+        <v>1</v>
       </c>
       <c r="E412" t="s">
         <v>2</v>
@@ -9381,8 +8970,7 @@
         <v>1.97854744011064</v>
       </c>
       <c r="D413">
-        <f t="shared" si="6"/>
-        <v>1.9785474401106399E-2</v>
+        <v>1</v>
       </c>
       <c r="E413" t="s">
         <v>2</v>
@@ -9402,8 +8990,7 @@
         <v>2.61760049102605</v>
       </c>
       <c r="D414">
-        <f t="shared" si="6"/>
-        <v>2.6176004910260498E-2</v>
+        <v>1</v>
       </c>
       <c r="E414" t="s">
         <v>2</v>
@@ -9423,8 +9010,7 @@
         <v>1.29074050328493</v>
       </c>
       <c r="D415">
-        <f t="shared" si="6"/>
-        <v>1.29074050328493E-2</v>
+        <v>1</v>
       </c>
       <c r="E415" t="s">
         <v>2</v>
@@ -9444,8 +9030,7 @@
         <v>1.9633932657794499</v>
       </c>
       <c r="D416">
-        <f t="shared" si="6"/>
-        <v>1.9633932657794499E-2</v>
+        <v>1</v>
       </c>
       <c r="E416" t="s">
         <v>2</v>
@@ -9465,8 +9050,7 @@
         <v>2.0868125846985901</v>
       </c>
       <c r="D417">
-        <f t="shared" si="6"/>
-        <v>2.0868125846985899E-2</v>
+        <v>1</v>
       </c>
       <c r="E417" t="s">
         <v>2</v>
@@ -9486,8 +9070,7 @@
         <v>2.1114261252518598</v>
       </c>
       <c r="D418">
-        <f t="shared" si="6"/>
-        <v>2.1114261252518599E-2</v>
+        <v>1</v>
       </c>
       <c r="E418" t="s">
         <v>2</v>
@@ -9507,8 +9090,7 @@
         <v>4.5486983737923801</v>
       </c>
       <c r="D419">
-        <f t="shared" si="6"/>
-        <v>4.54869837379238E-2</v>
+        <v>1</v>
       </c>
       <c r="E419" t="s">
         <v>2</v>
@@ -9528,8 +9110,7 @@
         <v>2.1463031252147302</v>
       </c>
       <c r="D420">
-        <f t="shared" si="6"/>
-        <v>2.1463031252147304E-2</v>
+        <v>1</v>
       </c>
       <c r="E420" t="s">
         <v>2</v>
@@ -9549,8 +9130,7 @@
         <v>4.2205239085644397</v>
       </c>
       <c r="D421">
-        <f t="shared" si="6"/>
-        <v>4.22052390856444E-2</v>
+        <v>1</v>
       </c>
       <c r="E421" t="s">
         <v>2</v>
@@ -9570,8 +9150,7 @@
         <v>3.5172834406837699</v>
       </c>
       <c r="D422">
-        <f t="shared" si="6"/>
-        <v>3.5172834406837696E-2</v>
+        <v>1</v>
       </c>
       <c r="E422" t="s">
         <v>2</v>
@@ -9591,8 +9170,7 @@
         <v>1.95688528976333</v>
       </c>
       <c r="D423">
-        <f t="shared" si="6"/>
-        <v>1.9568852897633299E-2</v>
+        <v>1</v>
       </c>
       <c r="E423" t="s">
         <v>2</v>
@@ -9612,8 +9190,7 @@
         <v>0.74221517772505796</v>
       </c>
       <c r="D424">
-        <f t="shared" si="6"/>
-        <v>7.42215177725058E-3</v>
+        <v>1</v>
       </c>
       <c r="E424" t="s">
         <v>2</v>
@@ -9633,8 +9210,7 @@
         <v>1.9712514764267901</v>
       </c>
       <c r="D425">
-        <f t="shared" si="6"/>
-        <v>1.9712514764267899E-2</v>
+        <v>1</v>
       </c>
       <c r="E425" t="s">
         <v>2</v>
@@ -9654,8 +9230,7 @@
         <v>0.52651375375975595</v>
       </c>
       <c r="D426">
-        <f t="shared" si="6"/>
-        <v>5.2651375375975598E-3</v>
+        <v>1</v>
       </c>
       <c r="E426" t="s">
         <v>2</v>
@@ -9675,8 +9250,7 @@
         <v>3.1514957463168498</v>
       </c>
       <c r="D427">
-        <f t="shared" si="6"/>
-        <v>3.15149574631685E-2</v>
+        <v>1</v>
       </c>
       <c r="E427" t="s">
         <v>2</v>
@@ -9696,8 +9270,7 @@
         <v>2.91723547357656</v>
       </c>
       <c r="D428">
-        <f t="shared" si="6"/>
-        <v>2.9172354735765599E-2</v>
+        <v>1</v>
       </c>
       <c r="E428" t="s">
         <v>2</v>
@@ -9717,8 +9290,7 @@
         <v>1.5279637542458799</v>
       </c>
       <c r="D429">
-        <f t="shared" si="6"/>
-        <v>1.5279637542458799E-2</v>
+        <v>1</v>
       </c>
       <c r="E429" t="s">
         <v>2</v>
@@ -9738,8 +9310,7 @@
         <v>0.91415181213091801</v>
       </c>
       <c r="D430">
-        <f t="shared" si="6"/>
-        <v>9.1415181213091792E-3</v>
+        <v>1</v>
       </c>
       <c r="E430" t="s">
         <v>2</v>
@@ -9759,8 +9330,7 @@
         <v>0.88031586933405803</v>
       </c>
       <c r="D431">
-        <f t="shared" si="6"/>
-        <v>8.8031586933405796E-3</v>
+        <v>1</v>
       </c>
       <c r="E431" t="s">
         <v>2</v>
@@ -9780,8 +9350,7 @@
         <v>0.42883608029196701</v>
       </c>
       <c r="D432">
-        <f t="shared" si="6"/>
-        <v>4.2883608029196697E-3</v>
+        <v>1</v>
       </c>
       <c r="E432" t="s">
         <v>2</v>
@@ -9801,8 +9370,7 @@
         <v>0.90779493850557103</v>
       </c>
       <c r="D433">
-        <f t="shared" si="6"/>
-        <v>9.0779493850557096E-3</v>
+        <v>1</v>
       </c>
       <c r="E433" t="s">
         <v>2</v>
@@ -9822,8 +9390,7 @@
         <v>65.369680679651594</v>
       </c>
       <c r="D434">
-        <f t="shared" si="6"/>
-        <v>0.65369680679651598</v>
+        <v>6.5369680679651596</v>
       </c>
       <c r="E434" t="s">
         <v>2</v>
@@ -9843,8 +9410,7 @@
         <v>785.66561061975403</v>
       </c>
       <c r="D435">
-        <f t="shared" si="6"/>
-        <v>7.8566561061975406</v>
+        <v>78.566561061975406</v>
       </c>
       <c r="E435" t="s">
         <v>2</v>
@@ -9864,8 +9430,7 @@
         <v>708.61191926856202</v>
       </c>
       <c r="D436">
-        <f t="shared" si="6"/>
-        <v>7.0861191926856204</v>
+        <v>70.861191926856208</v>
       </c>
       <c r="E436" t="s">
         <v>2</v>
@@ -9885,8 +9450,7 @@
         <v>77.053691351191702</v>
       </c>
       <c r="D437">
-        <f t="shared" si="6"/>
-        <v>0.770536913511917</v>
+        <v>7.7053691351191702</v>
       </c>
       <c r="E437" t="s">
         <v>2</v>
@@ -9906,8 +9470,7 @@
         <v>77.053691351191802</v>
       </c>
       <c r="D438">
-        <f t="shared" si="6"/>
-        <v>0.770536913511918</v>
+        <v>7.70536913511918</v>
       </c>
       <c r="E438" t="s">
         <v>2</v>
@@ -9927,8 +9490,7 @@
         <v>159.057275196295</v>
       </c>
       <c r="D439">
-        <f t="shared" si="6"/>
-        <v>1.59057275196295</v>
+        <v>15.905727519629499</v>
       </c>
       <c r="E439" t="s">
         <v>2</v>
@@ -9948,8 +9510,7 @@
         <v>146.11829179743299</v>
       </c>
       <c r="D440">
-        <f t="shared" si="6"/>
-        <v>1.4611829179743299</v>
+        <v>14.6118291797433</v>
       </c>
       <c r="E440" t="s">
         <v>2</v>
@@ -9969,8 +9530,7 @@
         <v>123.394657165803</v>
       </c>
       <c r="D441">
-        <f t="shared" si="6"/>
-        <v>1.23394657165803</v>
+        <v>12.3394657165803</v>
       </c>
       <c r="E441" t="s">
         <v>2</v>
@@ -9990,8 +9550,7 @@
         <v>28.683944574360901</v>
       </c>
       <c r="D442">
-        <f t="shared" si="6"/>
-        <v>0.28683944574360898</v>
+        <v>2.8683944574360902</v>
       </c>
       <c r="E442" t="s">
         <v>2</v>
@@ -10011,8 +9570,7 @@
         <v>28.683944574360901</v>
       </c>
       <c r="D443">
-        <f t="shared" si="6"/>
-        <v>0.28683944574360898</v>
+        <v>2.8683944574360902</v>
       </c>
       <c r="E443" t="s">
         <v>2</v>
@@ -10032,8 +9590,7 @@
         <v>12.427937298656101</v>
       </c>
       <c r="D444">
-        <f t="shared" si="6"/>
-        <v>0.12427937298656101</v>
+        <v>1.24279372986561</v>
       </c>
       <c r="E444" t="s">
         <v>2</v>
@@ -10053,8 +9610,7 @@
         <v>16.256007275704899</v>
       </c>
       <c r="D445">
-        <f t="shared" si="6"/>
-        <v>0.16256007275704898</v>
+        <v>1.62560072757049</v>
       </c>
       <c r="E445" t="s">
         <v>2</v>
@@ -10074,8 +9630,7 @@
         <v>7.3256205302064199</v>
       </c>
       <c r="D446">
-        <f t="shared" si="6"/>
-        <v>7.3256205302064198E-2</v>
+        <v>1</v>
       </c>
       <c r="E446" t="s">
         <v>2</v>
@@ -10095,8 +9650,7 @@
         <v>7.3256205302064199</v>
       </c>
       <c r="D447">
-        <f t="shared" si="6"/>
-        <v>7.3256205302064198E-2</v>
+        <v>1</v>
       </c>
       <c r="E447" t="s">
         <v>2</v>
@@ -10116,8 +9670,7 @@
         <v>5.10231676844968</v>
       </c>
       <c r="D448">
-        <f t="shared" si="6"/>
-        <v>5.1023167684496801E-2</v>
+        <v>1</v>
       </c>
       <c r="E448" t="s">
         <v>2</v>
@@ -10137,8 +9690,7 @@
         <v>4.2632564145605999E-14</v>
       </c>
       <c r="D449">
-        <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E449" t="s">
         <v>2</v>
@@ -10158,8 +9710,7 @@
         <v>0</v>
       </c>
       <c r="D450">
-        <f t="shared" si="6"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E450" t="s">
         <v>2</v>
@@ -10179,8 +9730,7 @@
         <v>102.376010755547</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" si="7">MAX(0.001,ABS(C451/100))</f>
-        <v>1.0237601075554701</v>
+        <v>10.2376010755547</v>
       </c>
       <c r="E451" t="s">
         <v>2</v>
@@ -10200,8 +9750,7 @@
         <v>14.5797513212224</v>
       </c>
       <c r="D452">
-        <f t="shared" si="7"/>
-        <v>0.14579751321222401</v>
+        <v>1.4579751321222401</v>
       </c>
       <c r="E452" t="s">
         <v>2</v>
@@ -10221,8 +9770,7 @@
         <v>14.5797513212223</v>
       </c>
       <c r="D453">
-        <f t="shared" si="7"/>
-        <v>0.14579751321222301</v>
+        <v>1.4579751321222301</v>
       </c>
       <c r="E453" t="s">
         <v>2</v>
@@ -10242,8 +9790,7 @@
         <v>13.5155282669679</v>
       </c>
       <c r="D454">
-        <f t="shared" si="7"/>
-        <v>0.13515528266967899</v>
+        <v>1.35155282669679</v>
       </c>
       <c r="E454" t="s">
         <v>2</v>
@@ -10263,8 +9810,7 @@
         <v>5.2223590371185598</v>
       </c>
       <c r="D455">
-        <f t="shared" si="7"/>
-        <v>5.2223590371185596E-2</v>
+        <v>1</v>
       </c>
       <c r="E455" t="s">
         <v>2</v>
@@ -10284,8 +9830,7 @@
         <v>2.7245938069317202</v>
       </c>
       <c r="D456">
-        <f t="shared" si="7"/>
-        <v>2.7245938069317202E-2</v>
+        <v>1</v>
       </c>
       <c r="E456" t="s">
         <v>2</v>
@@ -10305,8 +9850,7 @@
         <v>6.2865820913728898</v>
       </c>
       <c r="D457">
-        <f t="shared" si="7"/>
-        <v>6.2865820913728901E-2</v>
+        <v>1</v>
       </c>
       <c r="E457" t="s">
         <v>2</v>
@@ -10326,8 +9870,7 @@
         <v>9.2811896145800006</v>
       </c>
       <c r="D458">
-        <f t="shared" si="7"/>
-        <v>9.2811896145800002E-2</v>
+        <v>1</v>
       </c>
       <c r="E458" t="s">
         <v>2</v>
@@ -10347,8 +9890,7 @@
         <v>11.5245703181387</v>
       </c>
       <c r="D459">
-        <f t="shared" si="7"/>
-        <v>0.11524570318138699</v>
+        <v>1.15245703181387</v>
       </c>
       <c r="E459" t="s">
         <v>2</v>
@@ -10368,8 +9910,7 @@
         <v>1.06422305425445</v>
       </c>
       <c r="D460">
-        <f t="shared" si="7"/>
-        <v>1.06422305425445E-2</v>
+        <v>1</v>
       </c>
       <c r="E460" t="s">
         <v>2</v>
@@ -10389,8 +9930,7 @@
         <v>1.0642230542544</v>
       </c>
       <c r="D461">
-        <f t="shared" si="7"/>
-        <v>1.0642230542544E-2</v>
+        <v>1</v>
       </c>
       <c r="E461" t="s">
         <v>2</v>
@@ -10410,8 +9950,7 @@
         <v>-2.49476129471828</v>
       </c>
       <c r="D462">
-        <f t="shared" si="7"/>
-        <v>2.4947612947182798E-2</v>
+        <v>1</v>
       </c>
       <c r="E462" t="s">
         <v>2</v>
@@ -10431,8 +9970,7 @@
         <v>1.3156036454140601</v>
       </c>
       <c r="D463">
-        <f t="shared" si="7"/>
-        <v>1.3156036454140601E-2</v>
+        <v>1</v>
       </c>
       <c r="E463" t="s">
         <v>2</v>
@@ -10452,8 +9990,7 @@
         <v>17.4960645550001</v>
       </c>
       <c r="D464">
-        <f t="shared" si="7"/>
-        <v>0.17496064555000099</v>
+        <v>1.7496064555000099</v>
       </c>
       <c r="E464" t="s">
         <v>2</v>
@@ -10473,8 +10010,7 @@
         <v>-0.484128763610855</v>
       </c>
       <c r="D465">
-        <f t="shared" si="7"/>
-        <v>4.8412876361085501E-3</v>
+        <v>1</v>
       </c>
       <c r="E465" t="s">
         <v>2</v>
@@ -10494,8 +10030,7 @@
         <v>67.628594372296703</v>
       </c>
       <c r="D466">
-        <f t="shared" si="7"/>
-        <v>0.67628594372296702</v>
+        <v>6.76285943722967</v>
       </c>
       <c r="E466" t="s">
         <v>2</v>
@@ -10515,8 +10050,7 @@
         <v>48.172388244405198</v>
       </c>
       <c r="D467">
-        <f t="shared" si="7"/>
-        <v>0.48172388244405195</v>
+        <v>4.81723882444052</v>
       </c>
       <c r="E467" t="s">
         <v>2</v>
@@ -10536,8 +10070,7 @@
         <v>6.0410440945236203</v>
       </c>
       <c r="D468">
-        <f t="shared" si="7"/>
-        <v>6.0410440945236205E-2</v>
+        <v>1</v>
       </c>
       <c r="E468" t="s">
         <v>2</v>
@@ -10557,8 +10090,7 @@
         <v>1.2907405032850401</v>
       </c>
       <c r="D469">
-        <f t="shared" si="7"/>
-        <v>1.2907405032850401E-2</v>
+        <v>1</v>
       </c>
       <c r="E469" t="s">
         <v>2</v>
@@ -10578,8 +10110,7 @@
         <v>2.0868125846982402</v>
       </c>
       <c r="D470">
-        <f t="shared" si="7"/>
-        <v>2.0868125846982402E-2</v>
+        <v>1</v>
       </c>
       <c r="E470" t="s">
         <v>2</v>
@@ -10599,8 +10130,7 @@
         <v>12.6740408885825</v>
       </c>
       <c r="D471">
-        <f t="shared" si="7"/>
-        <v>0.126740408885825</v>
+        <v>1.2674040888582501</v>
       </c>
       <c r="E471" t="s">
         <v>2</v>
@@ -10620,8 +10150,7 @@
         <v>2.1114261252511901</v>
       </c>
       <c r="D472">
-        <f t="shared" si="7"/>
-        <v>2.1114261252511903E-2</v>
+        <v>1</v>
       </c>
       <c r="E472" t="s">
         <v>2</v>
@@ -10641,8 +10170,7 @@
         <v>4.5486983737923197</v>
       </c>
       <c r="D473">
-        <f t="shared" si="7"/>
-        <v>4.5486983737923196E-2</v>
+        <v>1</v>
       </c>
       <c r="E473" t="s">
         <v>2</v>
@@ -10662,8 +10190,7 @@
         <v>8.6189263076753093</v>
       </c>
       <c r="D474">
-        <f t="shared" si="7"/>
-        <v>8.6189263076753092E-2</v>
+        <v>1</v>
       </c>
       <c r="E474" t="s">
         <v>2</v>
@@ -10683,8 +10210,7 @@
         <v>4.7750581706840203</v>
       </c>
       <c r="D475">
-        <f t="shared" si="7"/>
-        <v>4.7750581706840205E-2</v>
+        <v>1</v>
       </c>
       <c r="E475" t="s">
         <v>2</v>
@@ -10704,8 +10230,7 @@
         <v>0.17653396226854701</v>
       </c>
       <c r="D476">
-        <f t="shared" si="7"/>
-        <v>1.7653396226854701E-3</v>
+        <v>1</v>
       </c>
       <c r="E476" t="s">
         <v>2</v>
@@ -10725,8 +10250,7 @@
         <v>-0.37800029985149602</v>
       </c>
       <c r="D477">
-        <f t="shared" si="7"/>
-        <v>3.7800029985149601E-3</v>
+        <v>1</v>
       </c>
       <c r="E477" t="s">
         <v>2</v>
@@ -10746,8 +10270,7 @@
         <v>1.26872893148489</v>
       </c>
       <c r="D478">
-        <f t="shared" si="7"/>
-        <v>1.26872893148489E-2</v>
+        <v>1</v>
       </c>
       <c r="E478" t="s">
         <v>2</v>
@@ -10767,8 +10290,7 @@
         <v>1.9712514764269999</v>
       </c>
       <c r="D479">
-        <f t="shared" si="7"/>
-        <v>1.9712514764269998E-2</v>
+        <v>1</v>
       </c>
       <c r="E479" t="s">
         <v>2</v>
@@ -10788,8 +10310,7 @@
         <v>1.9712514764270399</v>
       </c>
       <c r="D480">
-        <f t="shared" si="7"/>
-        <v>1.9712514764270397E-2</v>
+        <v>1</v>
       </c>
       <c r="E480" t="s">
         <v>2</v>
@@ -10809,8 +10330,7 @@
         <v>3.1068487441577899</v>
       </c>
       <c r="D481">
-        <f t="shared" si="7"/>
-        <v>3.1068487441577898E-2</v>
+        <v>1</v>
       </c>
       <c r="E481" t="s">
         <v>2</v>
@@ -10830,8 +10350,7 @@
         <v>0.52651375376004095</v>
       </c>
       <c r="D482">
-        <f t="shared" si="7"/>
-        <v>5.2651375376004091E-3</v>
+        <v>1</v>
       </c>
       <c r="E482" t="s">
         <v>2</v>
@@ -10851,8 +10370,7 @@
         <v>3.1514957463167601</v>
       </c>
       <c r="D483">
-        <f t="shared" si="7"/>
-        <v>3.1514957463167598E-2</v>
+        <v>1</v>
       </c>
       <c r="E483" t="s">
         <v>2</v>
@@ -10872,8 +10390,7 @@
         <v>2.9172354735765902</v>
       </c>
       <c r="D484">
-        <f t="shared" si="7"/>
-        <v>2.9172354735765901E-2</v>
+        <v>1</v>
       </c>
       <c r="E484" t="s">
         <v>2</v>
@@ -10893,8 +10410,7 @@
         <v>1.5279637542462301</v>
       </c>
       <c r="D485">
-        <f t="shared" si="7"/>
-        <v>1.5279637542462301E-2</v>
+        <v>1</v>
       </c>
       <c r="E485" t="s">
         <v>2</v>
@@ -10914,8 +10430,7 @@
         <v>0.91415181213091101</v>
       </c>
       <c r="D486">
-        <f t="shared" si="7"/>
-        <v>9.1415181213091098E-3</v>
+        <v>1</v>
       </c>
       <c r="E486" t="s">
         <v>2</v>
@@ -10935,8 +10450,7 @@
         <v>0.88031586933403705</v>
       </c>
       <c r="D487">
-        <f t="shared" si="7"/>
-        <v>8.8031586933403697E-3</v>
+        <v>1</v>
       </c>
       <c r="E487" t="s">
         <v>2</v>
@@ -10956,8 +10470,7 @@
         <v>0.42883608029190201</v>
       </c>
       <c r="D488">
-        <f t="shared" si="7"/>
-        <v>4.2883608029190201E-3</v>
+        <v>1</v>
       </c>
       <c r="E488" t="s">
         <v>2</v>
@@ -10977,8 +10490,7 @@
         <v>0.90779493851767001</v>
       </c>
       <c r="D489">
-        <f t="shared" si="7"/>
-        <v>9.0779493851766997E-3</v>
+        <v>1</v>
       </c>
       <c r="E489" t="s">
         <v>2</v>
@@ -10998,8 +10510,7 @@
         <v>0.52651375375989995</v>
       </c>
       <c r="D490">
-        <f t="shared" si="7"/>
-        <v>5.2651375375989996E-3</v>
+        <v>1</v>
       </c>
       <c r="E490" t="s">
         <v>2</v>
@@ -11019,8 +10530,7 @@
         <v>0.90779493850867299</v>
       </c>
       <c r="D491">
-        <f t="shared" si="7"/>
-        <v>9.07794938508673E-3</v>
+        <v>1</v>
       </c>
       <c r="E491" t="s">
         <v>2</v>
@@ -11040,8 +10550,7 @@
         <v>131.95181687518399</v>
       </c>
       <c r="D492">
-        <f t="shared" si="7"/>
-        <v>1.31951816875184</v>
+        <v>13.195181687518399</v>
       </c>
       <c r="E492" t="s">
         <v>2</v>
@@ -11061,8 +10570,7 @@
         <v>3.14329104568644</v>
       </c>
       <c r="D493">
-        <f t="shared" si="7"/>
-        <v>3.1432910456864402E-2</v>
+        <v>1</v>
       </c>
       <c r="E493" t="s">
         <v>2</v>
@@ -11082,8 +10590,7 @@
         <v>44.009030786240601</v>
       </c>
       <c r="D494">
-        <f t="shared" si="7"/>
-        <v>0.44009030786240599</v>
+        <v>4.4009030786240597</v>
       </c>
       <c r="E494" t="s">
         <v>2</v>
@@ -11103,8 +10610,7 @@
         <v>1.1279411240012599E-3</v>
       </c>
       <c r="D495">
-        <f t="shared" si="7"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E495" t="s">
         <v>2</v>
@@ -11124,8 +10630,7 @@
         <v>99.905904807839804</v>
       </c>
       <c r="D496">
-        <f t="shared" si="7"/>
-        <v>0.99905904807839807</v>
+        <v>9.9905904807839807</v>
       </c>
       <c r="E496" t="s">
         <v>2</v>
@@ -11145,8 +10650,7 @@
         <v>70.984135888479898</v>
       </c>
       <c r="D497">
-        <f t="shared" si="7"/>
-        <v>0.70984135888479893</v>
+        <v>7.0984135888479898</v>
       </c>
       <c r="E497" t="s">
         <v>2</v>
@@ -11166,8 +10670,7 @@
         <v>143.43669872954899</v>
       </c>
       <c r="D498">
-        <f t="shared" si="7"/>
-        <v>1.4343669872954898</v>
+        <v>14.3436698729549</v>
       </c>
       <c r="E498" t="s">
         <v>2</v>
@@ -11187,8 +10690,7 @@
         <v>135.09510792087201</v>
       </c>
       <c r="D499">
-        <f t="shared" si="7"/>
-        <v>1.35095107920872</v>
+        <v>13.509510792087202</v>
       </c>
       <c r="E499" t="s">
         <v>2</v>
@@ -11208,8 +10710,7 @@
         <v>54.093846993909402</v>
       </c>
       <c r="D500">
-        <f t="shared" si="7"/>
-        <v>0.540938469939094</v>
+        <v>5.40938469939094</v>
       </c>
       <c r="E500" t="s">
         <v>2</v>
@@ -11229,8 +10730,7 @@
         <v>1.26872893148489</v>
       </c>
       <c r="D501">
-        <f t="shared" si="7"/>
-        <v>1.26872893148489E-2</v>
+        <v>1</v>
       </c>
       <c r="E501" t="s">
         <v>2</v>
@@ -11250,8 +10750,7 @@
         <v>-99.905904807839804</v>
       </c>
       <c r="D502">
-        <f t="shared" si="7"/>
-        <v>0.99905904807839807</v>
+        <v>9.9905904807839807</v>
       </c>
       <c r="E502" t="s">
         <v>2</v>
@@ -11271,8 +10770,7 @@
         <v>-135.09510792087201</v>
       </c>
       <c r="D503">
-        <f t="shared" si="7"/>
-        <v>1.35095107920872</v>
+        <v>13.509510792087202</v>
       </c>
       <c r="E503" t="s">
         <v>2</v>
@@ -11292,8 +10790,7 @@
         <v>-1.26872893148488</v>
       </c>
       <c r="D504">
-        <f t="shared" si="7"/>
-        <v>1.2687289314848799E-2</v>
+        <v>1</v>
       </c>
       <c r="E504" t="s">
         <v>2</v>
@@ -11313,8 +10810,7 @@
         <v>-54.093846993909402</v>
       </c>
       <c r="D505">
-        <f t="shared" si="7"/>
-        <v>0.540938469939094</v>
+        <v>5.40938469939094</v>
       </c>
       <c r="E505" t="s">
         <v>2</v>
@@ -11334,8 +10830,7 @@
         <v>143.43669872954899</v>
       </c>
       <c r="D506">
-        <f t="shared" si="7"/>
-        <v>1.4343669872954898</v>
+        <v>14.3436698729549</v>
       </c>
       <c r="E506" t="s">
         <v>2</v>
@@ -11355,8 +10850,7 @@
         <v>70.984135888479898</v>
       </c>
       <c r="D507">
-        <f t="shared" si="7"/>
-        <v>0.70984135888479893</v>
+        <v>7.0984135888479898</v>
       </c>
       <c r="E507" t="s">
         <v>2</v>
@@ -11376,8 +10870,7 @@
         <v>5.8522795538271097</v>
       </c>
       <c r="D508">
-        <f t="shared" si="7"/>
-        <v>5.8522795538271097E-2</v>
+        <v>1</v>
       </c>
       <c r="E508" t="s">
         <v>2</v>
@@ -11397,8 +10890,7 @@
         <v>0.74392662711593105</v>
       </c>
       <c r="D509">
-        <f t="shared" si="7"/>
-        <v>7.4392662711593102E-3</v>
+        <v>1</v>
       </c>
       <c r="E509" t="s">
         <v>2</v>
@@ -11418,8 +10910,7 @@
         <v>229.87437147043201</v>
       </c>
       <c r="D510">
-        <f t="shared" si="7"/>
-        <v>2.2987437147043202</v>
+        <v>22.987437147043202</v>
       </c>
       <c r="E510" t="s">
         <v>2</v>
@@ -11439,8 +10930,7 @@
         <v>0.58126035483043603</v>
       </c>
       <c r="D511">
-        <f t="shared" si="7"/>
-        <v>5.8126035483043606E-3</v>
+        <v>1</v>
       </c>
       <c r="E511" t="s">
         <v>2</v>
@@ -11460,8 +10950,7 @@
         <v>4.3200570911865404</v>
       </c>
       <c r="D512">
-        <f t="shared" si="7"/>
-        <v>4.3200570911865403E-2</v>
+        <v>1</v>
       </c>
       <c r="E512" t="s">
         <v>2</v>
@@ -11481,8 +10970,7 @@
         <v>-14.912758147837501</v>
       </c>
       <c r="D513">
-        <f t="shared" si="7"/>
-        <v>0.14912758147837502</v>
+        <v>1.4912758147837502</v>
       </c>
       <c r="E513" t="s">
         <v>2</v>
@@ -11502,8 +10990,7 @@
         <v>0.29683378950539402</v>
       </c>
       <c r="D514">
-        <f t="shared" si="7"/>
-        <v>2.9683378950539404E-3</v>
+        <v>1</v>
       </c>
       <c r="E514" t="s">
         <v>2</v>
@@ -11523,8 +11010,7 @@
         <v>0.60946255075115896</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" si="8">MAX(0.001,ABS(C515/100))</f>
-        <v>6.0946255075115894E-3</v>
+        <v>1</v>
       </c>
       <c r="E515" t="s">
         <v>2</v>
@@ -11544,8 +11030,7 @@
         <v>34.360657599519698</v>
       </c>
       <c r="D516">
-        <f t="shared" si="8"/>
-        <v>0.34360657599519695</v>
+        <v>3.4360657599519699</v>
       </c>
       <c r="E516" t="s">
         <v>2</v>
@@ -11565,8 +11050,7 @@
         <v>7.5937557266980003</v>
       </c>
       <c r="D517">
-        <f t="shared" si="8"/>
-        <v>7.5937557266979996E-2</v>
+        <v>1</v>
       </c>
       <c r="E517" t="s">
         <v>2</v>
@@ -11586,8 +11070,7 @@
         <v>12.452664718162501</v>
       </c>
       <c r="D518">
-        <f t="shared" si="8"/>
-        <v>0.12452664718162501</v>
+        <v>1.2452664718162501</v>
       </c>
       <c r="E518" t="s">
         <v>2</v>
@@ -11607,8 +11090,7 @@
         <v>2.25097142694481</v>
       </c>
       <c r="D519">
-        <f t="shared" si="8"/>
-        <v>2.2509714269448099E-2</v>
+        <v>1</v>
       </c>
       <c r="E519" t="s">
         <v>2</v>
@@ -11628,8 +11110,7 @@
         <v>0.31946821072958498</v>
       </c>
       <c r="D520">
-        <f t="shared" si="8"/>
-        <v>3.1946821072958496E-3</v>
+        <v>1</v>
       </c>
       <c r="E520" t="s">
         <v>2</v>
@@ -11649,8 +11130,7 @@
         <v>1.97854744011084</v>
       </c>
       <c r="D521">
-        <f t="shared" si="8"/>
-        <v>1.9785474401108401E-2</v>
+        <v>1</v>
       </c>
       <c r="E521" t="s">
         <v>2</v>
@@ -11670,8 +11150,7 @@
         <v>2.61760049102545</v>
       </c>
       <c r="D522">
-        <f t="shared" si="8"/>
-        <v>2.6176004910254499E-2</v>
+        <v>1</v>
       </c>
       <c r="E522" t="s">
         <v>2</v>
@@ -11691,8 +11170,7 @@
         <v>1.2907405032850301</v>
       </c>
       <c r="D523">
-        <f t="shared" si="8"/>
-        <v>1.2907405032850301E-2</v>
+        <v>1</v>
       </c>
       <c r="E523" t="s">
         <v>2</v>
@@ -11712,8 +11190,7 @@
         <v>1.96339326577943</v>
       </c>
       <c r="D524">
-        <f t="shared" si="8"/>
-        <v>1.9633932657794298E-2</v>
+        <v>1</v>
       </c>
       <c r="E524" t="s">
         <v>2</v>
@@ -11733,8 +11210,7 @@
         <v>2.0868125846982499</v>
       </c>
       <c r="D525">
-        <f t="shared" si="8"/>
-        <v>2.0868125846982499E-2</v>
+        <v>1</v>
       </c>
       <c r="E525" t="s">
         <v>2</v>
@@ -11754,8 +11230,7 @@
         <v>2.1114261252514002</v>
       </c>
       <c r="D526">
-        <f t="shared" si="8"/>
-        <v>2.1114261252514002E-2</v>
+        <v>1</v>
       </c>
       <c r="E526" t="s">
         <v>2</v>
@@ -11775,8 +11250,7 @@
         <v>4.5486983737922397</v>
       </c>
       <c r="D527">
-        <f t="shared" si="8"/>
-        <v>4.5486983737922398E-2</v>
+        <v>1</v>
       </c>
       <c r="E527" t="s">
         <v>2</v>
@@ -11796,8 +11270,7 @@
         <v>2.1463031252146099</v>
       </c>
       <c r="D528">
-        <f t="shared" si="8"/>
-        <v>2.14630312521461E-2</v>
+        <v>1</v>
       </c>
       <c r="E528" t="s">
         <v>2</v>
@@ -11817,8 +11290,7 @@
         <v>4.22052390856412</v>
       </c>
       <c r="D529">
-        <f t="shared" si="8"/>
-        <v>4.2205239085641201E-2</v>
+        <v>1</v>
       </c>
       <c r="E529" t="s">
         <v>2</v>
@@ -11838,8 +11310,7 @@
         <v>3.5172834406837601</v>
       </c>
       <c r="D530">
-        <f t="shared" si="8"/>
-        <v>3.5172834406837598E-2</v>
+        <v>1</v>
       </c>
       <c r="E530" t="s">
         <v>2</v>
@@ -11859,8 +11330,7 @@
         <v>1.9568852897632301</v>
       </c>
       <c r="D531">
-        <f t="shared" si="8"/>
-        <v>1.95688528976323E-2</v>
+        <v>1</v>
       </c>
       <c r="E531" t="s">
         <v>2</v>
@@ -11880,8 +11350,7 @@
         <v>0.74221517772498402</v>
       </c>
       <c r="D532">
-        <f t="shared" si="8"/>
-        <v>7.4221517772498401E-3</v>
+        <v>1</v>
       </c>
       <c r="E532" t="s">
         <v>2</v>
@@ -11901,8 +11370,7 @@
         <v>1.9712514764270599</v>
       </c>
       <c r="D533">
-        <f t="shared" si="8"/>
-        <v>1.9712514764270599E-2</v>
+        <v>1</v>
       </c>
       <c r="E533" t="s">
         <v>2</v>
@@ -11922,8 +11390,7 @@
         <v>0.52651375375988096</v>
       </c>
       <c r="D534">
-        <f t="shared" si="8"/>
-        <v>5.2651375375988097E-3</v>
+        <v>1</v>
       </c>
       <c r="E534" t="s">
         <v>2</v>
@@ -11943,8 +11410,7 @@
         <v>3.15149574631667</v>
       </c>
       <c r="D535">
-        <f t="shared" si="8"/>
-        <v>3.1514957463166703E-2</v>
+        <v>1</v>
       </c>
       <c r="E535" t="s">
         <v>2</v>
@@ -11964,8 +11430,7 @@
         <v>2.9172354735765902</v>
       </c>
       <c r="D536">
-        <f t="shared" si="8"/>
-        <v>2.9172354735765901E-2</v>
+        <v>1</v>
       </c>
       <c r="E536" t="s">
         <v>2</v>
@@ -11985,8 +11450,7 @@
         <v>1.52796375424604</v>
       </c>
       <c r="D537">
-        <f t="shared" si="8"/>
-        <v>1.52796375424604E-2</v>
+        <v>1</v>
       </c>
       <c r="E537" t="s">
         <v>2</v>
@@ -12006,8 +11470,7 @@
         <v>0.914151812130926</v>
       </c>
       <c r="D538">
-        <f t="shared" si="8"/>
-        <v>9.1415181213092608E-3</v>
+        <v>1</v>
       </c>
       <c r="E538" t="s">
         <v>2</v>
@@ -12027,8 +11490,7 @@
         <v>0.88031586933404404</v>
       </c>
       <c r="D539">
-        <f t="shared" si="8"/>
-        <v>8.8031586933404408E-3</v>
+        <v>1</v>
       </c>
       <c r="E539" t="s">
         <v>2</v>
@@ -12048,8 +11510,7 @@
         <v>0.42883608029178599</v>
       </c>
       <c r="D540">
-        <f t="shared" si="8"/>
-        <v>4.2883608029178595E-3</v>
+        <v>1</v>
       </c>
       <c r="E540" t="s">
         <v>2</v>
@@ -12069,8 +11530,7 @@
         <v>0.90779493850249804</v>
       </c>
       <c r="D541">
-        <f t="shared" si="8"/>
-        <v>9.0779493850249807E-3</v>
+        <v>1</v>
       </c>
       <c r="E541" t="s">
         <v>2</v>
@@ -12090,8 +11550,7 @@
         <v>55.827732521242098</v>
       </c>
       <c r="D542">
-        <f t="shared" si="8"/>
-        <v>0.55827732521242102</v>
+        <v>5.5827732521242099</v>
       </c>
       <c r="E542" t="s">
         <v>2</v>
@@ -12111,8 +11570,7 @@
         <v>71.431081348876603</v>
       </c>
       <c r="D543">
-        <f t="shared" si="8"/>
-        <v>0.71431081348876602</v>
+        <v>7.1431081348876599</v>
       </c>
       <c r="E543" t="s">
         <v>2</v>
@@ -12132,8 +11590,7 @@
         <v>0</v>
       </c>
       <c r="D544">
-        <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E544" t="s">
         <v>2</v>
@@ -12153,8 +11610,7 @@
         <v>71.431081348876603</v>
       </c>
       <c r="D545">
-        <f t="shared" si="8"/>
-        <v>0.71431081348876602</v>
+        <v>7.1431081348876599</v>
       </c>
       <c r="E545" t="s">
         <v>2</v>
@@ -12174,8 +11630,7 @@
         <v>71.431081348876603</v>
       </c>
       <c r="D546">
-        <f t="shared" si="8"/>
-        <v>0.71431081348876602</v>
+        <v>7.1431081348876599</v>
       </c>
       <c r="E546" t="s">
         <v>2</v>
@@ -12195,8 +11650,7 @@
         <v>145.62314793539599</v>
       </c>
       <c r="D547">
-        <f t="shared" si="8"/>
-        <v>1.4562314793539599</v>
+        <v>14.562314793539599</v>
       </c>
       <c r="E547" t="s">
         <v>2</v>
@@ -12216,8 +11670,7 @@
         <v>134.36050400926601</v>
       </c>
       <c r="D548">
-        <f t="shared" si="8"/>
-        <v>1.34360504009266</v>
+        <v>13.4360504009266</v>
       </c>
       <c r="E548" t="s">
         <v>2</v>
@@ -12237,8 +11690,7 @@
         <v>109.829136262986</v>
       </c>
       <c r="D549">
-        <f t="shared" si="8"/>
-        <v>1.09829136262986</v>
+        <v>10.9829136262986</v>
       </c>
       <c r="E549" t="s">
         <v>2</v>
@@ -12258,8 +11710,7 @@
         <v>29.214364134951499</v>
       </c>
       <c r="D550">
-        <f t="shared" si="8"/>
-        <v>0.29214364134951498</v>
+        <v>2.92143641349515</v>
       </c>
       <c r="E550" t="s">
         <v>2</v>
@@ -12279,8 +11730,7 @@
         <v>31.547629112617098</v>
       </c>
       <c r="D551">
-        <f t="shared" si="8"/>
-        <v>0.31547629112617098</v>
+        <v>3.1547629112617099</v>
       </c>
       <c r="E551" t="s">
         <v>2</v>
@@ -12300,8 +11750,7 @@
         <v>15.631774629031799</v>
       </c>
       <c r="D552">
-        <f t="shared" si="8"/>
-        <v>0.156317746290318</v>
+        <v>1.5631774629031798</v>
       </c>
       <c r="E552" t="s">
         <v>2</v>
@@ -12321,8 +11770,7 @@
         <v>15.915854483585401</v>
       </c>
       <c r="D553">
-        <f t="shared" si="8"/>
-        <v>0.15915854483585401</v>
+        <v>1.5915854483585401</v>
       </c>
       <c r="E553" t="s">
         <v>2</v>
@@ -12342,8 +11790,7 @@
         <v>9.5958479014519806</v>
       </c>
       <c r="D554">
-        <f t="shared" si="8"/>
-        <v>9.5958479014519801E-2</v>
+        <v>1</v>
       </c>
       <c r="E554" t="s">
         <v>2</v>
@@ -12363,8 +11810,7 @@
         <v>9.5958479014519806</v>
       </c>
       <c r="D555">
-        <f t="shared" si="8"/>
-        <v>9.5958479014519801E-2</v>
+        <v>1</v>
       </c>
       <c r="E555" t="s">
         <v>2</v>
@@ -12384,8 +11830,7 @@
         <v>6.0359267275797501</v>
       </c>
       <c r="D556">
-        <f t="shared" si="8"/>
-        <v>6.0359267275797504E-2</v>
+        <v>1</v>
       </c>
       <c r="E556" t="s">
         <v>2</v>
@@ -12405,8 +11850,7 @@
         <v>-2.33326497766561</v>
       </c>
       <c r="D557">
-        <f t="shared" si="8"/>
-        <v>2.3332649776656101E-2</v>
+        <v>1</v>
       </c>
       <c r="E557" t="s">
         <v>2</v>
@@ -12426,8 +11870,7 @@
         <v>-2.33326497766561</v>
       </c>
       <c r="D558">
-        <f t="shared" si="8"/>
-        <v>2.3332649776656101E-2</v>
+        <v>1</v>
       </c>
       <c r="E558" t="s">
         <v>2</v>
@@ -12447,8 +11890,7 @@
         <v>76.509533165712597</v>
       </c>
       <c r="D559">
-        <f t="shared" si="8"/>
-        <v>0.76509533165712595</v>
+        <v>7.6509533165712593</v>
       </c>
       <c r="E559" t="s">
         <v>2</v>
@@ -12468,8 +11910,7 @@
         <v>10.422638745173099</v>
       </c>
       <c r="D560">
-        <f t="shared" si="8"/>
-        <v>0.10422638745173099</v>
+        <v>1.0422638745173098</v>
       </c>
       <c r="E560" t="s">
         <v>2</v>
@@ -12489,8 +11930,7 @@
         <v>10.422638745173099</v>
       </c>
       <c r="D561">
-        <f t="shared" si="8"/>
-        <v>0.10422638745173099</v>
+        <v>1.0422638745173098</v>
       </c>
       <c r="E561" t="s">
         <v>2</v>
@@ -12510,8 +11950,7 @@
         <v>9.20270618080181</v>
       </c>
       <c r="D562">
-        <f t="shared" si="8"/>
-        <v>9.2027061808018104E-2</v>
+        <v>1</v>
       </c>
       <c r="E562" t="s">
         <v>2</v>
@@ -12531,8 +11970,7 @@
         <v>-0.71238046942846001</v>
       </c>
       <c r="D563">
-        <f t="shared" si="8"/>
-        <v>7.1238046942846004E-3</v>
+        <v>1</v>
       </c>
       <c r="E563" t="s">
         <v>2</v>
@@ -12552,8 +11990,7 @@
         <v>-4.8712033980845</v>
       </c>
       <c r="D564">
-        <f t="shared" si="8"/>
-        <v>4.8712033980844997E-2</v>
+        <v>1</v>
       </c>
       <c r="E564" t="s">
         <v>2</v>
@@ -12573,8 +12010,7 @@
         <v>0.507552094942881</v>
       </c>
       <c r="D565">
-        <f t="shared" si="8"/>
-        <v>5.0755209494288099E-3</v>
+        <v>1</v>
       </c>
       <c r="E565" t="s">
         <v>2</v>
@@ -12594,8 +12030,7 @@
         <v>2.9353947889937602</v>
       </c>
       <c r="D566">
-        <f t="shared" si="8"/>
-        <v>2.9353947889937601E-2</v>
+        <v>1</v>
       </c>
       <c r="E566" t="s">
         <v>2</v>
@@ -12615,8 +12050,7 @@
         <v>9.64055582621938</v>
       </c>
       <c r="D567">
-        <f t="shared" si="8"/>
-        <v>9.6405558262193797E-2</v>
+        <v>1</v>
       </c>
       <c r="E567" t="s">
         <v>2</v>
@@ -12636,8 +12070,7 @@
         <v>1.2199325643712999</v>
       </c>
       <c r="D568">
-        <f t="shared" si="8"/>
-        <v>1.2199325643713E-2</v>
+        <v>1</v>
       </c>
       <c r="E568" t="s">
         <v>2</v>
@@ -12657,8 +12090,7 @@
         <v>1.2199325643713099</v>
       </c>
       <c r="D569">
-        <f t="shared" si="8"/>
-        <v>1.2199325643713099E-2</v>
+        <v>1</v>
       </c>
       <c r="E569" t="s">
         <v>2</v>
@@ -12678,8 +12110,7 @@
         <v>-0.98794799041955805</v>
       </c>
       <c r="D570">
-        <f t="shared" si="8"/>
-        <v>9.8794799041955813E-3</v>
+        <v>1</v>
       </c>
       <c r="E570" t="s">
         <v>2</v>
@@ -12699,8 +12130,7 @@
         <v>-4.4972804824347499</v>
       </c>
       <c r="D571">
-        <f t="shared" si="8"/>
-        <v>4.4972804824347498E-2</v>
+        <v>1</v>
       </c>
       <c r="E571" t="s">
         <v>2</v>
@@ -12720,8 +12150,7 @@
         <v>16.536753038936698</v>
       </c>
       <c r="D572">
-        <f t="shared" si="8"/>
-        <v>0.165367530389367</v>
+        <v>1.6536753038936698</v>
       </c>
       <c r="E572" t="s">
         <v>2</v>
@@ -12741,8 +12170,7 @@
         <v>-0.19863689278786301</v>
       </c>
       <c r="D573">
-        <f t="shared" si="8"/>
-        <v>1.9863689278786299E-3</v>
+        <v>1</v>
       </c>
       <c r="E573" t="s">
         <v>2</v>
@@ -12762,8 +12190,7 @@
         <v>41.082910344750402</v>
       </c>
       <c r="D574">
-        <f t="shared" si="8"/>
-        <v>0.41082910344750401</v>
+        <v>4.1082910344750401</v>
       </c>
       <c r="E574" t="s">
         <v>2</v>
@@ -12783,8 +12210,7 @@
         <v>53.0626483974225</v>
       </c>
       <c r="D575">
-        <f t="shared" si="8"/>
-        <v>0.53062648397422496</v>
+        <v>5.3062648397422496</v>
       </c>
       <c r="E575" t="s">
         <v>2</v>
@@ -12804,8 +12230,7 @@
         <v>4.9459924423237904</v>
       </c>
       <c r="D576">
-        <f t="shared" si="8"/>
-        <v>4.9459924423237905E-2</v>
+        <v>1</v>
       </c>
       <c r="E576" t="s">
         <v>2</v>
@@ -12825,8 +12250,7 @@
         <v>2.7391039921181202</v>
       </c>
       <c r="D577">
-        <f t="shared" si="8"/>
-        <v>2.7391039921181203E-2</v>
+        <v>1</v>
       </c>
       <c r="E577" t="s">
         <v>2</v>
@@ -12846,8 +12270,7 @@
         <v>2.4248804074622101</v>
       </c>
       <c r="D578">
-        <f t="shared" si="8"/>
-        <v>2.4248804074622102E-2</v>
+        <v>1</v>
       </c>
       <c r="E578" t="s">
         <v>2</v>
@@ -12867,8 +12290,7 @@
         <v>13.7935435707131</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D642" si="9">MAX(0.001,ABS(C579/100))</f>
-        <v>0.13793543570713099</v>
+        <v>1.37935435707131</v>
       </c>
       <c r="E579" t="s">
         <v>2</v>
@@ -12888,8 +12310,7 @@
         <v>1.3821192404070499</v>
       </c>
       <c r="D580">
-        <f t="shared" si="9"/>
-        <v>1.3821192404070499E-2</v>
+        <v>1</v>
       </c>
       <c r="E580" t="s">
         <v>2</v>
@@ -12909,8 +12330,7 @@
         <v>4.9128308183698097</v>
       </c>
       <c r="D581">
-        <f t="shared" si="9"/>
-        <v>4.9128308183698094E-2</v>
+        <v>1</v>
       </c>
       <c r="E581" t="s">
         <v>2</v>
@@ -12930,8 +12350,7 @@
         <v>5.61688978891112</v>
       </c>
       <c r="D582">
-        <f t="shared" si="9"/>
-        <v>5.6168897889111197E-2</v>
+        <v>1</v>
       </c>
       <c r="E582" t="s">
         <v>2</v>
@@ -12951,8 +12370,7 @@
         <v>2.4835367488696201</v>
       </c>
       <c r="D583">
-        <f t="shared" si="9"/>
-        <v>2.4835367488696202E-2</v>
+        <v>1</v>
       </c>
       <c r="E583" t="s">
         <v>2</v>
@@ -12972,8 +12390,7 @@
         <v>0.231541997007774</v>
       </c>
       <c r="D584">
-        <f t="shared" si="9"/>
-        <v>2.3154199700777399E-3</v>
+        <v>1</v>
       </c>
       <c r="E584" t="s">
         <v>2</v>
@@ -12993,8 +12410,7 @@
         <v>-0.59506816332225598</v>
       </c>
       <c r="D585">
-        <f t="shared" si="9"/>
-        <v>5.9506816332225597E-3</v>
+        <v>1</v>
       </c>
       <c r="E585" t="s">
         <v>2</v>
@@ -13014,8 +12430,7 @@
         <v>2.7102052824718501</v>
       </c>
       <c r="D586">
-        <f t="shared" si="9"/>
-        <v>2.71020528247185E-2</v>
+        <v>1</v>
       </c>
       <c r="E586" t="s">
         <v>2</v>
@@ -13035,8 +12450,7 @@
         <v>2.6411603900217102</v>
       </c>
       <c r="D587">
-        <f t="shared" si="9"/>
-        <v>2.6411603900217101E-2</v>
+        <v>1</v>
       </c>
       <c r="E587" t="s">
         <v>2</v>
@@ -13056,8 +12470,7 @@
         <v>2.6411603900217102</v>
       </c>
       <c r="D588">
-        <f t="shared" si="9"/>
-        <v>2.6411603900217101E-2</v>
+        <v>1</v>
       </c>
       <c r="E588" t="s">
         <v>2</v>
@@ -13077,8 +12490,7 @@
         <v>4.9906378292057099</v>
       </c>
       <c r="D589">
-        <f t="shared" si="9"/>
-        <v>4.9906378292057102E-2</v>
+        <v>1</v>
       </c>
       <c r="E589" t="s">
         <v>2</v>
@@ -13098,8 +12510,7 @@
         <v>1.51766253863395</v>
       </c>
       <c r="D590">
-        <f t="shared" si="9"/>
-        <v>1.5176625386339499E-2</v>
+        <v>1</v>
       </c>
       <c r="E590" t="s">
         <v>2</v>
@@ -13119,8 +12530,7 @@
         <v>4.8278336656525198</v>
       </c>
       <c r="D591">
-        <f t="shared" si="9"/>
-        <v>4.82783366565252E-2</v>
+        <v>1</v>
       </c>
       <c r="E591" t="s">
         <v>2</v>
@@ -13140,8 +12550,7 @@
         <v>2.8602136347061902</v>
       </c>
       <c r="D592">
-        <f t="shared" si="9"/>
-        <v>2.86021363470619E-2</v>
+        <v>1</v>
       </c>
       <c r="E592" t="s">
         <v>2</v>
@@ -13161,8 +12570,7 @@
         <v>3.2443554001505999</v>
       </c>
       <c r="D593">
-        <f t="shared" si="9"/>
-        <v>3.2443554001505996E-2</v>
+        <v>1</v>
       </c>
       <c r="E593" t="s">
         <v>2</v>
@@ -13182,8 +12590,7 @@
         <v>2.4254810954910102</v>
       </c>
       <c r="D594">
-        <f t="shared" si="9"/>
-        <v>2.4254810954910101E-2</v>
+        <v>1</v>
       </c>
       <c r="E594" t="s">
         <v>2</v>
@@ -13203,8 +12610,7 @@
         <v>1.0554340877831301</v>
       </c>
       <c r="D595">
-        <f t="shared" si="9"/>
-        <v>1.0554340877831301E-2</v>
+        <v>1</v>
       </c>
       <c r="E595" t="s">
         <v>2</v>
@@ -13224,8 +12630,7 @@
         <v>7.9005990598045306E-2</v>
       </c>
       <c r="D596">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E596" t="s">
         <v>2</v>
@@ -13245,8 +12650,7 @@
         <v>2.9622865887142702E-3</v>
       </c>
       <c r="D597">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E597" t="s">
         <v>2</v>
@@ -13266,8 +12670,7 @@
         <v>1.5176625386343101</v>
       </c>
       <c r="D598">
-        <f t="shared" si="9"/>
-        <v>1.5176625386343101E-2</v>
+        <v>1</v>
       </c>
       <c r="E598" t="s">
         <v>2</v>
@@ -13287,8 +12690,7 @@
         <v>2.9622865887066799E-3</v>
       </c>
       <c r="D599">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E599" t="s">
         <v>2</v>
@@ -13308,8 +12710,7 @@
         <v>57.017297396617003</v>
       </c>
       <c r="D600">
-        <f t="shared" si="9"/>
-        <v>0.57017297396617006</v>
+        <v>5.7017297396617002</v>
       </c>
       <c r="E600" t="s">
         <v>2</v>
@@ -13329,8 +12730,7 @@
         <v>0.253776047471447</v>
       </c>
       <c r="D601">
-        <f t="shared" si="9"/>
-        <v>2.53776047471447E-3</v>
+        <v>1</v>
       </c>
       <c r="E601" t="s">
         <v>2</v>
@@ -13350,8 +12750,7 @@
         <v>84.170904594065206</v>
       </c>
       <c r="D602">
-        <f t="shared" si="9"/>
-        <v>0.8417090459406521</v>
+        <v>8.4170904594065199</v>
       </c>
       <c r="E602" t="s">
         <v>2</v>
@@ -13371,8 +12770,7 @@
         <v>2.0491505785323501E-3</v>
       </c>
       <c r="D603">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E603" t="s">
         <v>2</v>
@@ -13392,8 +12790,7 @@
         <v>94.351471449139098</v>
       </c>
       <c r="D604">
-        <f t="shared" si="9"/>
-        <v>0.94351471449139102</v>
+        <v>9.435147144913909</v>
       </c>
       <c r="E604" t="s">
         <v>2</v>
@@ -13413,8 +12810,7 @@
         <v>46.217996034684496</v>
       </c>
       <c r="D605">
-        <f t="shared" si="9"/>
-        <v>0.46217996034684494</v>
+        <v>4.6217996034684496</v>
       </c>
       <c r="E605" t="s">
         <v>2</v>
@@ -13434,8 +12830,7 @@
         <v>112.12722907377901</v>
       </c>
       <c r="D606">
-        <f t="shared" si="9"/>
-        <v>1.1212722907377901</v>
+        <v>11.2127229073779</v>
       </c>
       <c r="E606" t="s">
         <v>2</v>
@@ -13455,8 +12850,7 @@
         <v>57.271073444088501</v>
       </c>
       <c r="D607">
-        <f t="shared" si="9"/>
-        <v>0.57271073444088505</v>
+        <v>5.7271073444088501</v>
       </c>
       <c r="E607" t="s">
         <v>2</v>
@@ -13476,8 +12870,7 @@
         <v>54.397200144360802</v>
       </c>
       <c r="D608">
-        <f t="shared" si="9"/>
-        <v>0.54397200144360802</v>
+        <v>5.4397200144360802</v>
       </c>
       <c r="E608" t="s">
         <v>2</v>
@@ -13497,8 +12890,7 @@
         <v>2.71020528247193</v>
       </c>
       <c r="D609">
-        <f t="shared" si="9"/>
-        <v>2.7102052824719301E-2</v>
+        <v>1</v>
       </c>
       <c r="E609" t="s">
         <v>2</v>
@@ -13518,8 +12910,7 @@
         <v>-94.351471449138998</v>
       </c>
       <c r="D610">
-        <f t="shared" si="9"/>
-        <v>0.94351471449139002</v>
+        <v>9.4351471449139002</v>
       </c>
       <c r="E610" t="s">
         <v>2</v>
@@ -13539,8 +12930,7 @@
         <v>-57.271073444088401</v>
       </c>
       <c r="D611">
-        <f t="shared" si="9"/>
-        <v>0.57271073444088405</v>
+        <v>5.7271073444088403</v>
       </c>
       <c r="E611" t="s">
         <v>2</v>
@@ -13560,8 +12950,7 @@
         <v>-2.7102052824718998</v>
       </c>
       <c r="D612">
-        <f t="shared" si="9"/>
-        <v>2.7102052824718999E-2</v>
+        <v>1</v>
       </c>
       <c r="E612" t="s">
         <v>2</v>
@@ -13581,8 +12970,7 @@
         <v>-54.397200144360802</v>
       </c>
       <c r="D613">
-        <f t="shared" si="9"/>
-        <v>0.54397200144360802</v>
+        <v>5.4397200144360802</v>
       </c>
       <c r="E613" t="s">
         <v>2</v>
@@ -13602,8 +12990,7 @@
         <v>112.12722907377901</v>
       </c>
       <c r="D614">
-        <f t="shared" si="9"/>
-        <v>1.1212722907377901</v>
+        <v>11.2127229073779</v>
       </c>
       <c r="E614" t="s">
         <v>2</v>
@@ -13623,8 +13010,7 @@
         <v>46.217996034684496</v>
       </c>
       <c r="D615">
-        <f t="shared" si="9"/>
-        <v>0.46217996034684494</v>
+        <v>4.6217996034684496</v>
       </c>
       <c r="E615" t="s">
         <v>2</v>
@@ -13644,8 +13030,7 @@
         <v>9.3093747929454391</v>
       </c>
       <c r="D616">
-        <f t="shared" si="9"/>
-        <v>9.3093747929454393E-2</v>
+        <v>1</v>
       </c>
       <c r="E616" t="s">
         <v>2</v>
@@ -13665,8 +13050,7 @@
         <v>2.8425801397243201E-2</v>
       </c>
       <c r="D617">
-        <f t="shared" si="9"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E617" t="s">
         <v>2</v>
@@ -13686,8 +13070,7 @@
         <v>420.61971868376702</v>
       </c>
       <c r="D618">
-        <f t="shared" si="9"/>
-        <v>4.2061971868376702</v>
+        <v>42.061971868376702</v>
       </c>
       <c r="E618" t="s">
         <v>2</v>
@@ -13707,8 +13090,7 @@
         <v>1.02068250286944</v>
       </c>
       <c r="D619">
-        <f t="shared" si="9"/>
-        <v>1.02068250286944E-2</v>
+        <v>1</v>
       </c>
       <c r="E619" t="s">
         <v>2</v>
@@ -13728,8 +13110,7 @@
         <v>5.64575413721884</v>
       </c>
       <c r="D620">
-        <f t="shared" si="9"/>
-        <v>5.6457541372188398E-2</v>
+        <v>1</v>
       </c>
       <c r="E620" t="s">
         <v>2</v>
@@ -13749,8 +13130,7 @@
         <v>36.015349967794499</v>
       </c>
       <c r="D621">
-        <f t="shared" si="9"/>
-        <v>0.36015349967794497</v>
+        <v>3.6015349967794501</v>
       </c>
       <c r="E621" t="s">
         <v>2</v>
@@ -13770,8 +13150,7 @@
         <v>0.67613546681113101</v>
       </c>
       <c r="D622">
-        <f t="shared" si="9"/>
-        <v>6.76135466811131E-3</v>
+        <v>1</v>
       </c>
       <c r="E622" t="s">
         <v>2</v>
@@ -13791,8 +13170,7 @@
         <v>0.923336966726368</v>
       </c>
       <c r="D623">
-        <f t="shared" si="9"/>
-        <v>9.23336966726368E-3</v>
+        <v>1</v>
       </c>
       <c r="E623" t="s">
         <v>2</v>
@@ -13812,8 +13190,7 @@
         <v>48.552815009491297</v>
       </c>
       <c r="D624">
-        <f t="shared" si="9"/>
-        <v>0.48552815009491296</v>
+        <v>4.8552815009491299</v>
       </c>
       <c r="E624" t="s">
         <v>2</v>
@@ -13833,8 +13210,7 @@
         <v>6.2380383049466497</v>
       </c>
       <c r="D625">
-        <f t="shared" si="9"/>
-        <v>6.2380383049466498E-2</v>
+        <v>1</v>
       </c>
       <c r="E625" t="s">
         <v>2</v>
@@ -13854,8 +13230,7 @@
         <v>15.1936840234551</v>
       </c>
       <c r="D626">
-        <f t="shared" si="9"/>
-        <v>0.15193684023455101</v>
+        <v>1.5193684023455101</v>
       </c>
       <c r="E626" t="s">
         <v>2</v>
@@ -13875,8 +13250,7 @@
         <v>2.1597634420577698</v>
       </c>
       <c r="D627">
-        <f t="shared" si="9"/>
-        <v>2.1597634420577699E-2</v>
+        <v>1</v>
       </c>
       <c r="E627" t="s">
         <v>2</v>
@@ -13896,8 +13270,7 @@
         <v>0.65802339865774595</v>
       </c>
       <c r="D628">
-        <f t="shared" si="9"/>
-        <v>6.5802339865774599E-3</v>
+        <v>1</v>
       </c>
       <c r="E628" t="s">
         <v>2</v>
@@ -13917,8 +13290,7 @@
         <v>1.6539350943173099</v>
       </c>
       <c r="D629">
-        <f t="shared" si="9"/>
-        <v>1.65393509431731E-2</v>
+        <v>1</v>
       </c>
       <c r="E629" t="s">
         <v>2</v>
@@ -13938,8 +13310,7 @@
         <v>2.4391437576748398</v>
       </c>
       <c r="D630">
-        <f t="shared" si="9"/>
-        <v>2.4391437576748397E-2</v>
+        <v>1</v>
       </c>
       <c r="E630" t="s">
         <v>2</v>
@@ -13959,8 +13330,7 @@
         <v>2.7391039921181402</v>
       </c>
       <c r="D631">
-        <f t="shared" si="9"/>
-        <v>2.7391039921181401E-2</v>
+        <v>1</v>
       </c>
       <c r="E631" t="s">
         <v>2</v>
@@ -13980,8 +13350,7 @@
         <v>0.83412087839333604</v>
       </c>
       <c r="D632">
-        <f t="shared" si="9"/>
-        <v>8.3412087839333602E-3</v>
+        <v>1</v>
       </c>
       <c r="E632" t="s">
         <v>2</v>
@@ -14001,8 +13370,7 @@
         <v>2.4248804074622101</v>
       </c>
       <c r="D633">
-        <f t="shared" si="9"/>
-        <v>2.4248804074622102E-2</v>
+        <v>1</v>
       </c>
       <c r="E633" t="s">
         <v>2</v>
@@ -14022,8 +13390,7 @@
         <v>1.3821192404070499</v>
       </c>
       <c r="D634">
-        <f t="shared" si="9"/>
-        <v>1.3821192404070499E-2</v>
+        <v>1</v>
       </c>
       <c r="E634" t="s">
         <v>2</v>
@@ -14043,8 +13410,7 @@
         <v>4.9128308183698204</v>
       </c>
       <c r="D635">
-        <f t="shared" si="9"/>
-        <v>4.9128308183698205E-2</v>
+        <v>1</v>
       </c>
       <c r="E635" t="s">
         <v>2</v>
@@ -14064,8 +13430,7 @@
         <v>0.34414176697155802</v>
       </c>
       <c r="D636">
-        <f t="shared" si="9"/>
-        <v>3.4414176697155803E-3</v>
+        <v>1</v>
       </c>
       <c r="E636" t="s">
         <v>2</v>
@@ -14085,8 +13450,7 @@
         <v>1.6569265885395801</v>
       </c>
       <c r="D637">
-        <f t="shared" si="9"/>
-        <v>1.6569265885395802E-2</v>
+        <v>1</v>
       </c>
       <c r="E637" t="s">
         <v>2</v>
@@ -14106,8 +13470,7 @@
         <v>1.1944539206543401</v>
       </c>
       <c r="D638">
-        <f t="shared" si="9"/>
-        <v>1.1944539206543401E-2</v>
+        <v>1</v>
       </c>
       <c r="E638" t="s">
         <v>2</v>
@@ -14127,8 +13490,7 @@
         <v>2.34135059237743</v>
       </c>
       <c r="D639">
-        <f t="shared" si="9"/>
-        <v>2.3413505923774301E-2</v>
+        <v>1</v>
       </c>
       <c r="E639" t="s">
         <v>2</v>
@@ -14148,8 +13510,7 @@
         <v>1.1925427438374301</v>
       </c>
       <c r="D640">
-        <f t="shared" si="9"/>
-        <v>1.1925427438374301E-2</v>
+        <v>1</v>
       </c>
       <c r="E640" t="s">
         <v>2</v>
@@ -14169,8 +13530,7 @@
         <v>2.64116039002172</v>
       </c>
       <c r="D641">
-        <f t="shared" si="9"/>
-        <v>2.6411603900217198E-2</v>
+        <v>1</v>
       </c>
       <c r="E641" t="s">
         <v>2</v>
@@ -14190,8 +13550,7 @@
         <v>1.5176625386343401</v>
       </c>
       <c r="D642">
-        <f t="shared" si="9"/>
-        <v>1.5176625386343401E-2</v>
+        <v>1</v>
       </c>
       <c r="E642" t="s">
         <v>2</v>
@@ -14211,8 +13570,7 @@
         <v>4.8278336656524896</v>
       </c>
       <c r="D643">
-        <f t="shared" ref="D643:D706" si="10">MAX(0.001,ABS(C643/100))</f>
-        <v>4.8278336656524895E-2</v>
+        <v>1</v>
       </c>
       <c r="E643" t="s">
         <v>2</v>
@@ -14232,8 +13590,7 @@
         <v>2.8602136347061999</v>
       </c>
       <c r="D644">
-        <f t="shared" si="10"/>
-        <v>2.8602136347062001E-2</v>
+        <v>1</v>
       </c>
       <c r="E644" t="s">
         <v>2</v>
@@ -14253,8 +13610,7 @@
         <v>3.2443554001505399</v>
       </c>
       <c r="D645">
-        <f t="shared" si="10"/>
-        <v>3.2443554001505399E-2</v>
+        <v>1</v>
       </c>
       <c r="E645" t="s">
         <v>2</v>
@@ -14274,8 +13630,7 @@
         <v>2.42548109549102</v>
       </c>
       <c r="D646">
-        <f t="shared" si="10"/>
-        <v>2.4254810954910201E-2</v>
+        <v>1</v>
       </c>
       <c r="E646" t="s">
         <v>2</v>
@@ -14295,8 +13650,7 @@
         <v>1.0554340877831301</v>
       </c>
       <c r="D647">
-        <f t="shared" si="10"/>
-        <v>1.0554340877831301E-2</v>
+        <v>1</v>
       </c>
       <c r="E647" t="s">
         <v>2</v>
@@ -14316,8 +13670,7 @@
         <v>7.9005990598045098E-2</v>
       </c>
       <c r="D648">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E648" t="s">
         <v>2</v>
@@ -14337,8 +13690,7 @@
         <v>2.9622865887142702E-3</v>
       </c>
       <c r="D649">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E649" t="s">
         <v>2</v>
@@ -14358,8 +13710,7 @@
         <v>91.453049532524602</v>
       </c>
       <c r="D650">
-        <f t="shared" si="10"/>
-        <v>0.914530495325246</v>
+        <v>9.1453049532524595</v>
       </c>
       <c r="E650" t="s">
         <v>2</v>
@@ -14379,8 +13730,7 @@
         <v>835.32013903395102</v>
       </c>
       <c r="D651">
-        <f t="shared" si="10"/>
-        <v>8.3532013903395104</v>
+        <v>83.532013903395097</v>
       </c>
       <c r="E651" t="s">
         <v>2</v>
@@ -14400,8 +13750,7 @@
         <v>747.23213965218304</v>
       </c>
       <c r="D652">
-        <f t="shared" si="10"/>
-        <v>7.4723213965218305</v>
+        <v>74.723213965218306</v>
       </c>
       <c r="E652" t="s">
         <v>2</v>
@@ -14421,8 +13770,7 @@
         <v>88.087999381768597</v>
       </c>
       <c r="D653">
-        <f t="shared" si="10"/>
-        <v>0.880879993817686</v>
+        <v>8.8087999381768594</v>
       </c>
       <c r="E653" t="s">
         <v>2</v>
@@ -14442,8 +13790,7 @@
         <v>88.087999381768498</v>
       </c>
       <c r="D654">
-        <f t="shared" si="10"/>
-        <v>0.880879993817685</v>
+        <v>8.8087999381768505</v>
       </c>
       <c r="E654" t="s">
         <v>2</v>
@@ -14463,8 +13810,7 @@
         <v>165.83887463382001</v>
       </c>
       <c r="D655">
-        <f t="shared" si="10"/>
-        <v>1.6583887463382001</v>
+        <v>16.583887463382002</v>
       </c>
       <c r="E655" t="s">
         <v>2</v>
@@ -14484,8 +13830,7 @@
         <v>152.34348852619101</v>
       </c>
       <c r="D656">
-        <f t="shared" si="10"/>
-        <v>1.5234348852619102</v>
+        <v>15.234348852619101</v>
       </c>
       <c r="E656" t="s">
         <v>2</v>
@@ -14505,8 +13850,7 @@
         <v>130.69985719976299</v>
       </c>
       <c r="D657">
-        <f t="shared" si="10"/>
-        <v>1.3069985719976298</v>
+        <v>13.069985719976298</v>
       </c>
       <c r="E657" t="s">
         <v>2</v>
@@ -14526,8 +13870,7 @@
         <v>0</v>
       </c>
       <c r="D658">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E658" t="s">
         <v>2</v>
@@ -14547,8 +13890,7 @@
         <v>7.9440638435945203</v>
       </c>
       <c r="D659">
-        <f t="shared" si="10"/>
-        <v>7.9440638435945204E-2</v>
+        <v>1</v>
       </c>
       <c r="E659" t="s">
         <v>2</v>
@@ -14568,8 +13910,7 @@
         <v>-2.3184592585299999</v>
       </c>
       <c r="D660">
-        <f t="shared" si="10"/>
-        <v>2.31845925853E-2</v>
+        <v>1</v>
       </c>
       <c r="E660" t="s">
         <v>2</v>
@@ -14589,8 +13930,7 @@
         <v>10.262523102124501</v>
       </c>
       <c r="D661">
-        <f t="shared" si="10"/>
-        <v>0.102625231021245</v>
+        <v>1.0262523102124501</v>
       </c>
       <c r="E661" t="s">
         <v>2</v>
@@ -14610,8 +13950,7 @@
         <v>6.9596518227683698E-3</v>
       </c>
       <c r="D662">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E662" t="s">
         <v>2</v>
@@ -14631,8 +13970,7 @@
         <v>6.9596518228447497E-3</v>
       </c>
       <c r="D663">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E663" t="s">
         <v>2</v>
@@ -14652,8 +13990,7 @@
         <v>-2.32541891035283</v>
       </c>
       <c r="D664">
-        <f t="shared" si="10"/>
-        <v>2.3254189103528299E-2</v>
+        <v>1</v>
       </c>
       <c r="E664" t="s">
         <v>2</v>
@@ -14673,8 +14010,7 @@
         <v>-7.9440638435944999</v>
       </c>
       <c r="D665">
-        <f t="shared" si="10"/>
-        <v>7.9440638435944996E-2</v>
+        <v>1</v>
       </c>
       <c r="E665" t="s">
         <v>2</v>
@@ -14694,8 +14030,7 @@
         <v>-7.9440638435945203</v>
       </c>
       <c r="D666">
-        <f t="shared" si="10"/>
-        <v>7.9440638435945204E-2</v>
+        <v>1</v>
       </c>
       <c r="E666" t="s">
         <v>2</v>
@@ -14715,8 +14050,7 @@
         <v>106.508744245469</v>
       </c>
       <c r="D667">
-        <f t="shared" si="10"/>
-        <v>1.0650874424546901</v>
+        <v>10.650874424546901</v>
       </c>
       <c r="E667" t="s">
         <v>2</v>
@@ -14736,8 +14070,7 @@
         <v>15.203725936288199</v>
       </c>
       <c r="D668">
-        <f t="shared" si="10"/>
-        <v>0.15203725936288198</v>
+        <v>1.5203725936288199</v>
       </c>
       <c r="E668" t="s">
         <v>2</v>
@@ -14757,8 +14090,7 @@
         <v>15.203725936288199</v>
       </c>
       <c r="D669">
-        <f t="shared" si="10"/>
-        <v>0.15203725936288198</v>
+        <v>1.5203725936288199</v>
       </c>
       <c r="E669" t="s">
         <v>2</v>
@@ -14778,8 +14110,7 @@
         <v>13.6805858554234</v>
       </c>
       <c r="D670">
-        <f t="shared" si="10"/>
-        <v>0.13680585855423399</v>
+        <v>1.3680585855423399</v>
       </c>
       <c r="E670" t="s">
         <v>2</v>
@@ -14799,8 +14130,7 @@
         <v>5.69019111343425</v>
       </c>
       <c r="D671">
-        <f t="shared" si="10"/>
-        <v>5.6901911134342502E-2</v>
+        <v>1</v>
       </c>
       <c r="E671" t="s">
         <v>2</v>
@@ -14820,8 +14150,7 @@
         <v>4.6368924978015</v>
       </c>
       <c r="D672">
-        <f t="shared" si="10"/>
-        <v>4.6368924978015001E-2</v>
+        <v>1</v>
       </c>
       <c r="E672" t="s">
         <v>2</v>
@@ -14841,8 +14170,7 @@
         <v>7.2133311942990304</v>
       </c>
       <c r="D673">
-        <f t="shared" si="10"/>
-        <v>7.2133311942990302E-2</v>
+        <v>1</v>
       </c>
       <c r="E673" t="s">
         <v>2</v>
@@ -14862,8 +14190,7 @@
         <v>9.8679264063405991</v>
       </c>
       <c r="D674">
-        <f t="shared" si="10"/>
-        <v>9.8679264063405991E-2</v>
+        <v>1</v>
       </c>
       <c r="E674" t="s">
         <v>2</v>
@@ -14883,8 +14210,7 @@
         <v>9.2038895046195695</v>
       </c>
       <c r="D675">
-        <f t="shared" si="10"/>
-        <v>9.2038895046195696E-2</v>
+        <v>1</v>
       </c>
       <c r="E675" t="s">
         <v>2</v>
@@ -14904,8 +14230,7 @@
         <v>1.5231400808647999</v>
       </c>
       <c r="D676">
-        <f t="shared" si="10"/>
-        <v>1.5231400808647998E-2</v>
+        <v>1</v>
       </c>
       <c r="E676" t="s">
         <v>2</v>
@@ -14925,8 +14250,7 @@
         <v>1.5231400808647799</v>
       </c>
       <c r="D677">
-        <f t="shared" si="10"/>
-        <v>1.5231400808647799E-2</v>
+        <v>1</v>
       </c>
       <c r="E677" t="s">
         <v>2</v>
@@ -14946,8 +14270,7 @@
         <v>3.1473426847936898</v>
       </c>
       <c r="D678">
-        <f t="shared" si="10"/>
-        <v>3.14734268479369E-2</v>
+        <v>1</v>
       </c>
       <c r="E678" t="s">
         <v>2</v>
@@ -14967,8 +14290,7 @@
         <v>-0.96016570220783903</v>
       </c>
       <c r="D679">
-        <f t="shared" si="10"/>
-        <v>9.6016570220783908E-3</v>
+        <v>1</v>
       </c>
       <c r="E679" t="s">
         <v>2</v>
@@ -14988,8 +14310,7 @@
         <v>16.388116707672999</v>
       </c>
       <c r="D680">
-        <f t="shared" si="10"/>
-        <v>0.16388116707673001</v>
+        <v>1.6388116707672999</v>
       </c>
       <c r="E680" t="s">
         <v>2</v>
@@ -15009,8 +14330,7 @@
         <v>-0.285411141499466</v>
       </c>
       <c r="D681">
-        <f t="shared" si="10"/>
-        <v>2.8541114149946601E-3</v>
+        <v>1</v>
       </c>
       <c r="E681" t="s">
         <v>2</v>
@@ -15030,8 +14350,7 @@
         <v>70.175729549211695</v>
       </c>
       <c r="D682">
-        <f t="shared" si="10"/>
-        <v>0.70175729549211696</v>
+        <v>7.0175729549211692</v>
       </c>
       <c r="E682" t="s">
         <v>2</v>
@@ -15051,8 +14370,7 @@
         <v>42.012983952327801</v>
       </c>
       <c r="D683">
-        <f t="shared" si="10"/>
-        <v>0.42012983952327798</v>
+        <v>4.2012983952327803</v>
       </c>
       <c r="E683" t="s">
         <v>2</v>
@@ -15072,8 +14390,7 @@
         <v>7.0274593622172201</v>
       </c>
       <c r="D684">
-        <f t="shared" si="10"/>
-        <v>7.0274593622172199E-2</v>
+        <v>1</v>
       </c>
       <c r="E684" t="s">
         <v>2</v>
@@ -15093,8 +14410,7 @@
         <v>0.42087855654144202</v>
       </c>
       <c r="D685">
-        <f t="shared" si="10"/>
-        <v>4.2087855654144198E-3</v>
+        <v>1</v>
       </c>
       <c r="E685" t="s">
         <v>2</v>
@@ -15114,8 +14430,7 @@
         <v>1.44477833019816</v>
       </c>
       <c r="D686">
-        <f t="shared" si="10"/>
-        <v>1.44477833019816E-2</v>
+        <v>1</v>
       </c>
       <c r="E686" t="s">
         <v>2</v>
@@ -15135,8 +14450,7 @@
         <v>8.4636382322861401</v>
       </c>
       <c r="D687">
-        <f t="shared" si="10"/>
-        <v>8.46363823228614E-2</v>
+        <v>1</v>
       </c>
       <c r="E687" t="s">
         <v>2</v>
@@ -15156,8 +14470,7 @@
         <v>2.8567818836558598</v>
       </c>
       <c r="D688">
-        <f t="shared" si="10"/>
-        <v>2.8567818836558598E-2</v>
+        <v>1</v>
       </c>
       <c r="E688" t="s">
         <v>2</v>
@@ -15177,8 +14490,7 @@
         <v>4.9580472710691197</v>
       </c>
       <c r="D689">
-        <f t="shared" si="10"/>
-        <v>4.9580472710691194E-2</v>
+        <v>1</v>
       </c>
       <c r="E689" t="s">
         <v>2</v>
@@ -15198,8 +14510,7 @@
         <v>8.9589814512683592</v>
       </c>
       <c r="D690">
-        <f t="shared" si="10"/>
-        <v>8.9589814512683594E-2</v>
+        <v>1</v>
       </c>
       <c r="E690" t="s">
         <v>2</v>
@@ -15219,8 +14530,7 @@
         <v>5.9038146955393103</v>
       </c>
       <c r="D691">
-        <f t="shared" si="10"/>
-        <v>5.9038146955393105E-2</v>
+        <v>1</v>
       </c>
       <c r="E691" t="s">
         <v>2</v>
@@ -15240,8 +14550,7 @@
         <v>-1.3911600213531501</v>
       </c>
       <c r="D692">
-        <f t="shared" si="10"/>
-        <v>1.3911600213531501E-2</v>
+        <v>1</v>
       </c>
       <c r="E692" t="s">
         <v>2</v>
@@ -15261,8 +14570,7 @@
         <v>-2.5159772390110899</v>
       </c>
       <c r="D693">
-        <f t="shared" si="10"/>
-        <v>2.5159772390110899E-2</v>
+        <v>1</v>
       </c>
       <c r="E693" t="s">
         <v>2</v>
@@ -15282,8 +14590,7 @@
         <v>9.8611615528597402E-2</v>
       </c>
       <c r="D694">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E694" t="s">
         <v>2</v>
@@ -15303,8 +14610,7 @@
         <v>1.04830487844554</v>
       </c>
       <c r="D695">
-        <f t="shared" si="10"/>
-        <v>1.04830487844554E-2</v>
+        <v>1</v>
       </c>
       <c r="E695" t="s">
         <v>2</v>
@@ -15324,8 +14630,7 @@
         <v>1.04830487844552</v>
       </c>
       <c r="D696">
-        <f t="shared" si="10"/>
-        <v>1.04830487844552E-2</v>
+        <v>1</v>
       </c>
       <c r="E696" t="s">
         <v>2</v>
@@ -15345,8 +14650,7 @@
         <v>-0.32504601029792501</v>
       </c>
       <c r="D697">
-        <f t="shared" si="10"/>
-        <v>3.2504601029792503E-3</v>
+        <v>1</v>
       </c>
       <c r="E697" t="s">
         <v>2</v>
@@ -15366,8 +14670,7 @@
         <v>4.9937371872172502E-3</v>
       </c>
       <c r="D698">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E698" t="s">
         <v>2</v>
@@ -15387,8 +14690,7 @@
         <v>2.93537881763331</v>
       </c>
       <c r="D699">
-        <f t="shared" si="10"/>
-        <v>2.93537881763331E-2</v>
+        <v>1</v>
       </c>
       <c r="E699" t="s">
         <v>2</v>
@@ -15408,8 +14710,7 @@
         <v>2.9772635949975901</v>
       </c>
       <c r="D700">
-        <f t="shared" si="10"/>
-        <v>2.9772635949975902E-2</v>
+        <v>1</v>
       </c>
       <c r="E700" t="s">
         <v>2</v>
@@ -15429,8 +14730,7 @@
         <v>0.52865428364306399</v>
       </c>
       <c r="D701">
-        <f t="shared" si="10"/>
-        <v>5.28654283643064E-3</v>
+        <v>1</v>
       </c>
       <c r="E701" t="s">
         <v>2</v>
@@ -15450,8 +14750,7 @@
         <v>0.89315121509571305</v>
       </c>
       <c r="D702">
-        <f t="shared" si="10"/>
-        <v>8.9315121509571313E-3</v>
+        <v>1</v>
       </c>
       <c r="E702" t="s">
         <v>2</v>
@@ -15471,8 +14770,7 @@
         <v>0.88377506877149603</v>
       </c>
       <c r="D703">
-        <f t="shared" si="10"/>
-        <v>8.8377506877149598E-3</v>
+        <v>1</v>
       </c>
       <c r="E703" t="s">
         <v>2</v>
@@ -15492,8 +14790,7 @@
         <v>0.55545227830842203</v>
       </c>
       <c r="D704">
-        <f t="shared" si="10"/>
-        <v>5.55452278308422E-3</v>
+        <v>1</v>
       </c>
       <c r="E704" t="s">
         <v>2</v>
@@ -15513,8 +14810,7 @@
         <v>1.2098168818434401</v>
       </c>
       <c r="D705">
-        <f t="shared" si="10"/>
-        <v>1.2098168818434401E-2</v>
+        <v>1</v>
       </c>
       <c r="E705" t="s">
         <v>2</v>
@@ -15534,8 +14830,7 @@
         <v>4.9937371871919796E-3</v>
       </c>
       <c r="D706">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E706" t="s">
         <v>2</v>
@@ -15555,8 +14850,7 @@
         <v>1.2098168818434201</v>
       </c>
       <c r="D707">
-        <f t="shared" ref="D707:D770" si="11">MAX(0.001,ABS(C707/100))</f>
-        <v>1.20981688184342E-2</v>
+        <v>1</v>
       </c>
       <c r="E707" t="s">
         <v>2</v>
@@ -15576,8 +14870,7 @@
         <v>131.490676203475</v>
       </c>
       <c r="D708">
-        <f t="shared" si="11"/>
-        <v>1.3149067620347501</v>
+        <v>13.1490676203475</v>
       </c>
       <c r="E708" t="s">
         <v>2</v>
@@ -15597,8 +14890,7 @@
         <v>3.6066655971495001</v>
       </c>
       <c r="D709">
-        <f t="shared" si="11"/>
-        <v>3.6066655971494999E-2</v>
+        <v>1</v>
       </c>
       <c r="E709" t="s">
         <v>2</v>
@@ -15618,8 +14910,7 @@
         <v>51.046587117800399</v>
       </c>
       <c r="D710">
-        <f t="shared" si="11"/>
-        <v>0.51046587117800402</v>
+        <v>5.1046587117800399</v>
       </c>
       <c r="E710" t="s">
         <v>2</v>
@@ -15639,8 +14930,7 @@
         <v>1.03104975021146E-3</v>
       </c>
       <c r="D711">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E711" t="s">
         <v>2</v>
@@ -15660,8 +14950,7 @@
         <v>99.1388645529277</v>
       </c>
       <c r="D712">
-        <f t="shared" si="11"/>
-        <v>0.99138864552927697</v>
+        <v>9.9138864552927703</v>
       </c>
       <c r="E712" t="s">
         <v>2</v>
@@ -15681,8 +14970,7 @@
         <v>71.719119494938397</v>
       </c>
       <c r="D713">
-        <f t="shared" si="11"/>
-        <v>0.71719119494938399</v>
+        <v>7.1719119494938397</v>
       </c>
       <c r="E713" t="s">
         <v>2</v>
@@ -15702,8 +14990,7 @@
         <v>129.30053957167601</v>
       </c>
       <c r="D714">
-        <f t="shared" si="11"/>
-        <v>1.2930053957167602</v>
+        <v>12.930053957167601</v>
       </c>
       <c r="E714" t="s">
         <v>2</v>
@@ -15723,8 +15010,7 @@
         <v>135.097341800625</v>
       </c>
       <c r="D715">
-        <f t="shared" si="11"/>
-        <v>1.35097341800625</v>
+        <v>13.5097341800625</v>
       </c>
       <c r="E715" t="s">
         <v>2</v>
@@ -15744,8 +15030,7 @@
         <v>52.754737198723703</v>
       </c>
       <c r="D716">
-        <f t="shared" si="11"/>
-        <v>0.527547371987237</v>
+        <v>5.2754737198723705</v>
       </c>
       <c r="E716" t="s">
         <v>2</v>
@@ -15765,8 +15050,7 @@
         <v>9.8611615528568605E-2</v>
       </c>
       <c r="D717">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E717" t="s">
         <v>2</v>
@@ -15786,8 +15070,7 @@
         <v>-99.138864552927799</v>
       </c>
       <c r="D718">
-        <f t="shared" si="11"/>
-        <v>0.99138864552927797</v>
+        <v>9.9138864552927792</v>
       </c>
       <c r="E718" t="s">
         <v>2</v>
@@ -15807,8 +15090,7 @@
         <v>-135.097341800625</v>
       </c>
       <c r="D719">
-        <f t="shared" si="11"/>
-        <v>1.35097341800625</v>
+        <v>13.5097341800625</v>
       </c>
       <c r="E719" t="s">
         <v>2</v>
@@ -15828,8 +15110,7 @@
         <v>-9.8611615528582802E-2</v>
       </c>
       <c r="D720">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E720" t="s">
         <v>2</v>
@@ -15849,8 +15130,7 @@
         <v>-52.754737198723703</v>
       </c>
       <c r="D721">
-        <f t="shared" si="11"/>
-        <v>0.527547371987237</v>
+        <v>5.2754737198723705</v>
       </c>
       <c r="E721" t="s">
         <v>2</v>
@@ -15870,8 +15150,7 @@
         <v>129.30053957167601</v>
       </c>
       <c r="D722">
-        <f t="shared" si="11"/>
-        <v>1.2930053957167602</v>
+        <v>12.930053957167601</v>
       </c>
       <c r="E722" t="s">
         <v>2</v>
@@ -15891,8 +15170,7 @@
         <v>71.719119494938397</v>
       </c>
       <c r="D723">
-        <f t="shared" si="11"/>
-        <v>0.71719119494938399</v>
+        <v>7.1719119494938397</v>
       </c>
       <c r="E723" t="s">
         <v>2</v>
@@ -15912,8 +15190,7 @@
         <v>7.6858150204032203</v>
       </c>
       <c r="D724">
-        <f t="shared" si="11"/>
-        <v>7.6858150204032208E-2</v>
+        <v>1</v>
       </c>
       <c r="E724" t="s">
         <v>2</v>
@@ -15933,8 +15210,7 @@
         <v>1.04659089222607</v>
       </c>
       <c r="D725">
-        <f t="shared" si="11"/>
-        <v>1.0465908922260701E-2</v>
+        <v>1</v>
       </c>
       <c r="E725" t="s">
         <v>2</v>
@@ -15954,8 +15230,7 @@
         <v>209.970247688223</v>
       </c>
       <c r="D726">
-        <f t="shared" si="11"/>
-        <v>2.0997024768822299</v>
+        <v>20.9970247688223</v>
       </c>
       <c r="E726" t="s">
         <v>2</v>
@@ -15975,8 +15250,7 @@
         <v>0.62309365407814699</v>
       </c>
       <c r="D727">
-        <f t="shared" si="11"/>
-        <v>6.2309365407814702E-3</v>
+        <v>1</v>
       </c>
       <c r="E727" t="s">
         <v>2</v>
@@ -15996,8 +15270,7 @@
         <v>4.53640465636024</v>
       </c>
       <c r="D728">
-        <f t="shared" si="11"/>
-        <v>4.5364046563602399E-2</v>
+        <v>1</v>
       </c>
       <c r="E728" t="s">
         <v>2</v>
@@ -16017,8 +15290,7 @@
         <v>-16.4188828484432</v>
       </c>
       <c r="D729">
-        <f t="shared" si="11"/>
-        <v>0.164188828484432</v>
+        <v>1.6418882848443199</v>
       </c>
       <c r="E729" t="s">
         <v>2</v>
@@ -16038,8 +15310,7 @@
         <v>0.30534635290453599</v>
       </c>
       <c r="D730">
-        <f t="shared" si="11"/>
-        <v>3.0534635290453598E-3</v>
+        <v>1</v>
       </c>
       <c r="E730" t="s">
         <v>2</v>
@@ -16059,8 +15330,7 @@
         <v>0.63438085036140601</v>
       </c>
       <c r="D731">
-        <f t="shared" si="11"/>
-        <v>6.3438085036140604E-3</v>
+        <v>1</v>
       </c>
       <c r="E731" t="s">
         <v>2</v>
@@ -16080,8 +15350,7 @@
         <v>22.104250056613001</v>
       </c>
       <c r="D732">
-        <f t="shared" si="11"/>
-        <v>0.22104250056613001</v>
+        <v>2.2104250056613002</v>
       </c>
       <c r="E732" t="s">
         <v>2</v>
@@ -16101,8 +15370,7 @@
         <v>8.4902942901497696</v>
       </c>
       <c r="D733">
-        <f t="shared" si="11"/>
-        <v>8.4902942901497691E-2</v>
+        <v>1</v>
       </c>
       <c r="E733" t="s">
         <v>2</v>
@@ -16122,8 +15390,7 @@
         <v>12.569517899369</v>
       </c>
       <c r="D734">
-        <f t="shared" si="11"/>
-        <v>0.12569517899369001</v>
+        <v>1.2569517899369</v>
       </c>
       <c r="E734" t="s">
         <v>2</v>
@@ -16143,8 +15410,7 @@
         <v>2.2100531852177201</v>
       </c>
       <c r="D735">
-        <f t="shared" si="11"/>
-        <v>2.21005318521772E-2</v>
+        <v>1</v>
       </c>
       <c r="E735" t="s">
         <v>2</v>
@@ -16164,8 +15430,7 @@
         <v>0.27920081491332799</v>
       </c>
       <c r="D736">
-        <f t="shared" si="11"/>
-        <v>2.7920081491332798E-3</v>
+        <v>1</v>
       </c>
       <c r="E736" t="s">
         <v>2</v>
@@ -16185,8 +15450,7 @@
         <v>2.0281251684690602</v>
       </c>
       <c r="D737">
-        <f t="shared" si="11"/>
-        <v>2.0281251684690603E-2</v>
+        <v>1</v>
       </c>
       <c r="E737" t="s">
         <v>2</v>
@@ -16206,8 +15470,7 @@
         <v>3.8174118718672299</v>
       </c>
       <c r="D738">
-        <f t="shared" si="11"/>
-        <v>3.8174118718672295E-2</v>
+        <v>1</v>
       </c>
       <c r="E738" t="s">
         <v>2</v>
@@ -16227,8 +15490,7 @@
         <v>0.42087855654143702</v>
       </c>
       <c r="D739">
-        <f t="shared" si="11"/>
-        <v>4.2087855654143703E-3</v>
+        <v>1</v>
       </c>
       <c r="E739" t="s">
         <v>2</v>
@@ -16248,8 +15510,7 @@
         <v>2.22400853125392</v>
       </c>
       <c r="D740">
-        <f t="shared" si="11"/>
-        <v>2.2240085312539199E-2</v>
+        <v>1</v>
       </c>
       <c r="E740" t="s">
         <v>2</v>
@@ -16269,8 +15530,7 @@
         <v>1.4447783301981401</v>
       </c>
       <c r="D741">
-        <f t="shared" si="11"/>
-        <v>1.44477833019814E-2</v>
+        <v>1</v>
       </c>
       <c r="E741" t="s">
         <v>2</v>
@@ -16290,8 +15550,7 @@
         <v>2.8567818836558199</v>
       </c>
       <c r="D742">
-        <f t="shared" si="11"/>
-        <v>2.8567818836558199E-2</v>
+        <v>1</v>
       </c>
       <c r="E742" t="s">
         <v>2</v>
@@ -16311,8 +15570,7 @@
         <v>4.9580472710691197</v>
       </c>
       <c r="D743">
-        <f t="shared" si="11"/>
-        <v>4.9580472710691194E-2</v>
+        <v>1</v>
       </c>
       <c r="E743" t="s">
         <v>2</v>
@@ -16332,8 +15590,7 @@
         <v>2.4011028618920598</v>
       </c>
       <c r="D744">
-        <f t="shared" si="11"/>
-        <v>2.4011028618920599E-2</v>
+        <v>1</v>
       </c>
       <c r="E744" t="s">
         <v>2</v>
@@ -16353,8 +15610,7 @@
         <v>4.77899747788135</v>
       </c>
       <c r="D745">
-        <f t="shared" si="11"/>
-        <v>4.7789974778813499E-2</v>
+        <v>1</v>
       </c>
       <c r="E745" t="s">
         <v>2</v>
@@ -16374,8 +15630,7 @@
         <v>3.29784405515549</v>
       </c>
       <c r="D746">
-        <f t="shared" si="11"/>
-        <v>3.2978440551554897E-2</v>
+        <v>1</v>
       </c>
       <c r="E746" t="s">
         <v>2</v>
@@ -16395,8 +15650,7 @@
         <v>1.6622769450700801</v>
       </c>
       <c r="D747">
-        <f t="shared" si="11"/>
-        <v>1.6622769450700802E-2</v>
+        <v>1</v>
       </c>
       <c r="E747" t="s">
         <v>2</v>
@@ -16416,8 +15670,7 @@
         <v>9.3617878341376498E-2</v>
       </c>
       <c r="D748">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E748" t="s">
         <v>2</v>
@@ -16437,8 +15690,7 @@
         <v>1.04830487844553</v>
       </c>
       <c r="D749">
-        <f t="shared" si="11"/>
-        <v>1.0483048784455299E-2</v>
+        <v>1</v>
       </c>
       <c r="E749" t="s">
         <v>2</v>
@@ -16458,8 +15710,7 @@
         <v>4.9937371872171296E-3</v>
       </c>
       <c r="D750">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E750" t="s">
         <v>2</v>
@@ -16479,8 +15730,7 @@
         <v>2.93537881763331</v>
       </c>
       <c r="D751">
-        <f t="shared" si="11"/>
-        <v>2.93537881763331E-2</v>
+        <v>1</v>
       </c>
       <c r="E751" t="s">
         <v>2</v>
@@ -16500,8 +15750,7 @@
         <v>2.9772635949975799</v>
       </c>
       <c r="D752">
-        <f t="shared" si="11"/>
-        <v>2.9772635949975798E-2</v>
+        <v>1</v>
       </c>
       <c r="E752" t="s">
         <v>2</v>
@@ -16521,8 +15770,7 @@
         <v>0.52865428364309497</v>
       </c>
       <c r="D753">
-        <f t="shared" si="11"/>
-        <v>5.2865428364309497E-3</v>
+        <v>1</v>
       </c>
       <c r="E753" t="s">
         <v>2</v>
@@ -16542,8 +15790,7 @@
         <v>0.89315121509570505</v>
       </c>
       <c r="D754">
-        <f t="shared" si="11"/>
-        <v>8.9315121509570498E-3</v>
+        <v>1</v>
       </c>
       <c r="E754" t="s">
         <v>2</v>
@@ -16563,8 +15810,7 @@
         <v>0.88377506877151302</v>
       </c>
       <c r="D755">
-        <f t="shared" si="11"/>
-        <v>8.8377506877151298E-3</v>
+        <v>1</v>
       </c>
       <c r="E755" t="s">
         <v>2</v>
@@ -16584,8 +15830,7 @@
         <v>0.55545227830843702</v>
       </c>
       <c r="D756">
-        <f t="shared" si="11"/>
-        <v>5.55452278308437E-3</v>
+        <v>1</v>
       </c>
       <c r="E756" t="s">
         <v>2</v>
@@ -16605,8 +15850,7 @@
         <v>1.2098168818434301</v>
       </c>
       <c r="D757">
-        <f t="shared" si="11"/>
-        <v>1.2098168818434301E-2</v>
+        <v>1</v>
       </c>
       <c r="E757" t="s">
         <v>2</v>
@@ -16626,8 +15870,7 @@
         <v>20.0695237920214</v>
       </c>
       <c r="D758">
-        <f t="shared" si="11"/>
-        <v>0.20069523792021399</v>
+        <v>2.00695237920214</v>
       </c>
       <c r="E758" t="s">
         <v>2</v>
@@ -16647,8 +15890,7 @@
         <v>138.46122847094799</v>
       </c>
       <c r="D759">
-        <f t="shared" si="11"/>
-        <v>1.3846122847094799</v>
+        <v>13.846122847094799</v>
       </c>
       <c r="E759" t="s">
         <v>2</v>
@@ -16668,8 +15910,7 @@
         <v>118.698329500508</v>
       </c>
       <c r="D760">
-        <f t="shared" si="11"/>
-        <v>1.18698329500508</v>
+        <v>11.8698329500508</v>
       </c>
       <c r="E760" t="s">
         <v>2</v>
@@ -16689,8 +15930,7 @@
         <v>19.762898970440101</v>
       </c>
       <c r="D761">
-        <f t="shared" si="11"/>
-        <v>0.19762898970440101</v>
+        <v>1.9762898970440101</v>
       </c>
       <c r="E761" t="s">
         <v>2</v>
@@ -16710,8 +15950,7 @@
         <v>19.762898970440101</v>
       </c>
       <c r="D762">
-        <f t="shared" si="11"/>
-        <v>0.19762898970440101</v>
+        <v>1.9762898970440101</v>
       </c>
       <c r="E762" t="s">
         <v>2</v>
@@ -16731,8 +15970,7 @@
         <v>67.780753320110605</v>
       </c>
       <c r="D763">
-        <f t="shared" si="11"/>
-        <v>0.67780753320110609</v>
+        <v>6.7780753320110607</v>
       </c>
       <c r="E763" t="s">
         <v>2</v>
@@ -16752,8 +15990,7 @@
         <v>64.561227235937807</v>
       </c>
       <c r="D764">
-        <f t="shared" si="11"/>
-        <v>0.64561227235937801</v>
+        <v>6.456122723593781</v>
       </c>
       <c r="E764" t="s">
         <v>2</v>
@@ -16773,8 +16010,7 @@
         <v>56.625381900467197</v>
       </c>
       <c r="D765">
-        <f t="shared" si="11"/>
-        <v>0.56625381900467198</v>
+        <v>5.6625381900467193</v>
       </c>
       <c r="E765" t="s">
         <v>2</v>
@@ -16794,8 +16030,7 @@
         <v>28.613470266269101</v>
       </c>
       <c r="D766">
-        <f t="shared" si="11"/>
-        <v>0.28613470266269103</v>
+        <v>2.8613470266269099</v>
       </c>
       <c r="E766" t="s">
         <v>2</v>
@@ -16815,8 +16050,7 @@
         <v>0</v>
       </c>
       <c r="D767">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E767" t="s">
         <v>2</v>
@@ -16836,8 +16070,7 @@
         <v>-0.25112578320398099</v>
       </c>
       <c r="D768">
-        <f t="shared" si="11"/>
-        <v>2.5112578320398097E-3</v>
+        <v>1</v>
       </c>
       <c r="E768" t="s">
         <v>2</v>
@@ -16857,8 +16090,7 @@
         <v>0.25112578320398199</v>
       </c>
       <c r="D769">
-        <f t="shared" si="11"/>
-        <v>2.5112578320398201E-3</v>
+        <v>1</v>
       </c>
       <c r="E769" t="s">
         <v>2</v>
@@ -16878,8 +16110,7 @@
         <v>-5.55216230700291E-2</v>
       </c>
       <c r="D770">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E770" t="s">
         <v>2</v>
@@ -16899,8 +16130,7 @@
         <v>-5.5521623070031702E-2</v>
       </c>
       <c r="D771">
-        <f t="shared" ref="D771:D834" si="12">MAX(0.001,ABS(C771/100))</f>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E771" t="s">
         <v>2</v>
@@ -16920,8 +16150,7 @@
         <v>-0.19560416013395401</v>
       </c>
       <c r="D772">
-        <f t="shared" si="12"/>
-        <v>1.9560416013395402E-3</v>
+        <v>1</v>
       </c>
       <c r="E772" t="s">
         <v>2</v>
@@ -16941,8 +16170,7 @@
         <v>28.613470266269101</v>
       </c>
       <c r="D773">
-        <f t="shared" si="12"/>
-        <v>0.28613470266269103</v>
+        <v>2.8613470266269099</v>
       </c>
       <c r="E773" t="s">
         <v>2</v>
@@ -16962,8 +16190,7 @@
         <v>28.613470266269101</v>
       </c>
       <c r="D774">
-        <f t="shared" si="12"/>
-        <v>0.28613470266269103</v>
+        <v>2.8613470266269099</v>
       </c>
       <c r="E774" t="s">
         <v>2</v>
@@ -16983,8 +16210,7 @@
         <v>77.513487211579402</v>
       </c>
       <c r="D775">
-        <f t="shared" si="12"/>
-        <v>0.77513487211579402</v>
+        <v>7.7513487211579406</v>
       </c>
       <c r="E775" t="s">
         <v>2</v>
@@ -17004,8 +16230,7 @@
         <v>9.1251375520151807</v>
       </c>
       <c r="D776">
-        <f t="shared" si="12"/>
-        <v>9.1251375520151806E-2</v>
+        <v>1</v>
       </c>
       <c r="E776" t="s">
         <v>2</v>
@@ -17025,8 +16250,7 @@
         <v>9.1251375520151807</v>
       </c>
       <c r="D777">
-        <f t="shared" si="12"/>
-        <v>9.1251375520151806E-2</v>
+        <v>1</v>
       </c>
       <c r="E777" t="s">
         <v>2</v>
@@ -17046,8 +16270,7 @@
         <v>6.84077283753314</v>
       </c>
       <c r="D778">
-        <f t="shared" si="12"/>
-        <v>6.8407728375331406E-2</v>
+        <v>1</v>
       </c>
       <c r="E778" t="s">
         <v>2</v>
@@ -17067,8 +16290,7 @@
         <v>0.10550291900703</v>
       </c>
       <c r="D779">
-        <f t="shared" si="12"/>
-        <v>1.0550291900703001E-3</v>
+        <v>1</v>
       </c>
       <c r="E779" t="s">
         <v>2</v>
@@ -17088,8 +16310,7 @@
         <v>6.5537357071274699E-2</v>
       </c>
       <c r="D780">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E780" t="s">
         <v>2</v>
@@ -17109,8 +16330,7 @@
         <v>2.3898676334891</v>
       </c>
       <c r="D781">
-        <f t="shared" si="12"/>
-        <v>2.3898676334891001E-2</v>
+        <v>1</v>
       </c>
       <c r="E781" t="s">
         <v>2</v>
@@ -17130,8 +16350,7 @@
         <v>3.1504900617838798</v>
       </c>
       <c r="D782">
-        <f t="shared" si="12"/>
-        <v>3.1504900617838796E-2</v>
+        <v>1</v>
       </c>
       <c r="E782" t="s">
         <v>2</v>
@@ -17151,8 +16370,7 @@
         <v>4.8956107195852603</v>
       </c>
       <c r="D783">
-        <f t="shared" si="12"/>
-        <v>4.8956107195852604E-2</v>
+        <v>1</v>
       </c>
       <c r="E783" t="s">
         <v>2</v>
@@ -17172,8 +16390,7 @@
         <v>2.2843647144820398</v>
       </c>
       <c r="D784">
-        <f t="shared" si="12"/>
-        <v>2.2843647144820397E-2</v>
+        <v>1</v>
       </c>
       <c r="E784" t="s">
         <v>2</v>
@@ -17193,8 +16410,7 @@
         <v>2.28436471448205</v>
       </c>
       <c r="D785">
-        <f t="shared" si="12"/>
-        <v>2.2843647144820501E-2</v>
+        <v>1</v>
       </c>
       <c r="E785" t="s">
         <v>2</v>
@@ -17214,8 +16430,7 @@
         <v>-2.3549487926578498</v>
       </c>
       <c r="D786">
-        <f t="shared" si="12"/>
-        <v>2.3549487926578499E-2</v>
+        <v>1</v>
       </c>
       <c r="E786" t="s">
         <v>2</v>
@@ -17235,8 +16450,7 @@
         <v>2.8941928493384799</v>
       </c>
       <c r="D787">
-        <f t="shared" si="12"/>
-        <v>2.8941928493384797E-2</v>
+        <v>1</v>
       </c>
       <c r="E787" t="s">
         <v>2</v>
@@ -17256,8 +16470,7 @@
         <v>9.0842265061722607</v>
       </c>
       <c r="D788">
-        <f t="shared" si="12"/>
-        <v>9.0842265061722605E-2</v>
+        <v>1</v>
       </c>
       <c r="E788" t="s">
         <v>2</v>
@@ -17277,8 +16490,7 @@
         <v>1.6506192422367501</v>
       </c>
       <c r="D789">
-        <f t="shared" si="12"/>
-        <v>1.6506192422367501E-2</v>
+        <v>1</v>
       </c>
       <c r="E789" t="s">
         <v>2</v>
@@ -17298,8 +16510,7 @@
         <v>47.979733714991198</v>
       </c>
       <c r="D790">
-        <f t="shared" si="12"/>
-        <v>0.47979733714991196</v>
+        <v>4.7979733714991202</v>
       </c>
       <c r="E790" t="s">
         <v>2</v>
@@ -17319,8 +16530,7 @@
         <v>15.9606260138212</v>
       </c>
       <c r="D791">
-        <f t="shared" si="12"/>
-        <v>0.159606260138212</v>
+        <v>1.59606260138212</v>
       </c>
       <c r="E791" t="s">
         <v>2</v>
@@ -17340,8 +16550,7 @@
         <v>5.0794239941723198</v>
       </c>
       <c r="D792">
-        <f t="shared" si="12"/>
-        <v>5.0794239941723197E-2</v>
+        <v>1</v>
       </c>
       <c r="E792" t="s">
         <v>2</v>
@@ -17361,8 +16570,7 @@
         <v>1.2139256783941701</v>
       </c>
       <c r="D793">
-        <f t="shared" si="12"/>
-        <v>1.2139256783941701E-2</v>
+        <v>1</v>
       </c>
       <c r="E793" t="s">
         <v>2</v>
@@ -17382,8 +16590,7 @@
         <v>0.75776338776795804</v>
       </c>
       <c r="D794">
-        <f t="shared" si="12"/>
-        <v>7.5776338776795803E-3</v>
+        <v>1</v>
       </c>
       <c r="E794" t="s">
         <v>2</v>
@@ -17403,8 +16610,7 @@
         <v>2.2200736645358599</v>
       </c>
       <c r="D795">
-        <f t="shared" si="12"/>
-        <v>2.2200736645358599E-2</v>
+        <v>1</v>
       </c>
       <c r="E795" t="s">
         <v>2</v>
@@ -17424,8 +16630,7 @@
         <v>0.83083019362097599</v>
       </c>
       <c r="D796">
-        <f t="shared" si="12"/>
-        <v>8.3083019362097596E-3</v>
+        <v>1</v>
       </c>
       <c r="E796" t="s">
         <v>2</v>
@@ -17445,8 +16650,7 @@
         <v>1.4251921300084101</v>
       </c>
       <c r="D797">
-        <f t="shared" si="12"/>
-        <v>1.4251921300084101E-2</v>
+        <v>1</v>
       </c>
       <c r="E797" t="s">
         <v>2</v>
@@ -17466,8 +16670,7 @@
         <v>1.47699009622888</v>
       </c>
       <c r="D798">
-        <f t="shared" si="12"/>
-        <v>1.47699009622888E-2</v>
+        <v>1</v>
       </c>
       <c r="E798" t="s">
         <v>2</v>
@@ -17487,8 +16690,7 @@
         <v>0.89649358536438495</v>
       </c>
       <c r="D799">
-        <f t="shared" si="12"/>
-        <v>8.9649358536438503E-3</v>
+        <v>1</v>
       </c>
       <c r="E799" t="s">
         <v>2</v>
@@ -17508,8 +16710,7 @@
         <v>-0.74664670820527901</v>
       </c>
       <c r="D800">
-        <f t="shared" si="12"/>
-        <v>7.46646708205279E-3</v>
+        <v>1</v>
       </c>
       <c r="E800" t="s">
         <v>2</v>
@@ -17529,8 +16730,7 @@
         <v>-0.224757788810582</v>
       </c>
       <c r="D801">
-        <f t="shared" si="12"/>
-        <v>2.24757788810582E-3</v>
+        <v>1</v>
       </c>
       <c r="E801" t="s">
         <v>2</v>
@@ -17550,8 +16750,7 @@
         <v>0.50046667951466495</v>
       </c>
       <c r="D802">
-        <f t="shared" si="12"/>
-        <v>5.0046667951466495E-3</v>
+        <v>1</v>
       </c>
       <c r="E802" t="s">
         <v>2</v>
@@ -17571,8 +16770,7 @@
         <v>3.9944901854359102E-2</v>
       </c>
       <c r="D803">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E803" t="s">
         <v>2</v>
@@ -17592,8 +16790,7 @@
         <v>3.9944901854359602E-2</v>
       </c>
       <c r="D804">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E804" t="s">
         <v>2</v>
@@ -17613,8 +16810,7 @@
         <v>0.438188110032113</v>
       </c>
       <c r="D805">
-        <f t="shared" si="12"/>
-        <v>4.3818811003211297E-3</v>
+        <v>1</v>
       </c>
       <c r="E805" t="s">
         <v>2</v>
@@ -17634,8 +16830,7 @@
         <v>2.0660081414761101E-5</v>
       </c>
       <c r="D806">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E806" t="s">
         <v>2</v>
@@ -17655,8 +16850,7 @@
         <v>1.63786820244414</v>
       </c>
       <c r="D807">
-        <f t="shared" si="12"/>
-        <v>1.6378682024441399E-2</v>
+        <v>1</v>
       </c>
       <c r="E807" t="s">
         <v>2</v>
@@ -17676,8 +16870,7 @@
         <v>1.54771764519036</v>
       </c>
       <c r="D808">
-        <f t="shared" si="12"/>
-        <v>1.54771764519036E-2</v>
+        <v>1</v>
       </c>
       <c r="E808" t="s">
         <v>2</v>
@@ -17697,8 +16890,7 @@
         <v>1.6005257533704E-2</v>
       </c>
       <c r="D809">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E809" t="s">
         <v>2</v>
@@ -17718,8 +16910,7 @@
         <v>7.5571373820574994E-2</v>
       </c>
       <c r="D810">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E810" t="s">
         <v>2</v>
@@ -17739,8 +16930,7 @@
         <v>6.1127382529942903E-2</v>
       </c>
       <c r="D811">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E811" t="s">
         <v>2</v>
@@ -17760,8 +16950,7 @@
         <v>3.3837807133863299E-3</v>
       </c>
       <c r="D812">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E812" t="s">
         <v>2</v>
@@ -17781,8 +16970,7 @@
         <v>2.8590405266991502E-3</v>
       </c>
       <c r="D813">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E813" t="s">
         <v>2</v>
@@ -17802,8 +16990,7 @@
         <v>2.0660081412771099E-5</v>
       </c>
       <c r="D814">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E814" t="s">
         <v>2</v>
@@ -17823,8 +17010,7 @@
         <v>2.85904052670505E-3</v>
       </c>
       <c r="D815">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E815" t="s">
         <v>2</v>
@@ -17844,8 +17030,7 @@
         <v>71.275633417267301</v>
       </c>
       <c r="D816">
-        <f t="shared" si="12"/>
-        <v>0.71275633417267303</v>
+        <v>7.1275633417267299</v>
       </c>
       <c r="E816" t="s">
         <v>2</v>
@@ -17865,8 +17050,7 @@
         <v>1.19493381674454</v>
       </c>
       <c r="D817">
-        <f t="shared" si="12"/>
-        <v>1.19493381674454E-2</v>
+        <v>1</v>
       </c>
       <c r="E817" t="s">
         <v>2</v>
@@ -17886,8 +17070,7 @@
         <v>32.619541836720501</v>
       </c>
       <c r="D818">
-        <f t="shared" si="12"/>
-        <v>0.326195418367205</v>
+        <v>3.2619541836720503</v>
       </c>
       <c r="E818" t="s">
         <v>2</v>
@@ -17907,8 +17090,7 @@
         <v>1.91364800977483E-3</v>
       </c>
       <c r="D819">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E819" t="s">
         <v>2</v>
@@ -17928,8 +17110,7 @@
         <v>58.057756735322201</v>
       </c>
       <c r="D820">
-        <f t="shared" si="12"/>
-        <v>0.58057756735322197</v>
+        <v>5.8057756735322199</v>
       </c>
       <c r="E820" t="s">
         <v>2</v>
@@ -17949,8 +17130,7 @@
         <v>49.237963782274001</v>
       </c>
       <c r="D821">
-        <f t="shared" si="12"/>
-        <v>0.49237963782274002</v>
+        <v>4.9237963782273999</v>
       </c>
       <c r="E821" t="s">
         <v>2</v>
@@ -17970,8 +17150,7 @@
         <v>80.990325854168105</v>
       </c>
       <c r="D822">
-        <f t="shared" si="12"/>
-        <v>0.8099032585416811</v>
+        <v>8.0990325854168113</v>
       </c>
       <c r="E822" t="s">
         <v>2</v>
@@ -17991,8 +17170,7 @@
         <v>72.470567234011895</v>
       </c>
       <c r="D823">
-        <f t="shared" si="12"/>
-        <v>0.72470567234011896</v>
+        <v>7.2470567234011893</v>
       </c>
       <c r="E823" t="s">
         <v>2</v>
@@ -18012,8 +17190,7 @@
         <v>22.601500992204802</v>
       </c>
       <c r="D824">
-        <f t="shared" si="12"/>
-        <v>0.22601500992204801</v>
+        <v>2.2601500992204802</v>
       </c>
       <c r="E824" t="s">
         <v>2</v>
@@ -18033,8 +17210,7 @@
         <v>0.50046667951467305</v>
       </c>
       <c r="D825">
-        <f t="shared" si="12"/>
-        <v>5.0046667951467302E-3</v>
+        <v>1</v>
       </c>
       <c r="E825" t="s">
         <v>2</v>
@@ -18054,8 +17230,7 @@
         <v>-58.057756735322201</v>
       </c>
       <c r="D826">
-        <f t="shared" si="12"/>
-        <v>0.58057756735322197</v>
+        <v>5.8057756735322199</v>
       </c>
       <c r="E826" t="s">
         <v>2</v>
@@ -18075,8 +17250,7 @@
         <v>-72.470567234011895</v>
       </c>
       <c r="D827">
-        <f t="shared" si="12"/>
-        <v>0.72470567234011896</v>
+        <v>7.2470567234011893</v>
       </c>
       <c r="E827" t="s">
         <v>2</v>
@@ -18096,8 +17270,7 @@
         <v>-0.50046667951467305</v>
       </c>
       <c r="D828">
-        <f t="shared" si="12"/>
-        <v>5.0046667951467302E-3</v>
+        <v>1</v>
       </c>
       <c r="E828" t="s">
         <v>2</v>
@@ -18117,8 +17290,7 @@
         <v>-22.6015009922045</v>
       </c>
       <c r="D829">
-        <f t="shared" si="12"/>
-        <v>0.22601500992204498</v>
+        <v>2.26015009922045</v>
       </c>
       <c r="E829" t="s">
         <v>2</v>
@@ -18138,8 +17310,7 @@
         <v>80.990325854168105</v>
       </c>
       <c r="D830">
-        <f t="shared" si="12"/>
-        <v>0.8099032585416811</v>
+        <v>8.0990325854168113</v>
       </c>
       <c r="E830" t="s">
         <v>2</v>
@@ -18159,8 +17330,7 @@
         <v>49.237963782274001</v>
       </c>
       <c r="D831">
-        <f t="shared" si="12"/>
-        <v>0.49237963782274002</v>
+        <v>4.9237963782273999</v>
       </c>
       <c r="E831" t="s">
         <v>2</v>
@@ -18180,8 +17350,7 @@
         <v>9.3747626770316899</v>
       </c>
       <c r="D832">
-        <f t="shared" si="12"/>
-        <v>9.3747626770316894E-2</v>
+        <v>1</v>
       </c>
       <c r="E832" t="s">
         <v>2</v>
@@ -18201,8 +17370,7 @@
         <v>5.5499038377299602E-2</v>
       </c>
       <c r="D833">
-        <f t="shared" si="12"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E833" t="s">
         <v>2</v>
@@ -18222,8 +17390,7 @@
         <v>392.39070984638801</v>
       </c>
       <c r="D834">
-        <f t="shared" si="12"/>
-        <v>3.92390709846388</v>
+        <v>39.239070984638801</v>
       </c>
       <c r="E834" t="s">
         <v>2</v>
@@ -18243,8 +17410,7 @@
         <v>0.16629450761826201</v>
       </c>
       <c r="D835">
-        <f t="shared" ref="D835:D865" si="13">MAX(0.001,ABS(C835/100))</f>
-        <v>1.66294507618262E-3</v>
+        <v>1</v>
       </c>
       <c r="E835" t="s">
         <v>2</v>
@@ -18264,8 +17430,7 @@
         <v>1.7425359879438</v>
       </c>
       <c r="D836">
-        <f t="shared" si="13"/>
-        <v>1.7425359879437999E-2</v>
+        <v>1</v>
       </c>
       <c r="E836" t="s">
         <v>2</v>
@@ -18285,8 +17450,7 @@
         <v>-19.861133603729201</v>
       </c>
       <c r="D837">
-        <f t="shared" si="13"/>
-        <v>0.198611336037292</v>
+        <v>1.98611336037292</v>
       </c>
       <c r="E837" t="s">
         <v>2</v>
@@ -18306,8 +17470,7 @@
         <v>0.222072997407227</v>
       </c>
       <c r="D838">
-        <f t="shared" si="13"/>
-        <v>2.2207299740722702E-3</v>
+        <v>1</v>
       </c>
       <c r="E838" t="s">
         <v>2</v>
@@ -18327,8 +17490,7 @@
         <v>0.41569946796695301</v>
       </c>
       <c r="D839">
-        <f t="shared" si="13"/>
-        <v>4.1569946796695297E-3</v>
+        <v>1</v>
       </c>
       <c r="E839" t="s">
         <v>2</v>
@@ -18348,8 +17510,7 @@
         <v>40.275606725787398</v>
       </c>
       <c r="D840">
-        <f t="shared" si="13"/>
-        <v>0.402756067257874</v>
+        <v>4.0275606725787396</v>
       </c>
       <c r="E840" t="s">
         <v>2</v>
@@ -18369,8 +17530,7 @@
         <v>0.30040458503392498</v>
       </c>
       <c r="D841">
-        <f t="shared" si="13"/>
-        <v>3.0040458503392499E-3</v>
+        <v>1</v>
       </c>
       <c r="E841" t="s">
         <v>2</v>
@@ -18390,8 +17550,7 @@
         <v>15.0935457288073</v>
       </c>
       <c r="D842">
-        <f t="shared" si="13"/>
-        <v>0.150935457288073</v>
+        <v>1.50935457288073</v>
       </c>
       <c r="E842" t="s">
         <v>2</v>
@@ -18411,8 +17570,7 @@
         <v>0.98400676696973399</v>
       </c>
       <c r="D843">
-        <f t="shared" si="13"/>
-        <v>9.8400676696973402E-3</v>
+        <v>1</v>
       </c>
       <c r="E843" t="s">
         <v>2</v>
@@ -18432,8 +17590,7 @@
         <v>3.5756987145872401E-2</v>
       </c>
       <c r="D844">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E844" t="s">
         <v>2</v>
@@ -18453,8 +17610,7 @@
         <v>0.41240608005416401</v>
       </c>
       <c r="D845">
-        <f t="shared" si="13"/>
-        <v>4.1240608005416405E-3</v>
+        <v>1</v>
       </c>
       <c r="E845" t="s">
         <v>2</v>
@@ -18474,8 +17630,7 @@
         <v>4.3154177851634898</v>
       </c>
       <c r="D846">
-        <f t="shared" si="13"/>
-        <v>4.3154177851634896E-2</v>
+        <v>1</v>
       </c>
       <c r="E846" t="s">
         <v>2</v>
@@ -18495,8 +17650,7 @@
         <v>1.2139256783941701</v>
       </c>
       <c r="D847">
-        <f t="shared" si="13"/>
-        <v>1.2139256783941701E-2</v>
+        <v>1</v>
       </c>
       <c r="E847" t="s">
         <v>2</v>
@@ -18516,8 +17670,7 @@
         <v>0.15046737065215901</v>
       </c>
       <c r="D848">
-        <f t="shared" si="13"/>
-        <v>1.5046737065215901E-3</v>
+        <v>1</v>
       </c>
       <c r="E848" t="s">
         <v>2</v>
@@ -18537,8 +17690,7 @@
         <v>0.75776338776809404</v>
       </c>
       <c r="D849">
-        <f t="shared" si="13"/>
-        <v>7.5776338776809404E-3</v>
+        <v>1</v>
       </c>
       <c r="E849" t="s">
         <v>2</v>
@@ -18558,8 +17710,7 @@
         <v>0.83083019362099997</v>
       </c>
       <c r="D850">
-        <f t="shared" si="13"/>
-        <v>8.308301936209999E-3</v>
+        <v>1</v>
       </c>
       <c r="E850" t="s">
         <v>2</v>
@@ -18579,8 +17730,7 @@
         <v>1.42519213000842</v>
       </c>
       <c r="D851">
-        <f t="shared" si="13"/>
-        <v>1.4251921300084201E-2</v>
+        <v>1</v>
       </c>
       <c r="E851" t="s">
         <v>2</v>
@@ -18600,8 +17750,7 @@
         <v>7.6646050636439297E-2</v>
       </c>
       <c r="D852">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E852" t="s">
         <v>2</v>
@@ -18621,8 +17770,7 @@
         <v>1.4183825047590799</v>
       </c>
       <c r="D853">
-        <f t="shared" si="13"/>
-        <v>1.4183825047590798E-2</v>
+        <v>1</v>
       </c>
       <c r="E853" t="s">
         <v>2</v>
@@ -18642,8 +17790,7 @@
         <v>0.146967176550996</v>
       </c>
       <c r="D854">
-        <f t="shared" si="13"/>
-        <v>1.46967176550996E-3</v>
+        <v>1</v>
       </c>
       <c r="E854" t="s">
         <v>2</v>
@@ -18663,8 +17810,7 @@
         <v>0.64694064130911899</v>
       </c>
       <c r="D855">
-        <f t="shared" si="13"/>
-        <v>6.4694064130911902E-3</v>
+        <v>1</v>
       </c>
       <c r="E855" t="s">
         <v>2</v>
@@ -18684,8 +17830,7 @@
         <v>0.50044601943325195</v>
       </c>
       <c r="D856">
-        <f t="shared" si="13"/>
-        <v>5.0044601943325193E-3</v>
+        <v>1</v>
       </c>
       <c r="E856" t="s">
         <v>2</v>
@@ -18705,8 +17850,7 @@
         <v>3.9944901854359498E-2</v>
       </c>
       <c r="D857">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E857" t="s">
         <v>2</v>
@@ -18726,8 +17870,7 @@
         <v>2.06600814147594E-5</v>
       </c>
       <c r="D858">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E858" t="s">
         <v>2</v>
@@ -18747,8 +17890,7 @@
         <v>1.63786820244414</v>
       </c>
       <c r="D859">
-        <f t="shared" si="13"/>
-        <v>1.6378682024441399E-2</v>
+        <v>1</v>
       </c>
       <c r="E859" t="s">
         <v>2</v>
@@ -18768,8 +17910,7 @@
         <v>1.54771764519038</v>
       </c>
       <c r="D860">
-        <f t="shared" si="13"/>
-        <v>1.54771764519038E-2</v>
+        <v>1</v>
       </c>
       <c r="E860" t="s">
         <v>2</v>
@@ -18789,8 +17930,7 @@
         <v>1.60052575335736E-2</v>
       </c>
       <c r="D861">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E861" t="s">
         <v>2</v>
@@ -18810,8 +17950,7 @@
         <v>7.5571373820593396E-2</v>
       </c>
       <c r="D862">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E862" t="s">
         <v>2</v>
@@ -18831,8 +17970,7 @@
         <v>6.1127382529943798E-2</v>
       </c>
       <c r="D863">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E863" t="s">
         <v>2</v>
@@ -18852,8 +17990,7 @@
         <v>3.3837807133864999E-3</v>
       </c>
       <c r="D864">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E864" t="s">
         <v>2</v>
@@ -18873,8 +18010,7 @@
         <v>2.8590405266992898E-3</v>
       </c>
       <c r="D865">
-        <f t="shared" si="13"/>
-        <v>1E-3</v>
+        <v>1</v>
       </c>
       <c r="E865" t="s">
         <v>2</v>
